--- a/src/main/java/de/upb/sse/cutNRun/results/SourcesOfUnsoundnessCount.xlsx
+++ b/src/main/java/de/upb/sse/cutNRun/results/SourcesOfUnsoundnessCount.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\shazib\DEV\cutNRun\src\main\java\de\upb\sse\cutNRun\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84457FE5-BCFF-4E9F-AA6A-77B08E117EF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42C1167A-598A-4A90-9084-3685D8DCDEAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,14 +16,14 @@
     <sheet name="SourcesOfUnsoundnessCount" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">SourcesOfUnsoundnessCount!$D$1:$D$72</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">SourcesOfUnsoundnessCount!$D$1:$D$130</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="994" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1806" uniqueCount="190">
   <si>
     <t>ProjectName</t>
   </si>
@@ -386,6 +386,213 @@
   </si>
   <si>
     <t>guice-7.0.0.jar</t>
+  </si>
+  <si>
+    <t>httpcore5-5.3.1.jar</t>
+  </si>
+  <si>
+    <t>easymock-5.5.0.jar</t>
+  </si>
+  <si>
+    <t>postgresql-42.7.4.jar</t>
+  </si>
+  <si>
+    <t>snakeyaml-2.3.jar</t>
+  </si>
+  <si>
+    <t>commons-collections4-4.4.jar</t>
+  </si>
+  <si>
+    <t>commons-cli-1.9.0.jar</t>
+  </si>
+  <si>
+    <t>maven-core-3.9.9.jar</t>
+  </si>
+  <si>
+    <t>jakarta.servlet-api-6.1.0.jar</t>
+  </si>
+  <si>
+    <t>powermock-module-junit4-2.0.9.jar</t>
+  </si>
+  <si>
+    <t>spring-boot-starter-actuator-3.4.0.jar</t>
+  </si>
+  <si>
+    <t>spring-jdbc-6.2.0.jar</t>
+  </si>
+  <si>
+    <t>hibernate-core-6.6.3.Final.jar</t>
+  </si>
+  <si>
+    <t>162</t>
+  </si>
+  <si>
+    <t>59</t>
+  </si>
+  <si>
+    <t>93</t>
+  </si>
+  <si>
+    <t>mockito-junit-jupiter-5.14.2.jar</t>
+  </si>
+  <si>
+    <t>junit-vintage-engine-5.11.3.jar</t>
+  </si>
+  <si>
+    <t>jaxb-impl-4.0.5.jar</t>
+  </si>
+  <si>
+    <t>reflections-0.10.2.jar</t>
+  </si>
+  <si>
+    <t>jackson-dataformat-yaml-2.18.2.jar</t>
+  </si>
+  <si>
+    <t>hibernate-validator-8.0.1.Final.jar</t>
+  </si>
+  <si>
+    <t>commons-compress-1.27.1.jar</t>
+  </si>
+  <si>
+    <t>jul-to-slf4j-2.0.16.jar</t>
+  </si>
+  <si>
+    <t>spring-tx-6.2.0.jar</t>
+  </si>
+  <si>
+    <t>log4j-over-slf4j-2.0.16.jar</t>
+  </si>
+  <si>
+    <t>jetty-server-12.0.15.jar</t>
+  </si>
+  <si>
+    <t>jsoup-1.18.3.jar</t>
+  </si>
+  <si>
+    <t>jackson-databind-2.18.2.jar</t>
+  </si>
+  <si>
+    <t>converter-gson-2.11.0.jar</t>
+  </si>
+  <si>
+    <t>spring-boot-3.4.0.jar</t>
+  </si>
+  <si>
+    <t>spring-context-support-6.2.0.jar</t>
+  </si>
+  <si>
+    <t>osgi.cmpn-7.0.0.jar</t>
+  </si>
+  <si>
+    <t>33</t>
+  </si>
+  <si>
+    <t>javassist-3.30.2-GA.jar</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>bcprov-jdk18on-1.79.jar</t>
+  </si>
+  <si>
+    <t>commons-text-1.12.0.jar</t>
+  </si>
+  <si>
+    <t>rxjava-3.1.10.jar</t>
+  </si>
+  <si>
+    <t>jakarta.ws.rs-api-4.0.0.jar</t>
+  </si>
+  <si>
+    <t>jakarta.annotation-api-3.0.0.jar</t>
+  </si>
+  <si>
+    <t>plexus-utils-4.0.2.jar</t>
+  </si>
+  <si>
+    <t>aspectjweaver-1.9.22.1.jar</t>
+  </si>
+  <si>
+    <t>26</t>
+  </si>
+  <si>
+    <t>awaitility-4.2.2.jar</t>
+  </si>
+  <si>
+    <t>hsqldb-2.7.4.jar</t>
+  </si>
+  <si>
+    <t>Failed to apply sootup.interceptors.NopEliminator@5f5b6f29 to &lt;org.hsqldb.persist.RAFileInJar: void resetStream()&gt;</t>
+  </si>
+  <si>
+    <t>spring-aop-6.2.0.jar</t>
+  </si>
+  <si>
+    <t>jakarta.xml.bind-api-4.0.2.jar</t>
+  </si>
+  <si>
+    <t>spring-boot-starter-aop-3.4.0.jar</t>
+  </si>
+  <si>
+    <t>glide-4.16.0.jar</t>
+  </si>
+  <si>
+    <t>asm-9.7.1.jar</t>
+  </si>
+  <si>
+    <t>aspectjrt-1.9.22.1.jar</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>hadoop-common-3.4.1.jar</t>
+  </si>
+  <si>
+    <t>Failed to apply sootup.interceptors.NopEliminator@5f5b6f29 to &lt;org.apache.hadoop.util.CleanerUtil: java.lang.Object unmapHackImpl()&gt;</t>
+  </si>
+  <si>
+    <t>xercesImpl-2.12.2.jar</t>
+  </si>
+  <si>
+    <t>25</t>
+  </si>
+  <si>
+    <t>netty-all-4.1.115.Final.jar</t>
+  </si>
+  <si>
+    <t>powermock-api-mockito2-2.0.9.jar</t>
+  </si>
+  <si>
+    <t>commons-fileupload2-javax-2.0.0-M2.jar</t>
+  </si>
+  <si>
+    <t>httpclient5-5.4.1.jar</t>
+  </si>
+  <si>
+    <t>javax.mail-api-1.6.2.jar</t>
+  </si>
+  <si>
+    <t>caffeine-3.1.8.jar</t>
+  </si>
+  <si>
+    <t>spock-core-2.4-M4-groovy-4.0.jar</t>
+  </si>
+  <si>
+    <t>freemarker-2.3.33.jar</t>
+  </si>
+  <si>
+    <t>55</t>
+  </si>
+  <si>
+    <t>28</t>
+  </si>
+  <si>
+    <t>HikariCP-6.2.1.jar</t>
+  </si>
+  <si>
+    <t>config-1.4.3.jar</t>
   </si>
 </sst>
 </file>
@@ -758,16 +965,17 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:N72"/>
+  <dimension ref="A1:N129"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A42" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D1" sqref="D1:D1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="19" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="38.33203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="24.21875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="244.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.3">
@@ -814,7 +1022,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>12</v>
       </c>
@@ -858,7 +1066,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>18</v>
       </c>
@@ -902,7 +1110,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>21</v>
       </c>
@@ -990,7 +1198,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>28</v>
       </c>
@@ -1034,7 +1242,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>33</v>
       </c>
@@ -1078,7 +1286,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>35</v>
       </c>
@@ -1122,7 +1330,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>37</v>
       </c>
@@ -1166,7 +1374,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>38</v>
       </c>
@@ -1210,7 +1418,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>39</v>
       </c>
@@ -1254,7 +1462,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>41</v>
       </c>
@@ -1342,7 +1550,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>45</v>
       </c>
@@ -1386,7 +1594,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>48</v>
       </c>
@@ -1474,7 +1682,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>51</v>
       </c>
@@ -1606,7 +1814,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>54</v>
       </c>
@@ -1650,7 +1858,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>55</v>
       </c>
@@ -1694,7 +1902,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>59</v>
       </c>
@@ -1782,7 +1990,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>61</v>
       </c>
@@ -1958,7 +2166,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>67</v>
       </c>
@@ -2090,7 +2298,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>70</v>
       </c>
@@ -2266,7 +2474,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>75</v>
       </c>
@@ -2310,7 +2518,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>76</v>
       </c>
@@ -2354,7 +2562,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>77</v>
       </c>
@@ -2398,7 +2606,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>78</v>
       </c>
@@ -2442,7 +2650,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="39" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>79</v>
       </c>
@@ -2486,7 +2694,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>83</v>
       </c>
@@ -2574,7 +2782,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>85</v>
       </c>
@@ -2618,7 +2826,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>86</v>
       </c>
@@ -2662,7 +2870,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>87</v>
       </c>
@@ -2706,7 +2914,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>88</v>
       </c>
@@ -2794,7 +3002,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>90</v>
       </c>
@@ -2838,7 +3046,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>92</v>
       </c>
@@ -3058,7 +3266,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>99</v>
       </c>
@@ -3102,7 +3310,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>100</v>
       </c>
@@ -3234,7 +3442,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="57" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>104</v>
       </c>
@@ -3278,7 +3486,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="58" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>105</v>
       </c>
@@ -3366,7 +3574,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="60" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>107</v>
       </c>
@@ -3410,7 +3618,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="61" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>108</v>
       </c>
@@ -3498,7 +3706,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="63" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>110</v>
       </c>
@@ -3542,7 +3750,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="64" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>111</v>
       </c>
@@ -3586,7 +3794,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="65" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>112</v>
       </c>
@@ -3630,7 +3838,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="66" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>113</v>
       </c>
@@ -3674,7 +3882,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="67" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>114</v>
       </c>
@@ -3718,7 +3926,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="68" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>115</v>
       </c>
@@ -3762,7 +3970,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="69" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>118</v>
       </c>
@@ -3850,7 +4058,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="71" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>120</v>
       </c>
@@ -3894,35 +4102,2563 @@
         <v>14</v>
       </c>
     </row>
-    <row r="72" spans="1:14" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="72" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A72" t="s">
+        <v>82</v>
+      </c>
+      <c r="B72" t="s">
+        <v>82</v>
+      </c>
+      <c r="C72" t="s">
+        <v>82</v>
+      </c>
+      <c r="D72" t="s">
+        <v>82</v>
+      </c>
+      <c r="E72" t="s">
+        <v>82</v>
+      </c>
+      <c r="F72" t="s">
+        <v>82</v>
+      </c>
+      <c r="G72" t="s">
+        <v>82</v>
+      </c>
+      <c r="H72" t="s">
+        <v>82</v>
+      </c>
+      <c r="I72" t="s">
+        <v>82</v>
+      </c>
+      <c r="J72" t="s">
+        <v>82</v>
+      </c>
+      <c r="K72" t="s">
+        <v>82</v>
+      </c>
+      <c r="L72" t="s">
+        <v>82</v>
+      </c>
+      <c r="M72" t="s">
+        <v>82</v>
+      </c>
+      <c r="N72" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="73" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A73" t="s">
+        <v>121</v>
+      </c>
+      <c r="B73" t="s">
+        <v>30</v>
+      </c>
+      <c r="C73" t="s">
+        <v>14</v>
+      </c>
+      <c r="D73" t="s">
+        <v>30</v>
+      </c>
+      <c r="E73" t="s">
+        <v>15</v>
+      </c>
+      <c r="F73" t="s">
+        <v>15</v>
+      </c>
+      <c r="G73" t="s">
+        <v>36</v>
+      </c>
+      <c r="H73" t="s">
+        <v>14</v>
+      </c>
+      <c r="I73" t="s">
+        <v>20</v>
+      </c>
+      <c r="J73" t="s">
+        <v>30</v>
+      </c>
+      <c r="K73" t="s">
+        <v>14</v>
+      </c>
+      <c r="L73" t="s">
+        <v>14</v>
+      </c>
+      <c r="M73" t="s">
+        <v>14</v>
+      </c>
+      <c r="N73" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="74" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A74" t="s">
+        <v>122</v>
+      </c>
+      <c r="B74" t="s">
+        <v>24</v>
+      </c>
+      <c r="C74" t="s">
+        <v>20</v>
+      </c>
+      <c r="D74" t="s">
+        <v>63</v>
+      </c>
+      <c r="E74" t="s">
+        <v>15</v>
+      </c>
+      <c r="F74" t="s">
+        <v>15</v>
+      </c>
+      <c r="G74" t="s">
+        <v>30</v>
+      </c>
+      <c r="H74" t="s">
+        <v>25</v>
+      </c>
+      <c r="I74" t="s">
+        <v>25</v>
+      </c>
+      <c r="J74" t="s">
+        <v>24</v>
+      </c>
+      <c r="K74" t="s">
+        <v>14</v>
+      </c>
+      <c r="L74" t="s">
+        <v>14</v>
+      </c>
+      <c r="M74" t="s">
+        <v>20</v>
+      </c>
+      <c r="N74" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="75" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A75" t="s">
+        <v>123</v>
+      </c>
+      <c r="B75" t="s">
+        <v>34</v>
+      </c>
+      <c r="C75" t="s">
+        <v>34</v>
+      </c>
+      <c r="D75" t="s">
+        <v>16</v>
+      </c>
+      <c r="E75" t="s">
+        <v>15</v>
+      </c>
+      <c r="F75" t="s">
+        <v>15</v>
+      </c>
+      <c r="G75" t="s">
+        <v>20</v>
+      </c>
+      <c r="H75" t="s">
+        <v>30</v>
+      </c>
+      <c r="I75" t="s">
+        <v>20</v>
+      </c>
+      <c r="J75" t="s">
+        <v>34</v>
+      </c>
+      <c r="K75" t="s">
+        <v>34</v>
+      </c>
+      <c r="L75" t="s">
+        <v>14</v>
+      </c>
+      <c r="M75" t="s">
+        <v>14</v>
+      </c>
+      <c r="N75" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="76" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A76" t="s">
+        <v>124</v>
+      </c>
+      <c r="B76" t="s">
+        <v>34</v>
+      </c>
+      <c r="C76" t="s">
+        <v>14</v>
+      </c>
+      <c r="D76" t="s">
+        <v>34</v>
+      </c>
+      <c r="E76" t="s">
+        <v>15</v>
+      </c>
+      <c r="F76" t="s">
+        <v>15</v>
+      </c>
+      <c r="G76" t="s">
+        <v>14</v>
+      </c>
+      <c r="H76" t="s">
+        <v>34</v>
+      </c>
+      <c r="I76" t="s">
+        <v>14</v>
+      </c>
+      <c r="J76" t="s">
+        <v>34</v>
+      </c>
+      <c r="K76" t="s">
+        <v>14</v>
+      </c>
+      <c r="L76" t="s">
+        <v>14</v>
+      </c>
+      <c r="M76" t="s">
+        <v>14</v>
+      </c>
+      <c r="N76" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="77" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A77" t="s">
+        <v>125</v>
+      </c>
+      <c r="B77" t="s">
+        <v>47</v>
+      </c>
+      <c r="C77" t="s">
+        <v>14</v>
+      </c>
+      <c r="D77" t="s">
+        <v>47</v>
+      </c>
+      <c r="E77" t="s">
+        <v>15</v>
+      </c>
+      <c r="F77" t="s">
+        <v>15</v>
+      </c>
+      <c r="G77" t="s">
+        <v>36</v>
+      </c>
+      <c r="H77" t="s">
+        <v>36</v>
+      </c>
+      <c r="I77" t="s">
+        <v>14</v>
+      </c>
+      <c r="J77" t="s">
+        <v>47</v>
+      </c>
+      <c r="K77" t="s">
+        <v>14</v>
+      </c>
+      <c r="L77" t="s">
+        <v>14</v>
+      </c>
+      <c r="M77" t="s">
+        <v>14</v>
+      </c>
+      <c r="N77" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="78" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A78" t="s">
+        <v>126</v>
+      </c>
+      <c r="B78" t="s">
+        <v>20</v>
+      </c>
+      <c r="C78" t="s">
+        <v>14</v>
+      </c>
+      <c r="D78" t="s">
+        <v>20</v>
+      </c>
+      <c r="E78" t="s">
+        <v>15</v>
+      </c>
+      <c r="F78" t="s">
+        <v>15</v>
+      </c>
+      <c r="G78" t="s">
+        <v>14</v>
+      </c>
+      <c r="H78" t="s">
+        <v>20</v>
+      </c>
+      <c r="I78" t="s">
+        <v>14</v>
+      </c>
+      <c r="J78" t="s">
+        <v>20</v>
+      </c>
+      <c r="K78" t="s">
+        <v>14</v>
+      </c>
+      <c r="L78" t="s">
+        <v>14</v>
+      </c>
+      <c r="M78" t="s">
+        <v>14</v>
+      </c>
+      <c r="N78" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="79" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A79" t="s">
+        <v>127</v>
+      </c>
+      <c r="B79" t="s">
+        <v>14</v>
+      </c>
+      <c r="C79" t="s">
+        <v>14</v>
+      </c>
+      <c r="D79" t="s">
+        <v>14</v>
+      </c>
+      <c r="E79" t="s">
+        <v>15</v>
+      </c>
+      <c r="F79" t="s">
+        <v>15</v>
+      </c>
+      <c r="G79" t="s">
+        <v>14</v>
+      </c>
+      <c r="H79" t="s">
+        <v>14</v>
+      </c>
+      <c r="I79" t="s">
+        <v>14</v>
+      </c>
+      <c r="J79" t="s">
+        <v>14</v>
+      </c>
+      <c r="K79" t="s">
+        <v>14</v>
+      </c>
+      <c r="L79" t="s">
+        <v>14</v>
+      </c>
+      <c r="M79" t="s">
+        <v>14</v>
+      </c>
+      <c r="N79" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="80" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A80" t="s">
+        <v>128</v>
+      </c>
+      <c r="B80" t="s">
+        <v>14</v>
+      </c>
+      <c r="C80" t="s">
+        <v>14</v>
+      </c>
+      <c r="D80" t="s">
+        <v>14</v>
+      </c>
+      <c r="E80" t="s">
+        <v>15</v>
+      </c>
+      <c r="F80" t="s">
+        <v>15</v>
+      </c>
+      <c r="G80" t="s">
+        <v>14</v>
+      </c>
+      <c r="H80" t="s">
+        <v>14</v>
+      </c>
+      <c r="I80" t="s">
+        <v>14</v>
+      </c>
+      <c r="J80" t="s">
+        <v>14</v>
+      </c>
+      <c r="K80" t="s">
+        <v>14</v>
+      </c>
+      <c r="L80" t="s">
+        <v>14</v>
+      </c>
+      <c r="M80" t="s">
+        <v>14</v>
+      </c>
+      <c r="N80" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="81" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A81" t="s">
+        <v>129</v>
+      </c>
+      <c r="B81" t="s">
+        <v>30</v>
+      </c>
+      <c r="C81" t="s">
+        <v>14</v>
+      </c>
+      <c r="D81" t="s">
+        <v>30</v>
+      </c>
+      <c r="E81" t="s">
+        <v>15</v>
+      </c>
+      <c r="F81" t="s">
+        <v>15</v>
+      </c>
+      <c r="G81" t="s">
+        <v>25</v>
+      </c>
+      <c r="H81" t="s">
+        <v>19</v>
+      </c>
+      <c r="I81" t="s">
+        <v>14</v>
+      </c>
+      <c r="J81" t="s">
+        <v>30</v>
+      </c>
+      <c r="K81" t="s">
+        <v>14</v>
+      </c>
+      <c r="L81" t="s">
+        <v>14</v>
+      </c>
+      <c r="M81" t="s">
+        <v>14</v>
+      </c>
+      <c r="N81" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="82" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A82" t="s">
+        <v>130</v>
+      </c>
+      <c r="B82" t="s">
+        <v>14</v>
+      </c>
+      <c r="C82" t="s">
+        <v>14</v>
+      </c>
+      <c r="D82" t="s">
+        <v>14</v>
+      </c>
+      <c r="E82" t="s">
+        <v>15</v>
+      </c>
+      <c r="F82" t="s">
+        <v>15</v>
+      </c>
+      <c r="G82" t="s">
+        <v>14</v>
+      </c>
+      <c r="H82" t="s">
+        <v>14</v>
+      </c>
+      <c r="I82" t="s">
+        <v>14</v>
+      </c>
+      <c r="J82" t="s">
+        <v>14</v>
+      </c>
+      <c r="K82" t="s">
+        <v>14</v>
+      </c>
+      <c r="L82" t="s">
+        <v>14</v>
+      </c>
+      <c r="M82" t="s">
+        <v>14</v>
+      </c>
+      <c r="N82" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="83" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A83" t="s">
+        <v>131</v>
+      </c>
+      <c r="B83" t="s">
+        <v>32</v>
+      </c>
+      <c r="C83" t="s">
+        <v>14</v>
+      </c>
+      <c r="D83" t="s">
+        <v>32</v>
+      </c>
+      <c r="E83" t="s">
+        <v>15</v>
+      </c>
+      <c r="F83" t="s">
+        <v>15</v>
+      </c>
+      <c r="G83" t="s">
+        <v>25</v>
+      </c>
+      <c r="H83" t="s">
+        <v>101</v>
+      </c>
+      <c r="I83" t="s">
+        <v>14</v>
+      </c>
+      <c r="J83" t="s">
+        <v>32</v>
+      </c>
+      <c r="K83" t="s">
+        <v>14</v>
+      </c>
+      <c r="L83" t="s">
+        <v>14</v>
+      </c>
+      <c r="M83" t="s">
+        <v>14</v>
+      </c>
+      <c r="N83" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="84" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A84" t="s">
+        <v>132</v>
+      </c>
+      <c r="B84" t="s">
+        <v>133</v>
+      </c>
+      <c r="C84" t="s">
+        <v>14</v>
+      </c>
+      <c r="D84" t="s">
+        <v>133</v>
+      </c>
+      <c r="E84" t="s">
+        <v>15</v>
+      </c>
+      <c r="F84" t="s">
+        <v>15</v>
+      </c>
+      <c r="G84" t="s">
+        <v>134</v>
+      </c>
+      <c r="H84" t="s">
+        <v>135</v>
+      </c>
+      <c r="I84" t="s">
+        <v>43</v>
+      </c>
+      <c r="J84" t="s">
+        <v>133</v>
+      </c>
+      <c r="K84" t="s">
+        <v>14</v>
+      </c>
+      <c r="L84" t="s">
+        <v>14</v>
+      </c>
+      <c r="M84" t="s">
+        <v>14</v>
+      </c>
+      <c r="N84" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="85" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A85" t="s">
+        <v>136</v>
+      </c>
+      <c r="B85" t="s">
+        <v>14</v>
+      </c>
+      <c r="C85" t="s">
+        <v>14</v>
+      </c>
+      <c r="D85" t="s">
+        <v>14</v>
+      </c>
+      <c r="E85" t="s">
+        <v>15</v>
+      </c>
+      <c r="F85" t="s">
+        <v>15</v>
+      </c>
+      <c r="G85" t="s">
+        <v>14</v>
+      </c>
+      <c r="H85" t="s">
+        <v>14</v>
+      </c>
+      <c r="I85" t="s">
+        <v>14</v>
+      </c>
+      <c r="J85" t="s">
+        <v>14</v>
+      </c>
+      <c r="K85" t="s">
+        <v>14</v>
+      </c>
+      <c r="L85" t="s">
+        <v>14</v>
+      </c>
+      <c r="M85" t="s">
+        <v>14</v>
+      </c>
+      <c r="N85" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="86" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A86" t="s">
+        <v>137</v>
+      </c>
+      <c r="B86" t="s">
+        <v>14</v>
+      </c>
+      <c r="C86" t="s">
+        <v>14</v>
+      </c>
+      <c r="D86" t="s">
+        <v>14</v>
+      </c>
+      <c r="E86" t="s">
+        <v>15</v>
+      </c>
+      <c r="F86" t="s">
+        <v>15</v>
+      </c>
+      <c r="G86" t="s">
+        <v>14</v>
+      </c>
+      <c r="H86" t="s">
+        <v>14</v>
+      </c>
+      <c r="I86" t="s">
+        <v>14</v>
+      </c>
+      <c r="J86" t="s">
+        <v>14</v>
+      </c>
+      <c r="K86" t="s">
+        <v>14</v>
+      </c>
+      <c r="L86" t="s">
+        <v>14</v>
+      </c>
+      <c r="M86" t="s">
+        <v>14</v>
+      </c>
+      <c r="N86" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="87" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A87" t="s">
+        <v>138</v>
+      </c>
+      <c r="B87" t="s">
+        <v>58</v>
+      </c>
+      <c r="C87" t="s">
+        <v>14</v>
+      </c>
+      <c r="D87" t="s">
+        <v>58</v>
+      </c>
+      <c r="E87" t="s">
+        <v>15</v>
+      </c>
+      <c r="F87" t="s">
+        <v>15</v>
+      </c>
+      <c r="G87" t="s">
+        <v>32</v>
+      </c>
+      <c r="H87" t="s">
+        <v>34</v>
+      </c>
+      <c r="I87" t="s">
+        <v>20</v>
+      </c>
+      <c r="J87" t="s">
+        <v>58</v>
+      </c>
+      <c r="K87" t="s">
+        <v>14</v>
+      </c>
+      <c r="L87" t="s">
+        <v>14</v>
+      </c>
+      <c r="M87" t="s">
+        <v>14</v>
+      </c>
+      <c r="N87" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="88" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A88" t="s">
+        <v>139</v>
+      </c>
+      <c r="B88" t="s">
+        <v>101</v>
+      </c>
+      <c r="C88" t="s">
+        <v>14</v>
+      </c>
+      <c r="D88" t="s">
+        <v>101</v>
+      </c>
+      <c r="E88" t="s">
+        <v>15</v>
+      </c>
+      <c r="F88" t="s">
+        <v>15</v>
+      </c>
+      <c r="G88" t="s">
+        <v>25</v>
+      </c>
+      <c r="H88" t="s">
+        <v>20</v>
+      </c>
+      <c r="I88" t="s">
+        <v>19</v>
+      </c>
+      <c r="J88" t="s">
+        <v>101</v>
+      </c>
+      <c r="K88" t="s">
+        <v>14</v>
+      </c>
+      <c r="L88" t="s">
+        <v>14</v>
+      </c>
+      <c r="M88" t="s">
+        <v>14</v>
+      </c>
+      <c r="N88" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="89" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A89" t="s">
+        <v>140</v>
+      </c>
+      <c r="B89" t="s">
+        <v>14</v>
+      </c>
+      <c r="C89" t="s">
+        <v>14</v>
+      </c>
+      <c r="D89" t="s">
+        <v>14</v>
+      </c>
+      <c r="E89" t="s">
+        <v>15</v>
+      </c>
+      <c r="F89" t="s">
+        <v>15</v>
+      </c>
+      <c r="G89" t="s">
+        <v>14</v>
+      </c>
+      <c r="H89" t="s">
+        <v>14</v>
+      </c>
+      <c r="I89" t="s">
+        <v>14</v>
+      </c>
+      <c r="J89" t="s">
+        <v>14</v>
+      </c>
+      <c r="K89" t="s">
+        <v>14</v>
+      </c>
+      <c r="L89" t="s">
+        <v>14</v>
+      </c>
+      <c r="M89" t="s">
+        <v>14</v>
+      </c>
+      <c r="N89" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="90" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A90" t="s">
+        <v>141</v>
+      </c>
+      <c r="B90" t="s">
+        <v>32</v>
+      </c>
+      <c r="C90" t="s">
+        <v>14</v>
+      </c>
+      <c r="D90" t="s">
+        <v>32</v>
+      </c>
+      <c r="E90" t="s">
+        <v>15</v>
+      </c>
+      <c r="F90" t="s">
+        <v>15</v>
+      </c>
+      <c r="G90" t="s">
+        <v>101</v>
+      </c>
+      <c r="H90" t="s">
+        <v>19</v>
+      </c>
+      <c r="I90" t="s">
+        <v>20</v>
+      </c>
+      <c r="J90" t="s">
+        <v>32</v>
+      </c>
+      <c r="K90" t="s">
+        <v>14</v>
+      </c>
+      <c r="L90" t="s">
+        <v>14</v>
+      </c>
+      <c r="M90" t="s">
+        <v>14</v>
+      </c>
+      <c r="N90" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="91" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A91" t="s">
+        <v>142</v>
+      </c>
+      <c r="B91" t="s">
+        <v>25</v>
+      </c>
+      <c r="C91" t="s">
+        <v>14</v>
+      </c>
+      <c r="D91" t="s">
+        <v>25</v>
+      </c>
+      <c r="E91" t="s">
+        <v>15</v>
+      </c>
+      <c r="F91" t="s">
+        <v>15</v>
+      </c>
+      <c r="G91" t="s">
+        <v>14</v>
+      </c>
+      <c r="H91" t="s">
+        <v>25</v>
+      </c>
+      <c r="I91" t="s">
+        <v>14</v>
+      </c>
+      <c r="J91" t="s">
+        <v>25</v>
+      </c>
+      <c r="K91" t="s">
+        <v>14</v>
+      </c>
+      <c r="L91" t="s">
+        <v>14</v>
+      </c>
+      <c r="M91" t="s">
+        <v>14</v>
+      </c>
+      <c r="N91" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="92" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A92" t="s">
+        <v>143</v>
+      </c>
+      <c r="B92" t="s">
+        <v>14</v>
+      </c>
+      <c r="C92" t="s">
+        <v>14</v>
+      </c>
+      <c r="D92" t="s">
+        <v>14</v>
+      </c>
+      <c r="E92" t="s">
+        <v>15</v>
+      </c>
+      <c r="F92" t="s">
+        <v>15</v>
+      </c>
+      <c r="G92" t="s">
+        <v>14</v>
+      </c>
+      <c r="H92" t="s">
+        <v>14</v>
+      </c>
+      <c r="I92" t="s">
+        <v>14</v>
+      </c>
+      <c r="J92" t="s">
+        <v>14</v>
+      </c>
+      <c r="K92" t="s">
+        <v>14</v>
+      </c>
+      <c r="L92" t="s">
+        <v>14</v>
+      </c>
+      <c r="M92" t="s">
+        <v>14</v>
+      </c>
+      <c r="N92" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="93" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A93" t="s">
+        <v>144</v>
+      </c>
+      <c r="B93" t="s">
+        <v>14</v>
+      </c>
+      <c r="C93" t="s">
+        <v>14</v>
+      </c>
+      <c r="D93" t="s">
+        <v>14</v>
+      </c>
+      <c r="E93" t="s">
+        <v>15</v>
+      </c>
+      <c r="F93" t="s">
+        <v>15</v>
+      </c>
+      <c r="G93" t="s">
+        <v>14</v>
+      </c>
+      <c r="H93" t="s">
+        <v>14</v>
+      </c>
+      <c r="I93" t="s">
+        <v>14</v>
+      </c>
+      <c r="J93" t="s">
+        <v>14</v>
+      </c>
+      <c r="K93" t="s">
+        <v>14</v>
+      </c>
+      <c r="L93" t="s">
+        <v>14</v>
+      </c>
+      <c r="M93" t="s">
+        <v>14</v>
+      </c>
+      <c r="N93" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="94" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A94" t="s">
+        <v>145</v>
+      </c>
+      <c r="B94" t="s">
+        <v>14</v>
+      </c>
+      <c r="C94" t="s">
+        <v>14</v>
+      </c>
+      <c r="D94" t="s">
+        <v>14</v>
+      </c>
+      <c r="E94" t="s">
+        <v>15</v>
+      </c>
+      <c r="F94" t="s">
+        <v>15</v>
+      </c>
+      <c r="G94" t="s">
+        <v>14</v>
+      </c>
+      <c r="H94" t="s">
+        <v>14</v>
+      </c>
+      <c r="I94" t="s">
+        <v>14</v>
+      </c>
+      <c r="J94" t="s">
+        <v>14</v>
+      </c>
+      <c r="K94" t="s">
+        <v>14</v>
+      </c>
+      <c r="L94" t="s">
+        <v>14</v>
+      </c>
+      <c r="M94" t="s">
+        <v>14</v>
+      </c>
+      <c r="N94" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="95" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A95" t="s">
+        <v>146</v>
+      </c>
+      <c r="B95" t="s">
+        <v>14</v>
+      </c>
+      <c r="C95" t="s">
+        <v>23</v>
+      </c>
+      <c r="D95" t="s">
+        <v>23</v>
+      </c>
+      <c r="E95" t="s">
+        <v>15</v>
+      </c>
+      <c r="F95" t="s">
+        <v>15</v>
+      </c>
+      <c r="G95" t="s">
+        <v>14</v>
+      </c>
+      <c r="H95" t="s">
+        <v>14</v>
+      </c>
+      <c r="I95" t="s">
+        <v>14</v>
+      </c>
+      <c r="J95" t="s">
+        <v>14</v>
+      </c>
+      <c r="K95" t="s">
+        <v>23</v>
+      </c>
+      <c r="L95" t="s">
+        <v>14</v>
+      </c>
+      <c r="M95" t="s">
+        <v>14</v>
+      </c>
+      <c r="N95" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="96" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A96" t="s">
+        <v>147</v>
+      </c>
+      <c r="B96" t="s">
+        <v>20</v>
+      </c>
+      <c r="C96" t="s">
+        <v>14</v>
+      </c>
+      <c r="D96" t="s">
+        <v>20</v>
+      </c>
+      <c r="E96" t="s">
+        <v>15</v>
+      </c>
+      <c r="F96" t="s">
+        <v>15</v>
+      </c>
+      <c r="G96" t="s">
+        <v>14</v>
+      </c>
+      <c r="H96" t="s">
+        <v>20</v>
+      </c>
+      <c r="I96" t="s">
+        <v>14</v>
+      </c>
+      <c r="J96" t="s">
+        <v>20</v>
+      </c>
+      <c r="K96" t="s">
+        <v>14</v>
+      </c>
+      <c r="L96" t="s">
+        <v>14</v>
+      </c>
+      <c r="M96" t="s">
+        <v>14</v>
+      </c>
+      <c r="N96" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="97" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A97" t="s">
+        <v>148</v>
+      </c>
+      <c r="B97" t="s">
+        <v>16</v>
+      </c>
+      <c r="C97" t="s">
+        <v>14</v>
+      </c>
+      <c r="D97" t="s">
+        <v>16</v>
+      </c>
+      <c r="E97" t="s">
+        <v>15</v>
+      </c>
+      <c r="F97" t="s">
+        <v>15</v>
+      </c>
+      <c r="G97" t="s">
+        <v>30</v>
+      </c>
+      <c r="H97" t="s">
+        <v>34</v>
+      </c>
+      <c r="I97" t="s">
+        <v>19</v>
+      </c>
+      <c r="J97" t="s">
+        <v>16</v>
+      </c>
+      <c r="K97" t="s">
+        <v>14</v>
+      </c>
+      <c r="L97" t="s">
+        <v>14</v>
+      </c>
+      <c r="M97" t="s">
+        <v>14</v>
+      </c>
+      <c r="N97" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="98" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A98" t="s">
+        <v>149</v>
+      </c>
+      <c r="B98" t="s">
+        <v>14</v>
+      </c>
+      <c r="C98" t="s">
+        <v>14</v>
+      </c>
+      <c r="D98" t="s">
+        <v>14</v>
+      </c>
+      <c r="E98" t="s">
+        <v>15</v>
+      </c>
+      <c r="F98" t="s">
+        <v>15</v>
+      </c>
+      <c r="G98" t="s">
+        <v>14</v>
+      </c>
+      <c r="H98" t="s">
+        <v>14</v>
+      </c>
+      <c r="I98" t="s">
+        <v>14</v>
+      </c>
+      <c r="J98" t="s">
+        <v>14</v>
+      </c>
+      <c r="K98" t="s">
+        <v>14</v>
+      </c>
+      <c r="L98" t="s">
+        <v>14</v>
+      </c>
+      <c r="M98" t="s">
+        <v>14</v>
+      </c>
+      <c r="N98" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="99" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A99" t="s">
+        <v>150</v>
+      </c>
+      <c r="B99" t="s">
+        <v>16</v>
+      </c>
+      <c r="C99" t="s">
+        <v>14</v>
+      </c>
+      <c r="D99" t="s">
+        <v>16</v>
+      </c>
+      <c r="E99" t="s">
+        <v>15</v>
+      </c>
+      <c r="F99" t="s">
+        <v>15</v>
+      </c>
+      <c r="G99" t="s">
+        <v>30</v>
+      </c>
+      <c r="H99" t="s">
+        <v>47</v>
+      </c>
+      <c r="I99" t="s">
+        <v>20</v>
+      </c>
+      <c r="J99" t="s">
+        <v>16</v>
+      </c>
+      <c r="K99" t="s">
+        <v>14</v>
+      </c>
+      <c r="L99" t="s">
+        <v>14</v>
+      </c>
+      <c r="M99" t="s">
+        <v>14</v>
+      </c>
+      <c r="N99" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="100" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A100" t="s">
+        <v>151</v>
+      </c>
+      <c r="B100" t="s">
+        <v>20</v>
+      </c>
+      <c r="C100" t="s">
+        <v>14</v>
+      </c>
+      <c r="D100" t="s">
+        <v>20</v>
+      </c>
+      <c r="E100" t="s">
+        <v>15</v>
+      </c>
+      <c r="F100" t="s">
+        <v>15</v>
+      </c>
+      <c r="G100" t="s">
+        <v>14</v>
+      </c>
+      <c r="H100" t="s">
+        <v>20</v>
+      </c>
+      <c r="I100" t="s">
+        <v>14</v>
+      </c>
+      <c r="J100" t="s">
+        <v>20</v>
+      </c>
+      <c r="K100" t="s">
+        <v>14</v>
+      </c>
+      <c r="L100" t="s">
+        <v>14</v>
+      </c>
+      <c r="M100" t="s">
+        <v>14</v>
+      </c>
+      <c r="N100" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="101" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A101" t="s">
+        <v>152</v>
+      </c>
+      <c r="B101" t="s">
+        <v>153</v>
+      </c>
+      <c r="C101" t="s">
+        <v>14</v>
+      </c>
+      <c r="D101" t="s">
+        <v>153</v>
+      </c>
+      <c r="E101" t="s">
+        <v>15</v>
+      </c>
+      <c r="F101" t="s">
+        <v>15</v>
+      </c>
+      <c r="G101" t="s">
+        <v>62</v>
+      </c>
+      <c r="H101" t="s">
+        <v>43</v>
+      </c>
+      <c r="I101" t="s">
+        <v>25</v>
+      </c>
+      <c r="J101" t="s">
+        <v>153</v>
+      </c>
+      <c r="K101" t="s">
+        <v>14</v>
+      </c>
+      <c r="L101" t="s">
+        <v>14</v>
+      </c>
+      <c r="M101" t="s">
+        <v>14</v>
+      </c>
+      <c r="N101" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="102" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A102" t="s">
+        <v>154</v>
+      </c>
+      <c r="B102" t="s">
+        <v>155</v>
+      </c>
+      <c r="C102" t="s">
+        <v>14</v>
+      </c>
+      <c r="D102" t="s">
+        <v>155</v>
+      </c>
+      <c r="E102" t="s">
+        <v>15</v>
+      </c>
+      <c r="F102" t="s">
+        <v>15</v>
+      </c>
+      <c r="G102" t="s">
+        <v>43</v>
+      </c>
+      <c r="H102" t="s">
+        <v>36</v>
+      </c>
+      <c r="I102" t="s">
+        <v>43</v>
+      </c>
+      <c r="J102" t="s">
+        <v>155</v>
+      </c>
+      <c r="K102" t="s">
+        <v>14</v>
+      </c>
+      <c r="L102" t="s">
+        <v>14</v>
+      </c>
+      <c r="M102" t="s">
+        <v>14</v>
+      </c>
+      <c r="N102" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="103" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A103" t="s">
+        <v>156</v>
+      </c>
+      <c r="B103" t="s">
+        <v>16</v>
+      </c>
+      <c r="C103" t="s">
+        <v>14</v>
+      </c>
+      <c r="D103" t="s">
+        <v>16</v>
+      </c>
+      <c r="E103" t="s">
+        <v>15</v>
+      </c>
+      <c r="F103" t="s">
+        <v>15</v>
+      </c>
+      <c r="G103" t="s">
+        <v>30</v>
+      </c>
+      <c r="H103" t="s">
+        <v>32</v>
+      </c>
+      <c r="I103" t="s">
+        <v>14</v>
+      </c>
+      <c r="J103" t="s">
+        <v>16</v>
+      </c>
+      <c r="K103" t="s">
+        <v>14</v>
+      </c>
+      <c r="L103" t="s">
+        <v>14</v>
+      </c>
+      <c r="M103" t="s">
+        <v>14</v>
+      </c>
+      <c r="N103" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="104" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A104" t="s">
+        <v>157</v>
+      </c>
+      <c r="B104" t="s">
+        <v>20</v>
+      </c>
+      <c r="C104" t="s">
+        <v>14</v>
+      </c>
+      <c r="D104" t="s">
+        <v>20</v>
+      </c>
+      <c r="E104" t="s">
+        <v>15</v>
+      </c>
+      <c r="F104" t="s">
+        <v>15</v>
+      </c>
+      <c r="G104" t="s">
+        <v>14</v>
+      </c>
+      <c r="H104" t="s">
+        <v>14</v>
+      </c>
+      <c r="I104" t="s">
+        <v>20</v>
+      </c>
+      <c r="J104" t="s">
+        <v>20</v>
+      </c>
+      <c r="K104" t="s">
+        <v>14</v>
+      </c>
+      <c r="L104" t="s">
+        <v>14</v>
+      </c>
+      <c r="M104" t="s">
+        <v>14</v>
+      </c>
+      <c r="N104" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="105" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A105" t="s">
+        <v>158</v>
+      </c>
+      <c r="B105" t="s">
+        <v>14</v>
+      </c>
+      <c r="C105" t="s">
+        <v>14</v>
+      </c>
+      <c r="D105" t="s">
+        <v>14</v>
+      </c>
+      <c r="E105" t="s">
+        <v>15</v>
+      </c>
+      <c r="F105" t="s">
+        <v>15</v>
+      </c>
+      <c r="G105" t="s">
+        <v>14</v>
+      </c>
+      <c r="H105" t="s">
+        <v>14</v>
+      </c>
+      <c r="I105" t="s">
+        <v>14</v>
+      </c>
+      <c r="J105" t="s">
+        <v>14</v>
+      </c>
+      <c r="K105" t="s">
+        <v>14</v>
+      </c>
+      <c r="L105" t="s">
+        <v>14</v>
+      </c>
+      <c r="M105" t="s">
+        <v>14</v>
+      </c>
+      <c r="N105" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="106" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A106" t="s">
+        <v>159</v>
+      </c>
+      <c r="B106" t="s">
+        <v>25</v>
+      </c>
+      <c r="C106" t="s">
+        <v>14</v>
+      </c>
+      <c r="D106" t="s">
+        <v>25</v>
+      </c>
+      <c r="E106" t="s">
+        <v>15</v>
+      </c>
+      <c r="F106" t="s">
+        <v>15</v>
+      </c>
+      <c r="G106" t="s">
+        <v>14</v>
+      </c>
+      <c r="H106" t="s">
+        <v>25</v>
+      </c>
+      <c r="I106" t="s">
+        <v>14</v>
+      </c>
+      <c r="J106" t="s">
+        <v>25</v>
+      </c>
+      <c r="K106" t="s">
+        <v>14</v>
+      </c>
+      <c r="L106" t="s">
+        <v>14</v>
+      </c>
+      <c r="M106" t="s">
+        <v>14</v>
+      </c>
+      <c r="N106" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="107" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A107" t="s">
+        <v>160</v>
+      </c>
+      <c r="B107" t="s">
+        <v>14</v>
+      </c>
+      <c r="C107" t="s">
+        <v>14</v>
+      </c>
+      <c r="D107" t="s">
+        <v>14</v>
+      </c>
+      <c r="E107" t="s">
+        <v>15</v>
+      </c>
+      <c r="F107" t="s">
+        <v>15</v>
+      </c>
+      <c r="G107" t="s">
+        <v>14</v>
+      </c>
+      <c r="H107" t="s">
+        <v>14</v>
+      </c>
+      <c r="I107" t="s">
+        <v>14</v>
+      </c>
+      <c r="J107" t="s">
+        <v>14</v>
+      </c>
+      <c r="K107" t="s">
+        <v>14</v>
+      </c>
+      <c r="L107" t="s">
+        <v>14</v>
+      </c>
+      <c r="M107" t="s">
+        <v>14</v>
+      </c>
+      <c r="N107" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="108" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A108" t="s">
+        <v>161</v>
+      </c>
+      <c r="B108" t="s">
+        <v>43</v>
+      </c>
+      <c r="C108" t="s">
+        <v>14</v>
+      </c>
+      <c r="D108" t="s">
+        <v>43</v>
+      </c>
+      <c r="E108" t="s">
+        <v>15</v>
+      </c>
+      <c r="F108" t="s">
+        <v>15</v>
+      </c>
+      <c r="G108" t="s">
+        <v>36</v>
+      </c>
+      <c r="H108" t="s">
+        <v>20</v>
+      </c>
+      <c r="I108" t="s">
+        <v>30</v>
+      </c>
+      <c r="J108" t="s">
+        <v>43</v>
+      </c>
+      <c r="K108" t="s">
+        <v>14</v>
+      </c>
+      <c r="L108" t="s">
+        <v>14</v>
+      </c>
+      <c r="M108" t="s">
+        <v>14</v>
+      </c>
+      <c r="N108" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="109" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A109" t="s">
+        <v>162</v>
+      </c>
+      <c r="B109" t="s">
+        <v>29</v>
+      </c>
+      <c r="C109" t="s">
+        <v>14</v>
+      </c>
+      <c r="D109" t="s">
+        <v>29</v>
+      </c>
+      <c r="E109" t="s">
+        <v>15</v>
+      </c>
+      <c r="F109" t="s">
+        <v>15</v>
+      </c>
+      <c r="G109" t="s">
+        <v>163</v>
+      </c>
+      <c r="H109" t="s">
+        <v>32</v>
+      </c>
+      <c r="I109" t="s">
+        <v>47</v>
+      </c>
+      <c r="J109" t="s">
+        <v>29</v>
+      </c>
+      <c r="K109" t="s">
+        <v>14</v>
+      </c>
+      <c r="L109" t="s">
+        <v>14</v>
+      </c>
+      <c r="M109" t="s">
+        <v>14</v>
+      </c>
+      <c r="N109" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="110" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A110" t="s">
+        <v>164</v>
+      </c>
+      <c r="B110" t="s">
+        <v>20</v>
+      </c>
+      <c r="C110" t="s">
+        <v>14</v>
+      </c>
+      <c r="D110" t="s">
+        <v>20</v>
+      </c>
+      <c r="E110" t="s">
+        <v>15</v>
+      </c>
+      <c r="F110" t="s">
+        <v>15</v>
+      </c>
+      <c r="G110" t="s">
+        <v>14</v>
+      </c>
+      <c r="H110" t="s">
+        <v>14</v>
+      </c>
+      <c r="I110" t="s">
+        <v>20</v>
+      </c>
+      <c r="J110" t="s">
+        <v>20</v>
+      </c>
+      <c r="K110" t="s">
+        <v>14</v>
+      </c>
+      <c r="L110" t="s">
+        <v>14</v>
+      </c>
+      <c r="M110" t="s">
+        <v>14</v>
+      </c>
+      <c r="N110" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="111" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A111" t="s">
+        <v>165</v>
+      </c>
+      <c r="B111" t="s">
+        <v>15</v>
+      </c>
+      <c r="C111" t="s">
+        <v>15</v>
+      </c>
+      <c r="D111" t="s">
+        <v>15</v>
+      </c>
+      <c r="E111" t="s">
+        <v>80</v>
+      </c>
+      <c r="F111" t="s">
+        <v>166</v>
+      </c>
+      <c r="G111" t="s">
+        <v>15</v>
+      </c>
+      <c r="H111" t="s">
+        <v>15</v>
+      </c>
+      <c r="I111" t="s">
+        <v>15</v>
+      </c>
+      <c r="J111" t="s">
+        <v>15</v>
+      </c>
+      <c r="K111" t="s">
+        <v>82</v>
+      </c>
+      <c r="L111" t="s">
+        <v>82</v>
+      </c>
+      <c r="M111" t="s">
+        <v>82</v>
+      </c>
+      <c r="N111" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="112" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A112" t="s">
+        <v>167</v>
+      </c>
+      <c r="B112" t="s">
+        <v>32</v>
+      </c>
+      <c r="C112" t="s">
+        <v>14</v>
+      </c>
+      <c r="D112" t="s">
+        <v>32</v>
+      </c>
+      <c r="E112" t="s">
+        <v>15</v>
+      </c>
+      <c r="F112" t="s">
+        <v>15</v>
+      </c>
+      <c r="G112" t="s">
+        <v>19</v>
+      </c>
+      <c r="H112" t="s">
+        <v>36</v>
+      </c>
+      <c r="I112" t="s">
+        <v>25</v>
+      </c>
+      <c r="J112" t="s">
+        <v>32</v>
+      </c>
+      <c r="K112" t="s">
+        <v>14</v>
+      </c>
+      <c r="L112" t="s">
+        <v>14</v>
+      </c>
+      <c r="M112" t="s">
+        <v>14</v>
+      </c>
+      <c r="N112" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="113" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A113" t="s">
+        <v>168</v>
+      </c>
+      <c r="B113" t="s">
+        <v>34</v>
+      </c>
+      <c r="C113" t="s">
+        <v>14</v>
+      </c>
+      <c r="D113" t="s">
+        <v>34</v>
+      </c>
+      <c r="E113" t="s">
+        <v>15</v>
+      </c>
+      <c r="F113" t="s">
+        <v>15</v>
+      </c>
+      <c r="G113" t="s">
+        <v>30</v>
+      </c>
+      <c r="H113" t="s">
+        <v>19</v>
+      </c>
+      <c r="I113" t="s">
+        <v>14</v>
+      </c>
+      <c r="J113" t="s">
+        <v>34</v>
+      </c>
+      <c r="K113" t="s">
+        <v>14</v>
+      </c>
+      <c r="L113" t="s">
+        <v>14</v>
+      </c>
+      <c r="M113" t="s">
+        <v>14</v>
+      </c>
+      <c r="N113" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="114" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A114" t="s">
+        <v>169</v>
+      </c>
+      <c r="B114" t="s">
+        <v>14</v>
+      </c>
+      <c r="C114" t="s">
+        <v>14</v>
+      </c>
+      <c r="D114" t="s">
+        <v>14</v>
+      </c>
+      <c r="E114" t="s">
+        <v>15</v>
+      </c>
+      <c r="F114" t="s">
+        <v>15</v>
+      </c>
+      <c r="G114" t="s">
+        <v>14</v>
+      </c>
+      <c r="H114" t="s">
+        <v>14</v>
+      </c>
+      <c r="I114" t="s">
+        <v>14</v>
+      </c>
+      <c r="J114" t="s">
+        <v>14</v>
+      </c>
+      <c r="K114" t="s">
+        <v>14</v>
+      </c>
+      <c r="L114" t="s">
+        <v>14</v>
+      </c>
+      <c r="M114" t="s">
+        <v>14</v>
+      </c>
+      <c r="N114" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="115" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A115" t="s">
+        <v>170</v>
+      </c>
+      <c r="B115" t="s">
+        <v>19</v>
+      </c>
+      <c r="C115" t="s">
+        <v>14</v>
+      </c>
+      <c r="D115" t="s">
+        <v>19</v>
+      </c>
+      <c r="E115" t="s">
+        <v>15</v>
+      </c>
+      <c r="F115" t="s">
+        <v>15</v>
+      </c>
+      <c r="G115" t="s">
+        <v>14</v>
+      </c>
+      <c r="H115" t="s">
+        <v>19</v>
+      </c>
+      <c r="I115" t="s">
+        <v>14</v>
+      </c>
+      <c r="J115" t="s">
+        <v>19</v>
+      </c>
+      <c r="K115" t="s">
+        <v>14</v>
+      </c>
+      <c r="L115" t="s">
+        <v>14</v>
+      </c>
+      <c r="M115" t="s">
+        <v>14</v>
+      </c>
+      <c r="N115" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="116" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A116" t="s">
+        <v>171</v>
+      </c>
+      <c r="B116" t="s">
+        <v>14</v>
+      </c>
+      <c r="C116" t="s">
+        <v>14</v>
+      </c>
+      <c r="D116" t="s">
+        <v>14</v>
+      </c>
+      <c r="E116" t="s">
+        <v>15</v>
+      </c>
+      <c r="F116" t="s">
+        <v>15</v>
+      </c>
+      <c r="G116" t="s">
+        <v>14</v>
+      </c>
+      <c r="H116" t="s">
+        <v>14</v>
+      </c>
+      <c r="I116" t="s">
+        <v>14</v>
+      </c>
+      <c r="J116" t="s">
+        <v>14</v>
+      </c>
+      <c r="K116" t="s">
+        <v>14</v>
+      </c>
+      <c r="L116" t="s">
+        <v>14</v>
+      </c>
+      <c r="M116" t="s">
+        <v>14</v>
+      </c>
+      <c r="N116" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="117" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A117" t="s">
+        <v>172</v>
+      </c>
+      <c r="B117" t="s">
+        <v>71</v>
+      </c>
+      <c r="C117" t="s">
+        <v>14</v>
+      </c>
+      <c r="D117" t="s">
+        <v>71</v>
+      </c>
+      <c r="E117" t="s">
+        <v>15</v>
+      </c>
+      <c r="F117" t="s">
+        <v>15</v>
+      </c>
+      <c r="G117" t="s">
+        <v>173</v>
+      </c>
+      <c r="H117" t="s">
+        <v>14</v>
+      </c>
+      <c r="I117" t="s">
+        <v>25</v>
+      </c>
+      <c r="J117" t="s">
+        <v>71</v>
+      </c>
+      <c r="K117" t="s">
+        <v>14</v>
+      </c>
+      <c r="L117" t="s">
+        <v>14</v>
+      </c>
+      <c r="M117" t="s">
+        <v>14</v>
+      </c>
+      <c r="N117" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="118" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A118" t="s">
+        <v>174</v>
+      </c>
+      <c r="B118" t="s">
+        <v>15</v>
+      </c>
+      <c r="C118" t="s">
+        <v>15</v>
+      </c>
+      <c r="D118" t="s">
+        <v>15</v>
+      </c>
+      <c r="E118" t="s">
+        <v>80</v>
+      </c>
+      <c r="F118" t="s">
+        <v>175</v>
+      </c>
+      <c r="G118" t="s">
+        <v>15</v>
+      </c>
+      <c r="H118" t="s">
+        <v>15</v>
+      </c>
+      <c r="I118" t="s">
+        <v>15</v>
+      </c>
+      <c r="J118" t="s">
+        <v>15</v>
+      </c>
+      <c r="K118" t="s">
+        <v>82</v>
+      </c>
+      <c r="L118" t="s">
+        <v>82</v>
+      </c>
+      <c r="M118" t="s">
+        <v>82</v>
+      </c>
+      <c r="N118" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="119" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A119" t="s">
+        <v>176</v>
+      </c>
+      <c r="B119" t="s">
+        <v>177</v>
+      </c>
+      <c r="C119" t="s">
+        <v>14</v>
+      </c>
+      <c r="D119" t="s">
+        <v>177</v>
+      </c>
+      <c r="E119" t="s">
+        <v>15</v>
+      </c>
+      <c r="F119" t="s">
+        <v>15</v>
+      </c>
+      <c r="G119" t="s">
+        <v>42</v>
+      </c>
+      <c r="H119" t="s">
+        <v>63</v>
+      </c>
+      <c r="I119" t="s">
+        <v>14</v>
+      </c>
+      <c r="J119" t="s">
+        <v>177</v>
+      </c>
+      <c r="K119" t="s">
+        <v>14</v>
+      </c>
+      <c r="L119" t="s">
+        <v>14</v>
+      </c>
+      <c r="M119" t="s">
+        <v>14</v>
+      </c>
+      <c r="N119" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="120" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A120" t="s">
+        <v>178</v>
+      </c>
+      <c r="B120" t="s">
+        <v>14</v>
+      </c>
+      <c r="C120" t="s">
+        <v>14</v>
+      </c>
+      <c r="D120" t="s">
+        <v>14</v>
+      </c>
+      <c r="E120" t="s">
+        <v>15</v>
+      </c>
+      <c r="F120" t="s">
+        <v>15</v>
+      </c>
+      <c r="G120" t="s">
+        <v>14</v>
+      </c>
+      <c r="H120" t="s">
+        <v>14</v>
+      </c>
+      <c r="I120" t="s">
+        <v>14</v>
+      </c>
+      <c r="J120" t="s">
+        <v>14</v>
+      </c>
+      <c r="K120" t="s">
+        <v>14</v>
+      </c>
+      <c r="L120" t="s">
+        <v>14</v>
+      </c>
+      <c r="M120" t="s">
+        <v>14</v>
+      </c>
+      <c r="N120" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="121" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A121" t="s">
+        <v>179</v>
+      </c>
+      <c r="B121" t="s">
+        <v>20</v>
+      </c>
+      <c r="C121" t="s">
+        <v>14</v>
+      </c>
+      <c r="D121" t="s">
+        <v>20</v>
+      </c>
+      <c r="E121" t="s">
+        <v>15</v>
+      </c>
+      <c r="F121" t="s">
+        <v>15</v>
+      </c>
+      <c r="G121" t="s">
+        <v>14</v>
+      </c>
+      <c r="H121" t="s">
+        <v>20</v>
+      </c>
+      <c r="I121" t="s">
+        <v>14</v>
+      </c>
+      <c r="J121" t="s">
+        <v>20</v>
+      </c>
+      <c r="K121" t="s">
+        <v>14</v>
+      </c>
+      <c r="L121" t="s">
+        <v>14</v>
+      </c>
+      <c r="M121" t="s">
+        <v>14</v>
+      </c>
+      <c r="N121" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="122" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A122" t="s">
+        <v>180</v>
+      </c>
+      <c r="B122" t="s">
+        <v>14</v>
+      </c>
+      <c r="C122" t="s">
+        <v>14</v>
+      </c>
+      <c r="D122" t="s">
+        <v>14</v>
+      </c>
+      <c r="E122" t="s">
+        <v>15</v>
+      </c>
+      <c r="F122" t="s">
+        <v>15</v>
+      </c>
+      <c r="G122" t="s">
+        <v>14</v>
+      </c>
+      <c r="H122" t="s">
+        <v>14</v>
+      </c>
+      <c r="I122" t="s">
+        <v>14</v>
+      </c>
+      <c r="J122" t="s">
+        <v>14</v>
+      </c>
+      <c r="K122" t="s">
+        <v>14</v>
+      </c>
+      <c r="L122" t="s">
+        <v>14</v>
+      </c>
+      <c r="M122" t="s">
+        <v>14</v>
+      </c>
+      <c r="N122" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="123" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A123" t="s">
+        <v>181</v>
+      </c>
+      <c r="B123" t="s">
+        <v>19</v>
+      </c>
+      <c r="C123" t="s">
+        <v>14</v>
+      </c>
+      <c r="D123" t="s">
+        <v>19</v>
+      </c>
+      <c r="E123" t="s">
+        <v>15</v>
+      </c>
+      <c r="F123" t="s">
+        <v>15</v>
+      </c>
+      <c r="G123" t="s">
+        <v>20</v>
+      </c>
+      <c r="H123" t="s">
+        <v>20</v>
+      </c>
+      <c r="I123" t="s">
+        <v>14</v>
+      </c>
+      <c r="J123" t="s">
+        <v>19</v>
+      </c>
+      <c r="K123" t="s">
+        <v>14</v>
+      </c>
+      <c r="L123" t="s">
+        <v>14</v>
+      </c>
+      <c r="M123" t="s">
+        <v>14</v>
+      </c>
+      <c r="N123" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="124" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A124" t="s">
+        <v>182</v>
+      </c>
+      <c r="B124" t="s">
+        <v>20</v>
+      </c>
+      <c r="C124" t="s">
+        <v>14</v>
+      </c>
+      <c r="D124" t="s">
+        <v>20</v>
+      </c>
+      <c r="E124" t="s">
+        <v>15</v>
+      </c>
+      <c r="F124" t="s">
+        <v>15</v>
+      </c>
+      <c r="G124" t="s">
+        <v>14</v>
+      </c>
+      <c r="H124" t="s">
+        <v>20</v>
+      </c>
+      <c r="I124" t="s">
+        <v>14</v>
+      </c>
+      <c r="J124" t="s">
+        <v>20</v>
+      </c>
+      <c r="K124" t="s">
+        <v>14</v>
+      </c>
+      <c r="L124" t="s">
+        <v>14</v>
+      </c>
+      <c r="M124" t="s">
+        <v>14</v>
+      </c>
+      <c r="N124" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="125" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A125" t="s">
+        <v>183</v>
+      </c>
+      <c r="B125" t="s">
+        <v>101</v>
+      </c>
+      <c r="C125" t="s">
+        <v>19</v>
+      </c>
+      <c r="D125" t="s">
+        <v>47</v>
+      </c>
+      <c r="E125" t="s">
+        <v>15</v>
+      </c>
+      <c r="F125" t="s">
+        <v>15</v>
+      </c>
+      <c r="G125" t="s">
+        <v>101</v>
+      </c>
+      <c r="H125" t="s">
+        <v>14</v>
+      </c>
+      <c r="I125" t="s">
+        <v>14</v>
+      </c>
+      <c r="J125" t="s">
+        <v>101</v>
+      </c>
+      <c r="K125" t="s">
+        <v>14</v>
+      </c>
+      <c r="L125" t="s">
+        <v>19</v>
+      </c>
+      <c r="M125" t="s">
+        <v>14</v>
+      </c>
+      <c r="N125" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="126" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A126" t="s">
+        <v>184</v>
+      </c>
+      <c r="B126" t="s">
+        <v>94</v>
+      </c>
+      <c r="C126" t="s">
+        <v>14</v>
+      </c>
+      <c r="D126" t="s">
+        <v>94</v>
+      </c>
+      <c r="E126" t="s">
+        <v>15</v>
+      </c>
+      <c r="F126" t="s">
+        <v>15</v>
+      </c>
+      <c r="G126" t="s">
+        <v>30</v>
+      </c>
+      <c r="H126" t="s">
+        <v>24</v>
+      </c>
+      <c r="I126" t="s">
+        <v>19</v>
+      </c>
+      <c r="J126" t="s">
+        <v>94</v>
+      </c>
+      <c r="K126" t="s">
+        <v>14</v>
+      </c>
+      <c r="L126" t="s">
+        <v>14</v>
+      </c>
+      <c r="M126" t="s">
+        <v>14</v>
+      </c>
+      <c r="N126" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="127" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A127" t="s">
+        <v>185</v>
+      </c>
+      <c r="B127" t="s">
+        <v>186</v>
+      </c>
+      <c r="C127" t="s">
+        <v>14</v>
+      </c>
+      <c r="D127" t="s">
+        <v>186</v>
+      </c>
+      <c r="E127" t="s">
+        <v>15</v>
+      </c>
+      <c r="F127" t="s">
+        <v>15</v>
+      </c>
+      <c r="G127" t="s">
+        <v>58</v>
+      </c>
+      <c r="H127" t="s">
+        <v>187</v>
+      </c>
+      <c r="I127" t="s">
+        <v>43</v>
+      </c>
+      <c r="J127" t="s">
+        <v>186</v>
+      </c>
+      <c r="K127" t="s">
+        <v>14</v>
+      </c>
+      <c r="L127" t="s">
+        <v>14</v>
+      </c>
+      <c r="M127" t="s">
+        <v>14</v>
+      </c>
+      <c r="N127" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="128" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A128" t="s">
+        <v>188</v>
+      </c>
+      <c r="B128" t="s">
+        <v>43</v>
+      </c>
+      <c r="C128" t="s">
+        <v>14</v>
+      </c>
+      <c r="D128" t="s">
+        <v>43</v>
+      </c>
+      <c r="E128" t="s">
+        <v>15</v>
+      </c>
+      <c r="F128" t="s">
+        <v>15</v>
+      </c>
+      <c r="G128" t="s">
+        <v>36</v>
+      </c>
+      <c r="H128" t="s">
+        <v>101</v>
+      </c>
+      <c r="I128" t="s">
+        <v>14</v>
+      </c>
+      <c r="J128" t="s">
+        <v>43</v>
+      </c>
+      <c r="K128" t="s">
+        <v>14</v>
+      </c>
+      <c r="L128" t="s">
+        <v>14</v>
+      </c>
+      <c r="M128" t="s">
+        <v>14</v>
+      </c>
+      <c r="N128" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="129" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A129" t="s">
+        <v>189</v>
+      </c>
+      <c r="B129" t="s">
+        <v>36</v>
+      </c>
+      <c r="C129" t="s">
+        <v>14</v>
+      </c>
+      <c r="D129" t="s">
+        <v>36</v>
+      </c>
+      <c r="E129" t="s">
+        <v>15</v>
+      </c>
+      <c r="F129" t="s">
+        <v>15</v>
+      </c>
+      <c r="G129" t="s">
+        <v>14</v>
+      </c>
+      <c r="H129" t="s">
+        <v>19</v>
+      </c>
+      <c r="I129" t="s">
+        <v>19</v>
+      </c>
+      <c r="J129" t="s">
+        <v>36</v>
+      </c>
+      <c r="K129" t="s">
+        <v>14</v>
+      </c>
+      <c r="L129" t="s">
+        <v>14</v>
+      </c>
+      <c r="M129" t="s">
+        <v>14</v>
+      </c>
+      <c r="N129" t="s">
+        <v>14</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="D1:D72" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <autoFilter ref="D1:D130" xr:uid="{00000000-0001-0000-0000-000000000000}">
     <filterColumn colId="0">
-      <filters>
-        <filter val="1"/>
-        <filter val="10"/>
-        <filter val="11"/>
-        <filter val="12"/>
-        <filter val="13"/>
-        <filter val="14"/>
-        <filter val="2"/>
-        <filter val="20"/>
-        <filter val="22"/>
-        <filter val="23"/>
-        <filter val="29"/>
-        <filter val="3"/>
-        <filter val="31"/>
-        <filter val="32"/>
-        <filter val="34"/>
-        <filter val="37"/>
-        <filter val="4"/>
-        <filter val="48"/>
-        <filter val="5"/>
-        <filter val="51"/>
-        <filter val="56"/>
-        <filter val="6"/>
-        <filter val="74"/>
-        <filter val="9"/>
+      <filters blank="1">
+        <filter val="null"/>
       </filters>
     </filterColumn>
   </autoFilter>

--- a/src/main/java/de/upb/sse/cutNRun/results/SourcesOfUnsoundnessCount.xlsx
+++ b/src/main/java/de/upb/sse/cutNRun/results/SourcesOfUnsoundnessCount.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\shazib\DEV\cutNRun\src\main\java\de\upb\sse\cutNRun\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42C1167A-598A-4A90-9084-3685D8DCDEAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3409B45-9091-41BD-863E-731A39BC9C66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,14 +16,14 @@
     <sheet name="SourcesOfUnsoundnessCount" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">SourcesOfUnsoundnessCount!$D$1:$D$130</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">SourcesOfUnsoundnessCount!$D$1:$D$147</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1806" uniqueCount="190">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2044" uniqueCount="212">
   <si>
     <t>ProjectName</t>
   </si>
@@ -593,6 +593,72 @@
   </si>
   <si>
     <t>config-1.4.3.jar</t>
+  </si>
+  <si>
+    <t>auto-service-1.1.1.jar</t>
+  </si>
+  <si>
+    <t>spring-orm-6.2.0.jar</t>
+  </si>
+  <si>
+    <t>poi-ooxml-5.3.0.jar</t>
+  </si>
+  <si>
+    <t>commons-math3-3.6.1.jar</t>
+  </si>
+  <si>
+    <t>spring-boot-starter-data-jpa-3.4.0.jar</t>
+  </si>
+  <si>
+    <t>jackson-datatype-jdk8-2.18.2.jar</t>
+  </si>
+  <si>
+    <t>rest-assured-5.5.0.jar</t>
+  </si>
+  <si>
+    <t>dom4j-1.6.1.jar</t>
+  </si>
+  <si>
+    <t>cdi-api-2.0.jar</t>
+  </si>
+  <si>
+    <t>slf4j-jdk14-2.0.16.jar</t>
+  </si>
+  <si>
+    <t>groovy-3.0.23.jar</t>
+  </si>
+  <si>
+    <t>125</t>
+  </si>
+  <si>
+    <t>96</t>
+  </si>
+  <si>
+    <t>221</t>
+  </si>
+  <si>
+    <t>54</t>
+  </si>
+  <si>
+    <t>80</t>
+  </si>
+  <si>
+    <t>jaxb-runtime-4.0.5.jar</t>
+  </si>
+  <si>
+    <t>maven-artifact-3.9.9.jar</t>
+  </si>
+  <si>
+    <t>jackson-core-asl-1.9.13.jar</t>
+  </si>
+  <si>
+    <t>jetty-servlet-11.0.24.jar</t>
+  </si>
+  <si>
+    <t>junit-platform-launcher-1.11.3.jar</t>
+  </si>
+  <si>
+    <t>spring-boot-starter-validation-3.4.0.jar</t>
   </si>
 </sst>
 </file>
@@ -965,7 +1031,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:N129"/>
+  <dimension ref="A1:N146"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D1" sqref="D1:D1048576"/>
@@ -6654,8 +6720,756 @@
         <v>14</v>
       </c>
     </row>
+    <row r="130" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A130" t="s">
+        <v>190</v>
+      </c>
+      <c r="B130" t="s">
+        <v>14</v>
+      </c>
+      <c r="C130" t="s">
+        <v>14</v>
+      </c>
+      <c r="D130" t="s">
+        <v>14</v>
+      </c>
+      <c r="E130" t="s">
+        <v>15</v>
+      </c>
+      <c r="F130" t="s">
+        <v>15</v>
+      </c>
+      <c r="G130" t="s">
+        <v>14</v>
+      </c>
+      <c r="H130" t="s">
+        <v>14</v>
+      </c>
+      <c r="I130" t="s">
+        <v>14</v>
+      </c>
+      <c r="J130" t="s">
+        <v>14</v>
+      </c>
+      <c r="K130" t="s">
+        <v>14</v>
+      </c>
+      <c r="L130" t="s">
+        <v>14</v>
+      </c>
+      <c r="M130" t="s">
+        <v>14</v>
+      </c>
+      <c r="N130" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="131" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A131" t="s">
+        <v>191</v>
+      </c>
+      <c r="B131" t="s">
+        <v>25</v>
+      </c>
+      <c r="C131" t="s">
+        <v>14</v>
+      </c>
+      <c r="D131" t="s">
+        <v>25</v>
+      </c>
+      <c r="E131" t="s">
+        <v>15</v>
+      </c>
+      <c r="F131" t="s">
+        <v>15</v>
+      </c>
+      <c r="G131" t="s">
+        <v>25</v>
+      </c>
+      <c r="H131" t="s">
+        <v>14</v>
+      </c>
+      <c r="I131" t="s">
+        <v>14</v>
+      </c>
+      <c r="J131" t="s">
+        <v>25</v>
+      </c>
+      <c r="K131" t="s">
+        <v>14</v>
+      </c>
+      <c r="L131" t="s">
+        <v>14</v>
+      </c>
+      <c r="M131" t="s">
+        <v>14</v>
+      </c>
+      <c r="N131" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="132" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A132" t="s">
+        <v>192</v>
+      </c>
+      <c r="B132" t="s">
+        <v>20</v>
+      </c>
+      <c r="C132" t="s">
+        <v>14</v>
+      </c>
+      <c r="D132" t="s">
+        <v>20</v>
+      </c>
+      <c r="E132" t="s">
+        <v>15</v>
+      </c>
+      <c r="F132" t="s">
+        <v>15</v>
+      </c>
+      <c r="G132" t="s">
+        <v>14</v>
+      </c>
+      <c r="H132" t="s">
+        <v>20</v>
+      </c>
+      <c r="I132" t="s">
+        <v>14</v>
+      </c>
+      <c r="J132" t="s">
+        <v>20</v>
+      </c>
+      <c r="K132" t="s">
+        <v>14</v>
+      </c>
+      <c r="L132" t="s">
+        <v>14</v>
+      </c>
+      <c r="M132" t="s">
+        <v>14</v>
+      </c>
+      <c r="N132" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="133" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A133" t="s">
+        <v>193</v>
+      </c>
+      <c r="B133" t="s">
+        <v>36</v>
+      </c>
+      <c r="C133" t="s">
+        <v>14</v>
+      </c>
+      <c r="D133" t="s">
+        <v>36</v>
+      </c>
+      <c r="E133" t="s">
+        <v>15</v>
+      </c>
+      <c r="F133" t="s">
+        <v>15</v>
+      </c>
+      <c r="G133" t="s">
+        <v>19</v>
+      </c>
+      <c r="H133" t="s">
+        <v>14</v>
+      </c>
+      <c r="I133" t="s">
+        <v>19</v>
+      </c>
+      <c r="J133" t="s">
+        <v>36</v>
+      </c>
+      <c r="K133" t="s">
+        <v>14</v>
+      </c>
+      <c r="L133" t="s">
+        <v>14</v>
+      </c>
+      <c r="M133" t="s">
+        <v>14</v>
+      </c>
+      <c r="N133" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="134" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A134" t="s">
+        <v>194</v>
+      </c>
+      <c r="B134" t="s">
+        <v>14</v>
+      </c>
+      <c r="C134" t="s">
+        <v>14</v>
+      </c>
+      <c r="D134" t="s">
+        <v>14</v>
+      </c>
+      <c r="E134" t="s">
+        <v>15</v>
+      </c>
+      <c r="F134" t="s">
+        <v>15</v>
+      </c>
+      <c r="G134" t="s">
+        <v>14</v>
+      </c>
+      <c r="H134" t="s">
+        <v>14</v>
+      </c>
+      <c r="I134" t="s">
+        <v>14</v>
+      </c>
+      <c r="J134" t="s">
+        <v>14</v>
+      </c>
+      <c r="K134" t="s">
+        <v>14</v>
+      </c>
+      <c r="L134" t="s">
+        <v>14</v>
+      </c>
+      <c r="M134" t="s">
+        <v>14</v>
+      </c>
+      <c r="N134" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="135" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A135" t="s">
+        <v>195</v>
+      </c>
+      <c r="B135" t="s">
+        <v>14</v>
+      </c>
+      <c r="C135" t="s">
+        <v>14</v>
+      </c>
+      <c r="D135" t="s">
+        <v>14</v>
+      </c>
+      <c r="E135" t="s">
+        <v>15</v>
+      </c>
+      <c r="F135" t="s">
+        <v>15</v>
+      </c>
+      <c r="G135" t="s">
+        <v>14</v>
+      </c>
+      <c r="H135" t="s">
+        <v>14</v>
+      </c>
+      <c r="I135" t="s">
+        <v>14</v>
+      </c>
+      <c r="J135" t="s">
+        <v>14</v>
+      </c>
+      <c r="K135" t="s">
+        <v>14</v>
+      </c>
+      <c r="L135" t="s">
+        <v>14</v>
+      </c>
+      <c r="M135" t="s">
+        <v>14</v>
+      </c>
+      <c r="N135" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="136" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A136" t="s">
+        <v>196</v>
+      </c>
+      <c r="B136" t="s">
+        <v>19</v>
+      </c>
+      <c r="C136" t="s">
+        <v>14</v>
+      </c>
+      <c r="D136" t="s">
+        <v>19</v>
+      </c>
+      <c r="E136" t="s">
+        <v>15</v>
+      </c>
+      <c r="F136" t="s">
+        <v>15</v>
+      </c>
+      <c r="G136" t="s">
+        <v>14</v>
+      </c>
+      <c r="H136" t="s">
+        <v>20</v>
+      </c>
+      <c r="I136" t="s">
+        <v>20</v>
+      </c>
+      <c r="J136" t="s">
+        <v>19</v>
+      </c>
+      <c r="K136" t="s">
+        <v>14</v>
+      </c>
+      <c r="L136" t="s">
+        <v>14</v>
+      </c>
+      <c r="M136" t="s">
+        <v>14</v>
+      </c>
+      <c r="N136" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="137" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A137" t="s">
+        <v>197</v>
+      </c>
+      <c r="B137" t="s">
+        <v>58</v>
+      </c>
+      <c r="C137" t="s">
+        <v>14</v>
+      </c>
+      <c r="D137" t="s">
+        <v>58</v>
+      </c>
+      <c r="E137" t="s">
+        <v>15</v>
+      </c>
+      <c r="F137" t="s">
+        <v>15</v>
+      </c>
+      <c r="G137" t="s">
+        <v>20</v>
+      </c>
+      <c r="H137" t="s">
+        <v>26</v>
+      </c>
+      <c r="I137" t="s">
+        <v>14</v>
+      </c>
+      <c r="J137" t="s">
+        <v>58</v>
+      </c>
+      <c r="K137" t="s">
+        <v>14</v>
+      </c>
+      <c r="L137" t="s">
+        <v>14</v>
+      </c>
+      <c r="M137" t="s">
+        <v>14</v>
+      </c>
+      <c r="N137" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="138" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A138" t="s">
+        <v>198</v>
+      </c>
+      <c r="B138" t="s">
+        <v>14</v>
+      </c>
+      <c r="C138" t="s">
+        <v>14</v>
+      </c>
+      <c r="D138" t="s">
+        <v>14</v>
+      </c>
+      <c r="E138" t="s">
+        <v>15</v>
+      </c>
+      <c r="F138" t="s">
+        <v>15</v>
+      </c>
+      <c r="G138" t="s">
+        <v>14</v>
+      </c>
+      <c r="H138" t="s">
+        <v>14</v>
+      </c>
+      <c r="I138" t="s">
+        <v>14</v>
+      </c>
+      <c r="J138" t="s">
+        <v>14</v>
+      </c>
+      <c r="K138" t="s">
+        <v>14</v>
+      </c>
+      <c r="L138" t="s">
+        <v>14</v>
+      </c>
+      <c r="M138" t="s">
+        <v>14</v>
+      </c>
+      <c r="N138" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="139" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A139" t="s">
+        <v>199</v>
+      </c>
+      <c r="B139" t="s">
+        <v>14</v>
+      </c>
+      <c r="C139" t="s">
+        <v>14</v>
+      </c>
+      <c r="D139" t="s">
+        <v>14</v>
+      </c>
+      <c r="E139" t="s">
+        <v>15</v>
+      </c>
+      <c r="F139" t="s">
+        <v>15</v>
+      </c>
+      <c r="G139" t="s">
+        <v>14</v>
+      </c>
+      <c r="H139" t="s">
+        <v>14</v>
+      </c>
+      <c r="I139" t="s">
+        <v>14</v>
+      </c>
+      <c r="J139" t="s">
+        <v>14</v>
+      </c>
+      <c r="K139" t="s">
+        <v>14</v>
+      </c>
+      <c r="L139" t="s">
+        <v>14</v>
+      </c>
+      <c r="M139" t="s">
+        <v>14</v>
+      </c>
+      <c r="N139" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="140" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A140" t="s">
+        <v>200</v>
+      </c>
+      <c r="B140" t="s">
+        <v>201</v>
+      </c>
+      <c r="C140" t="s">
+        <v>202</v>
+      </c>
+      <c r="D140" t="s">
+        <v>203</v>
+      </c>
+      <c r="E140" t="s">
+        <v>15</v>
+      </c>
+      <c r="F140" t="s">
+        <v>15</v>
+      </c>
+      <c r="G140" t="s">
+        <v>204</v>
+      </c>
+      <c r="H140" t="s">
+        <v>134</v>
+      </c>
+      <c r="I140" t="s">
+        <v>63</v>
+      </c>
+      <c r="J140" t="s">
+        <v>201</v>
+      </c>
+      <c r="K140" t="s">
+        <v>205</v>
+      </c>
+      <c r="L140" t="s">
+        <v>26</v>
+      </c>
+      <c r="M140" t="s">
+        <v>14</v>
+      </c>
+      <c r="N140" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="141" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A141" t="s">
+        <v>206</v>
+      </c>
+      <c r="B141" t="s">
+        <v>58</v>
+      </c>
+      <c r="C141" t="s">
+        <v>14</v>
+      </c>
+      <c r="D141" t="s">
+        <v>58</v>
+      </c>
+      <c r="E141" t="s">
+        <v>15</v>
+      </c>
+      <c r="F141" t="s">
+        <v>15</v>
+      </c>
+      <c r="G141" t="s">
+        <v>32</v>
+      </c>
+      <c r="H141" t="s">
+        <v>34</v>
+      </c>
+      <c r="I141" t="s">
+        <v>20</v>
+      </c>
+      <c r="J141" t="s">
+        <v>58</v>
+      </c>
+      <c r="K141" t="s">
+        <v>14</v>
+      </c>
+      <c r="L141" t="s">
+        <v>14</v>
+      </c>
+      <c r="M141" t="s">
+        <v>14</v>
+      </c>
+      <c r="N141" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="142" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A142" t="s">
+        <v>207</v>
+      </c>
+      <c r="B142" t="s">
+        <v>14</v>
+      </c>
+      <c r="C142" t="s">
+        <v>14</v>
+      </c>
+      <c r="D142" t="s">
+        <v>14</v>
+      </c>
+      <c r="E142" t="s">
+        <v>15</v>
+      </c>
+      <c r="F142" t="s">
+        <v>15</v>
+      </c>
+      <c r="G142" t="s">
+        <v>14</v>
+      </c>
+      <c r="H142" t="s">
+        <v>14</v>
+      </c>
+      <c r="I142" t="s">
+        <v>14</v>
+      </c>
+      <c r="J142" t="s">
+        <v>14</v>
+      </c>
+      <c r="K142" t="s">
+        <v>14</v>
+      </c>
+      <c r="L142" t="s">
+        <v>14</v>
+      </c>
+      <c r="M142" t="s">
+        <v>14</v>
+      </c>
+      <c r="N142" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="143" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A143" t="s">
+        <v>208</v>
+      </c>
+      <c r="B143" t="s">
+        <v>14</v>
+      </c>
+      <c r="C143" t="s">
+        <v>14</v>
+      </c>
+      <c r="D143" t="s">
+        <v>14</v>
+      </c>
+      <c r="E143" t="s">
+        <v>15</v>
+      </c>
+      <c r="F143" t="s">
+        <v>15</v>
+      </c>
+      <c r="G143" t="s">
+        <v>14</v>
+      </c>
+      <c r="H143" t="s">
+        <v>14</v>
+      </c>
+      <c r="I143" t="s">
+        <v>14</v>
+      </c>
+      <c r="J143" t="s">
+        <v>14</v>
+      </c>
+      <c r="K143" t="s">
+        <v>14</v>
+      </c>
+      <c r="L143" t="s">
+        <v>14</v>
+      </c>
+      <c r="M143" t="s">
+        <v>14</v>
+      </c>
+      <c r="N143" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="144" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A144" t="s">
+        <v>209</v>
+      </c>
+      <c r="B144" t="s">
+        <v>101</v>
+      </c>
+      <c r="C144" t="s">
+        <v>36</v>
+      </c>
+      <c r="D144" t="s">
+        <v>43</v>
+      </c>
+      <c r="E144" t="s">
+        <v>15</v>
+      </c>
+      <c r="F144" t="s">
+        <v>15</v>
+      </c>
+      <c r="G144" t="s">
+        <v>19</v>
+      </c>
+      <c r="H144" t="s">
+        <v>25</v>
+      </c>
+      <c r="I144" t="s">
+        <v>20</v>
+      </c>
+      <c r="J144" t="s">
+        <v>101</v>
+      </c>
+      <c r="K144" t="s">
+        <v>36</v>
+      </c>
+      <c r="L144" t="s">
+        <v>14</v>
+      </c>
+      <c r="M144" t="s">
+        <v>14</v>
+      </c>
+      <c r="N144" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="145" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A145" t="s">
+        <v>210</v>
+      </c>
+      <c r="B145" t="s">
+        <v>14</v>
+      </c>
+      <c r="C145" t="s">
+        <v>14</v>
+      </c>
+      <c r="D145" t="s">
+        <v>14</v>
+      </c>
+      <c r="E145" t="s">
+        <v>15</v>
+      </c>
+      <c r="F145" t="s">
+        <v>15</v>
+      </c>
+      <c r="G145" t="s">
+        <v>14</v>
+      </c>
+      <c r="H145" t="s">
+        <v>14</v>
+      </c>
+      <c r="I145" t="s">
+        <v>14</v>
+      </c>
+      <c r="J145" t="s">
+        <v>14</v>
+      </c>
+      <c r="K145" t="s">
+        <v>14</v>
+      </c>
+      <c r="L145" t="s">
+        <v>14</v>
+      </c>
+      <c r="M145" t="s">
+        <v>14</v>
+      </c>
+      <c r="N145" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="146" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A146" t="s">
+        <v>211</v>
+      </c>
+      <c r="B146" t="s">
+        <v>14</v>
+      </c>
+      <c r="C146" t="s">
+        <v>14</v>
+      </c>
+      <c r="D146" t="s">
+        <v>14</v>
+      </c>
+      <c r="E146" t="s">
+        <v>15</v>
+      </c>
+      <c r="F146" t="s">
+        <v>15</v>
+      </c>
+      <c r="G146" t="s">
+        <v>14</v>
+      </c>
+      <c r="H146" t="s">
+        <v>14</v>
+      </c>
+      <c r="I146" t="s">
+        <v>14</v>
+      </c>
+      <c r="J146" t="s">
+        <v>14</v>
+      </c>
+      <c r="K146" t="s">
+        <v>14</v>
+      </c>
+      <c r="L146" t="s">
+        <v>14</v>
+      </c>
+      <c r="M146" t="s">
+        <v>14</v>
+      </c>
+      <c r="N146" t="s">
+        <v>14</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="D1:D130" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <autoFilter ref="D1:D147" xr:uid="{00000000-0001-0000-0000-000000000000}">
     <filterColumn colId="0">
       <filters blank="1">
         <filter val="null"/>

--- a/src/main/java/de/upb/sse/cutNRun/results/SourcesOfUnsoundnessCount.xlsx
+++ b/src/main/java/de/upb/sse/cutNRun/results/SourcesOfUnsoundnessCount.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\shazib\DEV\cutNRun\src\main\java\de\upb\sse\cutNRun\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3409B45-9091-41BD-863E-731A39BC9C66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C8AEA01-B5BE-462B-B9D6-7E70934D9601}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1030,18 +1030,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:N146"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:D1048576"/>
+      <selection activeCell="H1" sqref="H1:H1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="38.33203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="24.21875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="244.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="30" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.3">
@@ -1088,7 +1087,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>12</v>
       </c>
@@ -1132,7 +1131,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>18</v>
       </c>
@@ -1176,7 +1175,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>21</v>
       </c>
@@ -1220,7 +1219,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>27</v>
       </c>
@@ -1264,7 +1263,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>28</v>
       </c>
@@ -1308,7 +1307,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>33</v>
       </c>
@@ -1352,7 +1351,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>35</v>
       </c>
@@ -1396,7 +1395,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>37</v>
       </c>
@@ -1440,7 +1439,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>38</v>
       </c>
@@ -1484,7 +1483,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>39</v>
       </c>
@@ -1528,7 +1527,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>41</v>
       </c>
@@ -1572,7 +1571,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>44</v>
       </c>
@@ -1616,7 +1615,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>45</v>
       </c>
@@ -1660,7 +1659,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>48</v>
       </c>
@@ -1704,7 +1703,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>50</v>
       </c>
@@ -1748,7 +1747,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>51</v>
       </c>
@@ -1792,7 +1791,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="18" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>52</v>
       </c>
@@ -1836,7 +1835,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="19" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>53</v>
       </c>
@@ -1880,7 +1879,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="20" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>54</v>
       </c>
@@ -1924,7 +1923,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="21" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>55</v>
       </c>
@@ -1968,7 +1967,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="22" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>59</v>
       </c>
@@ -2012,7 +2011,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="23" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>60</v>
       </c>
@@ -2056,7 +2055,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="24" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>61</v>
       </c>
@@ -2100,7 +2099,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="25" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>64</v>
       </c>
@@ -2144,7 +2143,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="26" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>65</v>
       </c>
@@ -2188,7 +2187,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="27" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>66</v>
       </c>
@@ -2232,7 +2231,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="28" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>67</v>
       </c>
@@ -2276,7 +2275,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="29" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>68</v>
       </c>
@@ -2320,7 +2319,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="30" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>69</v>
       </c>
@@ -2364,7 +2363,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="31" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>70</v>
       </c>
@@ -2408,7 +2407,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="32" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>72</v>
       </c>
@@ -2452,7 +2451,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="33" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>73</v>
       </c>
@@ -2496,7 +2495,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="34" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>74</v>
       </c>
@@ -2540,7 +2539,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="35" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>75</v>
       </c>
@@ -2584,7 +2583,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="36" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>76</v>
       </c>
@@ -2628,7 +2627,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="37" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>77</v>
       </c>
@@ -2672,7 +2671,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="38" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>78</v>
       </c>
@@ -2760,7 +2759,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="40" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>83</v>
       </c>
@@ -2804,7 +2803,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="41" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>84</v>
       </c>
@@ -2848,7 +2847,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="42" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>85</v>
       </c>
@@ -2892,7 +2891,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="43" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>86</v>
       </c>
@@ -2936,7 +2935,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="44" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>87</v>
       </c>
@@ -2980,7 +2979,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="45" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>88</v>
       </c>
@@ -3024,7 +3023,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="46" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>89</v>
       </c>
@@ -3068,7 +3067,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="47" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>90</v>
       </c>
@@ -3112,7 +3111,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="48" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>92</v>
       </c>
@@ -3156,7 +3155,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="49" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>95</v>
       </c>
@@ -3200,7 +3199,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="50" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>96</v>
       </c>
@@ -3244,7 +3243,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="51" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>97</v>
       </c>
@@ -3288,7 +3287,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="52" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>98</v>
       </c>
@@ -3332,7 +3331,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="53" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>99</v>
       </c>
@@ -3376,7 +3375,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="54" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>100</v>
       </c>
@@ -3420,7 +3419,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="55" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>102</v>
       </c>
@@ -3464,7 +3463,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="56" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>103</v>
       </c>
@@ -3508,7 +3507,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="57" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>104</v>
       </c>
@@ -3552,7 +3551,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="58" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>105</v>
       </c>
@@ -3596,7 +3595,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="59" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>106</v>
       </c>
@@ -3640,7 +3639,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="60" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>107</v>
       </c>
@@ -3684,7 +3683,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="61" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>108</v>
       </c>
@@ -3728,7 +3727,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="62" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>109</v>
       </c>
@@ -3772,7 +3771,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="63" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>110</v>
       </c>
@@ -3816,7 +3815,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="64" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>111</v>
       </c>
@@ -3860,7 +3859,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="65" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>112</v>
       </c>
@@ -3904,7 +3903,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="66" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>113</v>
       </c>
@@ -3948,7 +3947,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="67" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>114</v>
       </c>
@@ -3992,7 +3991,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="68" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>115</v>
       </c>
@@ -4036,7 +4035,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="69" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>118</v>
       </c>
@@ -4080,7 +4079,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="70" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>119</v>
       </c>
@@ -4124,7 +4123,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="71" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>120</v>
       </c>
@@ -4212,7 +4211,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="73" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>121</v>
       </c>
@@ -4256,7 +4255,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="74" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>122</v>
       </c>
@@ -4300,7 +4299,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="75" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>123</v>
       </c>
@@ -4344,7 +4343,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="76" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>124</v>
       </c>
@@ -4388,7 +4387,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="77" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>125</v>
       </c>
@@ -4432,7 +4431,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="78" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>126</v>
       </c>
@@ -4476,7 +4475,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="79" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>127</v>
       </c>
@@ -4520,7 +4519,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="80" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>128</v>
       </c>
@@ -4564,7 +4563,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="81" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>129</v>
       </c>
@@ -4608,7 +4607,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="82" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>130</v>
       </c>
@@ -4652,7 +4651,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="83" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>131</v>
       </c>
@@ -4696,7 +4695,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="84" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>132</v>
       </c>
@@ -4740,7 +4739,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="85" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>136</v>
       </c>
@@ -4784,7 +4783,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="86" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>137</v>
       </c>
@@ -4828,7 +4827,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="87" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>138</v>
       </c>
@@ -4872,7 +4871,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="88" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>139</v>
       </c>
@@ -4916,7 +4915,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="89" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>140</v>
       </c>
@@ -4960,7 +4959,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="90" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>141</v>
       </c>
@@ -5004,7 +5003,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="91" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>142</v>
       </c>
@@ -5048,7 +5047,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="92" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>143</v>
       </c>
@@ -5092,7 +5091,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="93" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>144</v>
       </c>
@@ -5136,7 +5135,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="94" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>145</v>
       </c>
@@ -5180,7 +5179,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="95" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>146</v>
       </c>
@@ -5224,7 +5223,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="96" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>147</v>
       </c>
@@ -5268,7 +5267,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="97" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>148</v>
       </c>
@@ -5312,7 +5311,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="98" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>149</v>
       </c>
@@ -5356,7 +5355,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="99" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>150</v>
       </c>
@@ -5400,7 +5399,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="100" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>151</v>
       </c>
@@ -5444,7 +5443,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="101" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>152</v>
       </c>
@@ -5488,7 +5487,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="102" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>154</v>
       </c>
@@ -5532,7 +5531,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="103" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>156</v>
       </c>
@@ -5576,7 +5575,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="104" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>157</v>
       </c>
@@ -5620,7 +5619,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="105" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>158</v>
       </c>
@@ -5664,7 +5663,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="106" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>159</v>
       </c>
@@ -5708,7 +5707,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="107" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>160</v>
       </c>
@@ -5752,7 +5751,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="108" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>161</v>
       </c>
@@ -5796,7 +5795,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="109" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>162</v>
       </c>
@@ -5840,7 +5839,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="110" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>164</v>
       </c>
@@ -5928,7 +5927,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="112" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>167</v>
       </c>
@@ -5972,7 +5971,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="113" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>168</v>
       </c>
@@ -6016,7 +6015,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="114" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>169</v>
       </c>
@@ -6060,7 +6059,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="115" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>170</v>
       </c>
@@ -6104,7 +6103,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="116" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>171</v>
       </c>
@@ -6148,7 +6147,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="117" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>172</v>
       </c>
@@ -6236,7 +6235,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="119" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>176</v>
       </c>
@@ -6280,7 +6279,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="120" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>178</v>
       </c>
@@ -6324,7 +6323,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="121" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>179</v>
       </c>
@@ -6368,7 +6367,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="122" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>180</v>
       </c>
@@ -6412,7 +6411,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="123" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
         <v>181</v>
       </c>
@@ -6456,7 +6455,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="124" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
         <v>182</v>
       </c>
@@ -6500,7 +6499,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="125" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>183</v>
       </c>
@@ -6544,7 +6543,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="126" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
         <v>184</v>
       </c>
@@ -6588,7 +6587,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="127" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
         <v>185</v>
       </c>
@@ -6632,7 +6631,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="128" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
         <v>188</v>
       </c>
@@ -6676,7 +6675,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="129" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>189</v>
       </c>
@@ -6720,7 +6719,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="130" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
         <v>190</v>
       </c>
@@ -6764,7 +6763,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="131" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
         <v>191</v>
       </c>
@@ -6808,7 +6807,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="132" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
         <v>192</v>
       </c>
@@ -6852,7 +6851,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="133" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
         <v>193</v>
       </c>
@@ -6896,7 +6895,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="134" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
         <v>194</v>
       </c>
@@ -6940,7 +6939,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="135" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
         <v>195</v>
       </c>
@@ -6984,7 +6983,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="136" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
         <v>196</v>
       </c>
@@ -7028,7 +7027,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="137" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
         <v>197</v>
       </c>
@@ -7072,7 +7071,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="138" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
         <v>198</v>
       </c>
@@ -7116,7 +7115,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="139" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
         <v>199</v>
       </c>
@@ -7160,7 +7159,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="140" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
         <v>200</v>
       </c>
@@ -7204,7 +7203,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="141" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
         <v>206</v>
       </c>
@@ -7248,7 +7247,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="142" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
         <v>207</v>
       </c>
@@ -7292,7 +7291,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="143" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
         <v>208</v>
       </c>
@@ -7336,7 +7335,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="144" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
         <v>209</v>
       </c>
@@ -7380,7 +7379,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="145" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
         <v>210</v>
       </c>
@@ -7424,7 +7423,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="146" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
         <v>211</v>
       </c>
@@ -7469,13 +7468,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="D1:D147" xr:uid="{00000000-0001-0000-0000-000000000000}">
-    <filterColumn colId="0">
-      <filters blank="1">
-        <filter val="null"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="D1:D147" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/src/main/java/de/upb/sse/cutNRun/results/SourcesOfUnsoundnessCount.xlsx
+++ b/src/main/java/de/upb/sse/cutNRun/results/SourcesOfUnsoundnessCount.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\shazib\DEV\cutNRun\src\main\java\de\upb\sse\cutNRun\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C8AEA01-B5BE-462B-B9D6-7E70934D9601}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{620F4601-CD3F-4F3E-8814-6D60ECC423BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2044" uniqueCount="212">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1905" uniqueCount="211">
   <si>
     <t>ProjectName</t>
   </si>
@@ -632,9 +632,6 @@
   </si>
   <si>
     <t>96</t>
-  </si>
-  <si>
-    <t>221</t>
   </si>
   <si>
     <t>54</t>
@@ -694,8 +691,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1030,10 +1028,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N146"/>
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:N147"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1:H1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2:D144"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1097,8 +1096,8 @@
       <c r="C2" t="s">
         <v>14</v>
       </c>
-      <c r="D2" t="s">
-        <v>13</v>
+      <c r="D2" s="1">
+        <v>29</v>
       </c>
       <c r="E2" t="s">
         <v>15</v>
@@ -1141,8 +1140,8 @@
       <c r="C3" t="s">
         <v>14</v>
       </c>
-      <c r="D3" t="s">
-        <v>19</v>
+      <c r="D3" s="1">
+        <v>2</v>
       </c>
       <c r="E3" t="s">
         <v>15</v>
@@ -1185,8 +1184,8 @@
       <c r="C4" t="s">
         <v>19</v>
       </c>
-      <c r="D4" t="s">
-        <v>23</v>
+      <c r="D4" s="1">
+        <v>32</v>
       </c>
       <c r="E4" t="s">
         <v>15</v>
@@ -1219,7 +1218,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>27</v>
       </c>
@@ -1229,8 +1228,8 @@
       <c r="C5" t="s">
         <v>14</v>
       </c>
-      <c r="D5" t="s">
-        <v>14</v>
+      <c r="D5" s="1">
+        <v>0</v>
       </c>
       <c r="E5" t="s">
         <v>15</v>
@@ -1273,8 +1272,8 @@
       <c r="C6" t="s">
         <v>30</v>
       </c>
-      <c r="D6" t="s">
-        <v>31</v>
+      <c r="D6" s="1">
+        <v>48</v>
       </c>
       <c r="E6" t="s">
         <v>15</v>
@@ -1317,8 +1316,8 @@
       <c r="C7" t="s">
         <v>14</v>
       </c>
-      <c r="D7" t="s">
-        <v>16</v>
+      <c r="D7" s="1">
+        <v>14</v>
       </c>
       <c r="E7" t="s">
         <v>15</v>
@@ -1361,8 +1360,8 @@
       <c r="C8" t="s">
         <v>14</v>
       </c>
-      <c r="D8" t="s">
-        <v>24</v>
+      <c r="D8" s="1">
+        <v>11</v>
       </c>
       <c r="E8" t="s">
         <v>15</v>
@@ -1405,8 +1404,8 @@
       <c r="C9" t="s">
         <v>14</v>
       </c>
-      <c r="D9" t="s">
-        <v>36</v>
+      <c r="D9" s="1">
+        <v>4</v>
       </c>
       <c r="E9" t="s">
         <v>15</v>
@@ -1449,8 +1448,8 @@
       <c r="C10" t="s">
         <v>14</v>
       </c>
-      <c r="D10" t="s">
-        <v>36</v>
+      <c r="D10" s="1">
+        <v>4</v>
       </c>
       <c r="E10" t="s">
         <v>15</v>
@@ -1493,8 +1492,8 @@
       <c r="C11" t="s">
         <v>14</v>
       </c>
-      <c r="D11" t="s">
-        <v>40</v>
+      <c r="D11" s="1">
+        <v>23</v>
       </c>
       <c r="E11" t="s">
         <v>15</v>
@@ -1537,8 +1536,8 @@
       <c r="C12" t="s">
         <v>14</v>
       </c>
-      <c r="D12" t="s">
-        <v>42</v>
+      <c r="D12" s="1">
+        <v>13</v>
       </c>
       <c r="E12" t="s">
         <v>15</v>
@@ -1571,7 +1570,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>44</v>
       </c>
@@ -1581,8 +1580,8 @@
       <c r="C13" t="s">
         <v>14</v>
       </c>
-      <c r="D13" t="s">
-        <v>14</v>
+      <c r="D13" s="1">
+        <v>0</v>
       </c>
       <c r="E13" t="s">
         <v>15</v>
@@ -1625,8 +1624,8 @@
       <c r="C14" t="s">
         <v>14</v>
       </c>
-      <c r="D14" t="s">
-        <v>46</v>
+      <c r="D14" s="1">
+        <v>31</v>
       </c>
       <c r="E14" t="s">
         <v>15</v>
@@ -1669,8 +1668,8 @@
       <c r="C15" t="s">
         <v>14</v>
       </c>
-      <c r="D15" t="s">
-        <v>49</v>
+      <c r="D15" s="1">
+        <v>34</v>
       </c>
       <c r="E15" t="s">
         <v>15</v>
@@ -1703,7 +1702,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>50</v>
       </c>
@@ -1713,8 +1712,8 @@
       <c r="C16" t="s">
         <v>14</v>
       </c>
-      <c r="D16" t="s">
-        <v>14</v>
+      <c r="D16" s="1">
+        <v>0</v>
       </c>
       <c r="E16" t="s">
         <v>15</v>
@@ -1757,8 +1756,8 @@
       <c r="C17" t="s">
         <v>14</v>
       </c>
-      <c r="D17" t="s">
-        <v>19</v>
+      <c r="D17" s="1">
+        <v>2</v>
       </c>
       <c r="E17" t="s">
         <v>15</v>
@@ -1791,7 +1790,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>52</v>
       </c>
@@ -1801,8 +1800,8 @@
       <c r="C18" t="s">
         <v>14</v>
       </c>
-      <c r="D18" t="s">
-        <v>14</v>
+      <c r="D18" s="1">
+        <v>0</v>
       </c>
       <c r="E18" t="s">
         <v>15</v>
@@ -1835,7 +1834,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>53</v>
       </c>
@@ -1845,8 +1844,8 @@
       <c r="C19" t="s">
         <v>14</v>
       </c>
-      <c r="D19" t="s">
-        <v>14</v>
+      <c r="D19" s="1">
+        <v>0</v>
       </c>
       <c r="E19" t="s">
         <v>15</v>
@@ -1889,8 +1888,8 @@
       <c r="C20" t="s">
         <v>14</v>
       </c>
-      <c r="D20" t="s">
-        <v>20</v>
+      <c r="D20" s="1">
+        <v>1</v>
       </c>
       <c r="E20" t="s">
         <v>15</v>
@@ -1933,8 +1932,8 @@
       <c r="C21" t="s">
         <v>14</v>
       </c>
-      <c r="D21" t="s">
-        <v>56</v>
+      <c r="D21" s="1">
+        <v>51</v>
       </c>
       <c r="E21" t="s">
         <v>15</v>
@@ -1977,8 +1976,8 @@
       <c r="C22" t="s">
         <v>14</v>
       </c>
-      <c r="D22" t="s">
-        <v>36</v>
+      <c r="D22" s="1">
+        <v>4</v>
       </c>
       <c r="E22" t="s">
         <v>15</v>
@@ -2011,7 +2010,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>60</v>
       </c>
@@ -2021,8 +2020,8 @@
       <c r="C23" t="s">
         <v>14</v>
       </c>
-      <c r="D23" t="s">
-        <v>14</v>
+      <c r="D23" s="1">
+        <v>0</v>
       </c>
       <c r="E23" t="s">
         <v>15</v>
@@ -2065,8 +2064,8 @@
       <c r="C24" t="s">
         <v>14</v>
       </c>
-      <c r="D24" t="s">
-        <v>62</v>
+      <c r="D24" s="1">
+        <v>20</v>
       </c>
       <c r="E24" t="s">
         <v>15</v>
@@ -2099,7 +2098,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>64</v>
       </c>
@@ -2109,8 +2108,8 @@
       <c r="C25" t="s">
         <v>14</v>
       </c>
-      <c r="D25" t="s">
-        <v>14</v>
+      <c r="D25" s="1">
+        <v>0</v>
       </c>
       <c r="E25" t="s">
         <v>15</v>
@@ -2143,7 +2142,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>65</v>
       </c>
@@ -2153,8 +2152,8 @@
       <c r="C26" t="s">
         <v>14</v>
       </c>
-      <c r="D26" t="s">
-        <v>14</v>
+      <c r="D26" s="1">
+        <v>0</v>
       </c>
       <c r="E26" t="s">
         <v>15</v>
@@ -2187,7 +2186,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>66</v>
       </c>
@@ -2197,8 +2196,8 @@
       <c r="C27" t="s">
         <v>14</v>
       </c>
-      <c r="D27" t="s">
-        <v>14</v>
+      <c r="D27" s="1">
+        <v>0</v>
       </c>
       <c r="E27" t="s">
         <v>15</v>
@@ -2241,8 +2240,8 @@
       <c r="C28" t="s">
         <v>14</v>
       </c>
-      <c r="D28" t="s">
-        <v>20</v>
+      <c r="D28" s="1">
+        <v>1</v>
       </c>
       <c r="E28" t="s">
         <v>15</v>
@@ -2275,7 +2274,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>68</v>
       </c>
@@ -2285,8 +2284,8 @@
       <c r="C29" t="s">
         <v>14</v>
       </c>
-      <c r="D29" t="s">
-        <v>14</v>
+      <c r="D29" s="1">
+        <v>0</v>
       </c>
       <c r="E29" t="s">
         <v>15</v>
@@ -2319,7 +2318,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>69</v>
       </c>
@@ -2329,8 +2328,8 @@
       <c r="C30" t="s">
         <v>14</v>
       </c>
-      <c r="D30" t="s">
-        <v>14</v>
+      <c r="D30" s="1">
+        <v>0</v>
       </c>
       <c r="E30" t="s">
         <v>15</v>
@@ -2373,8 +2372,8 @@
       <c r="C31" t="s">
         <v>14</v>
       </c>
-      <c r="D31" t="s">
-        <v>71</v>
+      <c r="D31" s="1">
+        <v>22</v>
       </c>
       <c r="E31" t="s">
         <v>15</v>
@@ -2407,7 +2406,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>72</v>
       </c>
@@ -2417,8 +2416,8 @@
       <c r="C32" t="s">
         <v>14</v>
       </c>
-      <c r="D32" t="s">
-        <v>14</v>
+      <c r="D32" s="1">
+        <v>0</v>
       </c>
       <c r="E32" t="s">
         <v>15</v>
@@ -2451,7 +2450,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>73</v>
       </c>
@@ -2461,8 +2460,8 @@
       <c r="C33" t="s">
         <v>14</v>
       </c>
-      <c r="D33" t="s">
-        <v>14</v>
+      <c r="D33" s="1">
+        <v>0</v>
       </c>
       <c r="E33" t="s">
         <v>15</v>
@@ -2495,7 +2494,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>74</v>
       </c>
@@ -2505,8 +2504,8 @@
       <c r="C34" t="s">
         <v>14</v>
       </c>
-      <c r="D34" t="s">
-        <v>14</v>
+      <c r="D34" s="1">
+        <v>0</v>
       </c>
       <c r="E34" t="s">
         <v>15</v>
@@ -2549,8 +2548,8 @@
       <c r="C35" t="s">
         <v>14</v>
       </c>
-      <c r="D35" t="s">
-        <v>16</v>
+      <c r="D35" s="1">
+        <v>14</v>
       </c>
       <c r="E35" t="s">
         <v>15</v>
@@ -2593,8 +2592,8 @@
       <c r="C36" t="s">
         <v>14</v>
       </c>
-      <c r="D36" t="s">
-        <v>43</v>
+      <c r="D36" s="1">
+        <v>10</v>
       </c>
       <c r="E36" t="s">
         <v>15</v>
@@ -2637,8 +2636,8 @@
       <c r="C37" t="s">
         <v>20</v>
       </c>
-      <c r="D37" t="s">
-        <v>46</v>
+      <c r="D37" s="1">
+        <v>31</v>
       </c>
       <c r="E37" t="s">
         <v>15</v>
@@ -2681,8 +2680,8 @@
       <c r="C38" t="s">
         <v>14</v>
       </c>
-      <c r="D38" t="s">
-        <v>19</v>
+      <c r="D38" s="1">
+        <v>2</v>
       </c>
       <c r="E38" t="s">
         <v>15</v>
@@ -2715,7 +2714,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>79</v>
       </c>
@@ -2769,8 +2768,8 @@
       <c r="C40" t="s">
         <v>14</v>
       </c>
-      <c r="D40" t="s">
-        <v>25</v>
+      <c r="D40" s="1">
+        <v>3</v>
       </c>
       <c r="E40" t="s">
         <v>15</v>
@@ -2803,7 +2802,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>84</v>
       </c>
@@ -2813,8 +2812,8 @@
       <c r="C41" t="s">
         <v>14</v>
       </c>
-      <c r="D41" t="s">
-        <v>14</v>
+      <c r="D41" s="1">
+        <v>0</v>
       </c>
       <c r="E41" t="s">
         <v>15</v>
@@ -2857,8 +2856,8 @@
       <c r="C42" t="s">
         <v>19</v>
       </c>
-      <c r="D42" t="s">
-        <v>43</v>
+      <c r="D42" s="1">
+        <v>10</v>
       </c>
       <c r="E42" t="s">
         <v>15</v>
@@ -2901,8 +2900,8 @@
       <c r="C43" t="s">
         <v>14</v>
       </c>
-      <c r="D43" t="s">
-        <v>20</v>
+      <c r="D43" s="1">
+        <v>1</v>
       </c>
       <c r="E43" t="s">
         <v>15</v>
@@ -2945,8 +2944,8 @@
       <c r="C44" t="s">
         <v>14</v>
       </c>
-      <c r="D44" t="s">
-        <v>32</v>
+      <c r="D44" s="1">
+        <v>9</v>
       </c>
       <c r="E44" t="s">
         <v>15</v>
@@ -2989,8 +2988,8 @@
       <c r="C45" t="s">
         <v>14</v>
       </c>
-      <c r="D45" t="s">
-        <v>36</v>
+      <c r="D45" s="1">
+        <v>4</v>
       </c>
       <c r="E45" t="s">
         <v>15</v>
@@ -3023,7 +3022,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>89</v>
       </c>
@@ -3033,8 +3032,8 @@
       <c r="C46" t="s">
         <v>14</v>
       </c>
-      <c r="D46" t="s">
-        <v>14</v>
+      <c r="D46" s="1">
+        <v>0</v>
       </c>
       <c r="E46" t="s">
         <v>15</v>
@@ -3077,8 +3076,8 @@
       <c r="C47" t="s">
         <v>14</v>
       </c>
-      <c r="D47" t="s">
-        <v>91</v>
+      <c r="D47" s="1">
+        <v>74</v>
       </c>
       <c r="E47" t="s">
         <v>15</v>
@@ -3121,8 +3120,8 @@
       <c r="C48" t="s">
         <v>14</v>
       </c>
-      <c r="D48" t="s">
-        <v>93</v>
+      <c r="D48" s="1">
+        <v>37</v>
       </c>
       <c r="E48" t="s">
         <v>15</v>
@@ -3155,7 +3154,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>95</v>
       </c>
@@ -3165,8 +3164,8 @@
       <c r="C49" t="s">
         <v>14</v>
       </c>
-      <c r="D49" t="s">
-        <v>14</v>
+      <c r="D49" s="1">
+        <v>0</v>
       </c>
       <c r="E49" t="s">
         <v>15</v>
@@ -3199,7 +3198,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>96</v>
       </c>
@@ -3209,8 +3208,8 @@
       <c r="C50" t="s">
         <v>14</v>
       </c>
-      <c r="D50" t="s">
-        <v>14</v>
+      <c r="D50" s="1">
+        <v>0</v>
       </c>
       <c r="E50" t="s">
         <v>15</v>
@@ -3243,7 +3242,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>97</v>
       </c>
@@ -3253,8 +3252,8 @@
       <c r="C51" t="s">
         <v>14</v>
       </c>
-      <c r="D51" t="s">
-        <v>14</v>
+      <c r="D51" s="1">
+        <v>0</v>
       </c>
       <c r="E51" t="s">
         <v>15</v>
@@ -3287,7 +3286,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>98</v>
       </c>
@@ -3297,8 +3296,8 @@
       <c r="C52" t="s">
         <v>14</v>
       </c>
-      <c r="D52" t="s">
-        <v>14</v>
+      <c r="D52" s="1">
+        <v>0</v>
       </c>
       <c r="E52" t="s">
         <v>15</v>
@@ -3341,8 +3340,8 @@
       <c r="C53" t="s">
         <v>14</v>
       </c>
-      <c r="D53" t="s">
-        <v>30</v>
+      <c r="D53" s="1">
+        <v>5</v>
       </c>
       <c r="E53" t="s">
         <v>15</v>
@@ -3385,8 +3384,8 @@
       <c r="C54" t="s">
         <v>14</v>
       </c>
-      <c r="D54" t="s">
-        <v>62</v>
+      <c r="D54" s="1">
+        <v>20</v>
       </c>
       <c r="E54" t="s">
         <v>15</v>
@@ -3419,7 +3418,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>102</v>
       </c>
@@ -3429,8 +3428,8 @@
       <c r="C55" t="s">
         <v>14</v>
       </c>
-      <c r="D55" t="s">
-        <v>14</v>
+      <c r="D55" s="1">
+        <v>0</v>
       </c>
       <c r="E55" t="s">
         <v>15</v>
@@ -3463,7 +3462,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="56" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>103</v>
       </c>
@@ -3473,8 +3472,8 @@
       <c r="C56" t="s">
         <v>14</v>
       </c>
-      <c r="D56" t="s">
-        <v>14</v>
+      <c r="D56" s="1">
+        <v>0</v>
       </c>
       <c r="E56" t="s">
         <v>15</v>
@@ -3517,8 +3516,8 @@
       <c r="C57" t="s">
         <v>14</v>
       </c>
-      <c r="D57" t="s">
-        <v>63</v>
+      <c r="D57" s="1">
+        <v>12</v>
       </c>
       <c r="E57" t="s">
         <v>15</v>
@@ -3561,8 +3560,8 @@
       <c r="C58" t="s">
         <v>14</v>
       </c>
-      <c r="D58" t="s">
-        <v>101</v>
+      <c r="D58" s="1">
+        <v>6</v>
       </c>
       <c r="E58" t="s">
         <v>15</v>
@@ -3595,7 +3594,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="59" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>106</v>
       </c>
@@ -3605,8 +3604,8 @@
       <c r="C59" t="s">
         <v>14</v>
       </c>
-      <c r="D59" t="s">
-        <v>14</v>
+      <c r="D59" s="1">
+        <v>0</v>
       </c>
       <c r="E59" t="s">
         <v>15</v>
@@ -3649,8 +3648,8 @@
       <c r="C60" t="s">
         <v>14</v>
       </c>
-      <c r="D60" t="s">
-        <v>20</v>
+      <c r="D60" s="1">
+        <v>1</v>
       </c>
       <c r="E60" t="s">
         <v>15</v>
@@ -3693,8 +3692,8 @@
       <c r="C61" t="s">
         <v>14</v>
       </c>
-      <c r="D61" t="s">
-        <v>32</v>
+      <c r="D61" s="1">
+        <v>9</v>
       </c>
       <c r="E61" t="s">
         <v>15</v>
@@ -3727,7 +3726,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="62" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>109</v>
       </c>
@@ -3737,8 +3736,8 @@
       <c r="C62" t="s">
         <v>14</v>
       </c>
-      <c r="D62" t="s">
-        <v>14</v>
+      <c r="D62" s="1">
+        <v>0</v>
       </c>
       <c r="E62" t="s">
         <v>15</v>
@@ -3781,8 +3780,8 @@
       <c r="C63" t="s">
         <v>14</v>
       </c>
-      <c r="D63" t="s">
-        <v>101</v>
+      <c r="D63" s="1">
+        <v>6</v>
       </c>
       <c r="E63" t="s">
         <v>15</v>
@@ -3825,8 +3824,8 @@
       <c r="C64" t="s">
         <v>14</v>
       </c>
-      <c r="D64" t="s">
-        <v>24</v>
+      <c r="D64" s="1">
+        <v>11</v>
       </c>
       <c r="E64" t="s">
         <v>15</v>
@@ -3869,8 +3868,8 @@
       <c r="C65" t="s">
         <v>14</v>
       </c>
-      <c r="D65" t="s">
-        <v>30</v>
+      <c r="D65" s="1">
+        <v>5</v>
       </c>
       <c r="E65" t="s">
         <v>15</v>
@@ -3913,8 +3912,8 @@
       <c r="C66" t="s">
         <v>14</v>
       </c>
-      <c r="D66" t="s">
-        <v>36</v>
+      <c r="D66" s="1">
+        <v>4</v>
       </c>
       <c r="E66" t="s">
         <v>15</v>
@@ -3957,8 +3956,8 @@
       <c r="C67" t="s">
         <v>14</v>
       </c>
-      <c r="D67" t="s">
-        <v>62</v>
+      <c r="D67" s="1">
+        <v>20</v>
       </c>
       <c r="E67" t="s">
         <v>15</v>
@@ -4001,8 +4000,8 @@
       <c r="C68" t="s">
         <v>14</v>
       </c>
-      <c r="D68" t="s">
-        <v>116</v>
+      <c r="D68" s="1">
+        <v>56</v>
       </c>
       <c r="E68" t="s">
         <v>15</v>
@@ -4045,8 +4044,8 @@
       <c r="C69" t="s">
         <v>14</v>
       </c>
-      <c r="D69" t="s">
-        <v>20</v>
+      <c r="D69" s="1">
+        <v>1</v>
       </c>
       <c r="E69" t="s">
         <v>15</v>
@@ -4079,7 +4078,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="70" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>119</v>
       </c>
@@ -4089,8 +4088,8 @@
       <c r="C70" t="s">
         <v>14</v>
       </c>
-      <c r="D70" t="s">
-        <v>14</v>
+      <c r="D70" s="1">
+        <v>0</v>
       </c>
       <c r="E70" t="s">
         <v>15</v>
@@ -4133,8 +4132,8 @@
       <c r="C71" t="s">
         <v>14</v>
       </c>
-      <c r="D71" t="s">
-        <v>42</v>
+      <c r="D71" s="1">
+        <v>13</v>
       </c>
       <c r="E71" t="s">
         <v>15</v>
@@ -4167,7 +4166,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="72" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>82</v>
       </c>
@@ -4221,8 +4220,8 @@
       <c r="C73" t="s">
         <v>14</v>
       </c>
-      <c r="D73" t="s">
-        <v>30</v>
+      <c r="D73" s="1">
+        <v>5</v>
       </c>
       <c r="E73" t="s">
         <v>15</v>
@@ -4265,8 +4264,8 @@
       <c r="C74" t="s">
         <v>20</v>
       </c>
-      <c r="D74" t="s">
-        <v>63</v>
+      <c r="D74" s="1">
+        <v>12</v>
       </c>
       <c r="E74" t="s">
         <v>15</v>
@@ -4309,8 +4308,8 @@
       <c r="C75" t="s">
         <v>34</v>
       </c>
-      <c r="D75" t="s">
-        <v>16</v>
+      <c r="D75" s="1">
+        <v>14</v>
       </c>
       <c r="E75" t="s">
         <v>15</v>
@@ -4353,8 +4352,8 @@
       <c r="C76" t="s">
         <v>14</v>
       </c>
-      <c r="D76" t="s">
-        <v>34</v>
+      <c r="D76" s="1">
+        <v>7</v>
       </c>
       <c r="E76" t="s">
         <v>15</v>
@@ -4397,8 +4396,8 @@
       <c r="C77" t="s">
         <v>14</v>
       </c>
-      <c r="D77" t="s">
-        <v>47</v>
+      <c r="D77" s="1">
+        <v>8</v>
       </c>
       <c r="E77" t="s">
         <v>15</v>
@@ -4441,8 +4440,8 @@
       <c r="C78" t="s">
         <v>14</v>
       </c>
-      <c r="D78" t="s">
-        <v>20</v>
+      <c r="D78" s="1">
+        <v>1</v>
       </c>
       <c r="E78" t="s">
         <v>15</v>
@@ -4475,7 +4474,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="79" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>127</v>
       </c>
@@ -4485,8 +4484,8 @@
       <c r="C79" t="s">
         <v>14</v>
       </c>
-      <c r="D79" t="s">
-        <v>14</v>
+      <c r="D79" s="1">
+        <v>0</v>
       </c>
       <c r="E79" t="s">
         <v>15</v>
@@ -4519,7 +4518,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="80" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>128</v>
       </c>
@@ -4529,8 +4528,8 @@
       <c r="C80" t="s">
         <v>14</v>
       </c>
-      <c r="D80" t="s">
-        <v>14</v>
+      <c r="D80" s="1">
+        <v>0</v>
       </c>
       <c r="E80" t="s">
         <v>15</v>
@@ -4573,8 +4572,8 @@
       <c r="C81" t="s">
         <v>14</v>
       </c>
-      <c r="D81" t="s">
-        <v>30</v>
+      <c r="D81" s="1">
+        <v>5</v>
       </c>
       <c r="E81" t="s">
         <v>15</v>
@@ -4607,7 +4606,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="82" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>130</v>
       </c>
@@ -4617,8 +4616,8 @@
       <c r="C82" t="s">
         <v>14</v>
       </c>
-      <c r="D82" t="s">
-        <v>14</v>
+      <c r="D82" s="1">
+        <v>0</v>
       </c>
       <c r="E82" t="s">
         <v>15</v>
@@ -4661,8 +4660,8 @@
       <c r="C83" t="s">
         <v>14</v>
       </c>
-      <c r="D83" t="s">
-        <v>32</v>
+      <c r="D83" s="1">
+        <v>9</v>
       </c>
       <c r="E83" t="s">
         <v>15</v>
@@ -4705,8 +4704,8 @@
       <c r="C84" t="s">
         <v>14</v>
       </c>
-      <c r="D84" t="s">
-        <v>133</v>
+      <c r="D84" s="1">
+        <v>162</v>
       </c>
       <c r="E84" t="s">
         <v>15</v>
@@ -4739,7 +4738,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="85" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>136</v>
       </c>
@@ -4749,8 +4748,8 @@
       <c r="C85" t="s">
         <v>14</v>
       </c>
-      <c r="D85" t="s">
-        <v>14</v>
+      <c r="D85" s="1">
+        <v>0</v>
       </c>
       <c r="E85" t="s">
         <v>15</v>
@@ -4783,7 +4782,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="86" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>137</v>
       </c>
@@ -4793,8 +4792,8 @@
       <c r="C86" t="s">
         <v>14</v>
       </c>
-      <c r="D86" t="s">
-        <v>14</v>
+      <c r="D86" s="1">
+        <v>0</v>
       </c>
       <c r="E86" t="s">
         <v>15</v>
@@ -4837,8 +4836,8 @@
       <c r="C87" t="s">
         <v>14</v>
       </c>
-      <c r="D87" t="s">
-        <v>58</v>
+      <c r="D87" s="1">
+        <v>17</v>
       </c>
       <c r="E87" t="s">
         <v>15</v>
@@ -4881,8 +4880,8 @@
       <c r="C88" t="s">
         <v>14</v>
       </c>
-      <c r="D88" t="s">
-        <v>101</v>
+      <c r="D88" s="1">
+        <v>6</v>
       </c>
       <c r="E88" t="s">
         <v>15</v>
@@ -4915,7 +4914,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="89" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>140</v>
       </c>
@@ -4925,8 +4924,8 @@
       <c r="C89" t="s">
         <v>14</v>
       </c>
-      <c r="D89" t="s">
-        <v>14</v>
+      <c r="D89" s="1">
+        <v>0</v>
       </c>
       <c r="E89" t="s">
         <v>15</v>
@@ -4969,8 +4968,8 @@
       <c r="C90" t="s">
         <v>14</v>
       </c>
-      <c r="D90" t="s">
-        <v>32</v>
+      <c r="D90" s="1">
+        <v>9</v>
       </c>
       <c r="E90" t="s">
         <v>15</v>
@@ -5013,8 +5012,8 @@
       <c r="C91" t="s">
         <v>14</v>
       </c>
-      <c r="D91" t="s">
-        <v>25</v>
+      <c r="D91" s="1">
+        <v>3</v>
       </c>
       <c r="E91" t="s">
         <v>15</v>
@@ -5047,7 +5046,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="92" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>143</v>
       </c>
@@ -5057,8 +5056,8 @@
       <c r="C92" t="s">
         <v>14</v>
       </c>
-      <c r="D92" t="s">
-        <v>14</v>
+      <c r="D92" s="1">
+        <v>0</v>
       </c>
       <c r="E92" t="s">
         <v>15</v>
@@ -5091,7 +5090,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="93" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>144</v>
       </c>
@@ -5101,8 +5100,8 @@
       <c r="C93" t="s">
         <v>14</v>
       </c>
-      <c r="D93" t="s">
-        <v>14</v>
+      <c r="D93" s="1">
+        <v>0</v>
       </c>
       <c r="E93" t="s">
         <v>15</v>
@@ -5135,7 +5134,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="94" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>145</v>
       </c>
@@ -5145,8 +5144,8 @@
       <c r="C94" t="s">
         <v>14</v>
       </c>
-      <c r="D94" t="s">
-        <v>14</v>
+      <c r="D94" s="1">
+        <v>0</v>
       </c>
       <c r="E94" t="s">
         <v>15</v>
@@ -5189,8 +5188,8 @@
       <c r="C95" t="s">
         <v>23</v>
       </c>
-      <c r="D95" t="s">
-        <v>23</v>
+      <c r="D95" s="1">
+        <v>32</v>
       </c>
       <c r="E95" t="s">
         <v>15</v>
@@ -5233,8 +5232,8 @@
       <c r="C96" t="s">
         <v>14</v>
       </c>
-      <c r="D96" t="s">
-        <v>20</v>
+      <c r="D96" s="1">
+        <v>1</v>
       </c>
       <c r="E96" t="s">
         <v>15</v>
@@ -5277,8 +5276,8 @@
       <c r="C97" t="s">
         <v>14</v>
       </c>
-      <c r="D97" t="s">
-        <v>16</v>
+      <c r="D97" s="1">
+        <v>14</v>
       </c>
       <c r="E97" t="s">
         <v>15</v>
@@ -5311,7 +5310,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="98" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>149</v>
       </c>
@@ -5321,8 +5320,8 @@
       <c r="C98" t="s">
         <v>14</v>
       </c>
-      <c r="D98" t="s">
-        <v>14</v>
+      <c r="D98" s="1">
+        <v>0</v>
       </c>
       <c r="E98" t="s">
         <v>15</v>
@@ -5365,8 +5364,8 @@
       <c r="C99" t="s">
         <v>14</v>
       </c>
-      <c r="D99" t="s">
-        <v>16</v>
+      <c r="D99" s="1">
+        <v>14</v>
       </c>
       <c r="E99" t="s">
         <v>15</v>
@@ -5409,8 +5408,8 @@
       <c r="C100" t="s">
         <v>14</v>
       </c>
-      <c r="D100" t="s">
-        <v>20</v>
+      <c r="D100" s="1">
+        <v>1</v>
       </c>
       <c r="E100" t="s">
         <v>15</v>
@@ -5453,8 +5452,8 @@
       <c r="C101" t="s">
         <v>14</v>
       </c>
-      <c r="D101" t="s">
-        <v>153</v>
+      <c r="D101" s="1">
+        <v>33</v>
       </c>
       <c r="E101" t="s">
         <v>15</v>
@@ -5497,8 +5496,8 @@
       <c r="C102" t="s">
         <v>14</v>
       </c>
-      <c r="D102" t="s">
-        <v>155</v>
+      <c r="D102" s="1">
+        <v>24</v>
       </c>
       <c r="E102" t="s">
         <v>15</v>
@@ -5541,8 +5540,8 @@
       <c r="C103" t="s">
         <v>14</v>
       </c>
-      <c r="D103" t="s">
-        <v>16</v>
+      <c r="D103" s="1">
+        <v>14</v>
       </c>
       <c r="E103" t="s">
         <v>15</v>
@@ -5585,8 +5584,8 @@
       <c r="C104" t="s">
         <v>14</v>
       </c>
-      <c r="D104" t="s">
-        <v>20</v>
+      <c r="D104" s="1">
+        <v>1</v>
       </c>
       <c r="E104" t="s">
         <v>15</v>
@@ -5619,7 +5618,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="105" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>158</v>
       </c>
@@ -5629,8 +5628,8 @@
       <c r="C105" t="s">
         <v>14</v>
       </c>
-      <c r="D105" t="s">
-        <v>14</v>
+      <c r="D105" s="1">
+        <v>0</v>
       </c>
       <c r="E105" t="s">
         <v>15</v>
@@ -5673,8 +5672,8 @@
       <c r="C106" t="s">
         <v>14</v>
       </c>
-      <c r="D106" t="s">
-        <v>25</v>
+      <c r="D106" s="1">
+        <v>3</v>
       </c>
       <c r="E106" t="s">
         <v>15</v>
@@ -5707,7 +5706,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="107" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>160</v>
       </c>
@@ -5717,8 +5716,8 @@
       <c r="C107" t="s">
         <v>14</v>
       </c>
-      <c r="D107" t="s">
-        <v>14</v>
+      <c r="D107" s="1">
+        <v>0</v>
       </c>
       <c r="E107" t="s">
         <v>15</v>
@@ -5761,8 +5760,8 @@
       <c r="C108" t="s">
         <v>14</v>
       </c>
-      <c r="D108" t="s">
-        <v>43</v>
+      <c r="D108" s="1">
+        <v>10</v>
       </c>
       <c r="E108" t="s">
         <v>15</v>
@@ -5805,8 +5804,8 @@
       <c r="C109" t="s">
         <v>14</v>
       </c>
-      <c r="D109" t="s">
-        <v>29</v>
+      <c r="D109" s="1">
+        <v>43</v>
       </c>
       <c r="E109" t="s">
         <v>15</v>
@@ -5849,8 +5848,8 @@
       <c r="C110" t="s">
         <v>14</v>
       </c>
-      <c r="D110" t="s">
-        <v>20</v>
+      <c r="D110" s="1">
+        <v>1</v>
       </c>
       <c r="E110" t="s">
         <v>15</v>
@@ -5883,7 +5882,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="111" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>165</v>
       </c>
@@ -5937,8 +5936,8 @@
       <c r="C112" t="s">
         <v>14</v>
       </c>
-      <c r="D112" t="s">
-        <v>32</v>
+      <c r="D112" s="1">
+        <v>9</v>
       </c>
       <c r="E112" t="s">
         <v>15</v>
@@ -5981,8 +5980,8 @@
       <c r="C113" t="s">
         <v>14</v>
       </c>
-      <c r="D113" t="s">
-        <v>34</v>
+      <c r="D113" s="1">
+        <v>7</v>
       </c>
       <c r="E113" t="s">
         <v>15</v>
@@ -6015,7 +6014,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="114" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>169</v>
       </c>
@@ -6025,8 +6024,8 @@
       <c r="C114" t="s">
         <v>14</v>
       </c>
-      <c r="D114" t="s">
-        <v>14</v>
+      <c r="D114" s="1">
+        <v>0</v>
       </c>
       <c r="E114" t="s">
         <v>15</v>
@@ -6069,8 +6068,8 @@
       <c r="C115" t="s">
         <v>14</v>
       </c>
-      <c r="D115" t="s">
-        <v>19</v>
+      <c r="D115" s="1">
+        <v>2</v>
       </c>
       <c r="E115" t="s">
         <v>15</v>
@@ -6103,7 +6102,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="116" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>171</v>
       </c>
@@ -6113,8 +6112,8 @@
       <c r="C116" t="s">
         <v>14</v>
       </c>
-      <c r="D116" t="s">
-        <v>14</v>
+      <c r="D116" s="1">
+        <v>0</v>
       </c>
       <c r="E116" t="s">
         <v>15</v>
@@ -6157,8 +6156,8 @@
       <c r="C117" t="s">
         <v>14</v>
       </c>
-      <c r="D117" t="s">
-        <v>71</v>
+      <c r="D117" s="1">
+        <v>22</v>
       </c>
       <c r="E117" t="s">
         <v>15</v>
@@ -6191,7 +6190,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="118" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>174</v>
       </c>
@@ -6245,8 +6244,8 @@
       <c r="C119" t="s">
         <v>14</v>
       </c>
-      <c r="D119" t="s">
-        <v>177</v>
+      <c r="D119" s="1">
+        <v>25</v>
       </c>
       <c r="E119" t="s">
         <v>15</v>
@@ -6279,7 +6278,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="120" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>178</v>
       </c>
@@ -6289,8 +6288,8 @@
       <c r="C120" t="s">
         <v>14</v>
       </c>
-      <c r="D120" t="s">
-        <v>14</v>
+      <c r="D120" s="1">
+        <v>0</v>
       </c>
       <c r="E120" t="s">
         <v>15</v>
@@ -6333,8 +6332,8 @@
       <c r="C121" t="s">
         <v>14</v>
       </c>
-      <c r="D121" t="s">
-        <v>20</v>
+      <c r="D121" s="1">
+        <v>1</v>
       </c>
       <c r="E121" t="s">
         <v>15</v>
@@ -6367,7 +6366,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="122" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>180</v>
       </c>
@@ -6377,8 +6376,8 @@
       <c r="C122" t="s">
         <v>14</v>
       </c>
-      <c r="D122" t="s">
-        <v>14</v>
+      <c r="D122" s="1">
+        <v>0</v>
       </c>
       <c r="E122" t="s">
         <v>15</v>
@@ -6421,8 +6420,8 @@
       <c r="C123" t="s">
         <v>14</v>
       </c>
-      <c r="D123" t="s">
-        <v>19</v>
+      <c r="D123" s="1">
+        <v>2</v>
       </c>
       <c r="E123" t="s">
         <v>15</v>
@@ -6465,8 +6464,8 @@
       <c r="C124" t="s">
         <v>14</v>
       </c>
-      <c r="D124" t="s">
-        <v>20</v>
+      <c r="D124" s="1">
+        <v>1</v>
       </c>
       <c r="E124" t="s">
         <v>15</v>
@@ -6509,8 +6508,8 @@
       <c r="C125" t="s">
         <v>19</v>
       </c>
-      <c r="D125" t="s">
-        <v>47</v>
+      <c r="D125" s="1">
+        <v>8</v>
       </c>
       <c r="E125" t="s">
         <v>15</v>
@@ -6553,8 +6552,8 @@
       <c r="C126" t="s">
         <v>14</v>
       </c>
-      <c r="D126" t="s">
-        <v>94</v>
+      <c r="D126" s="1">
+        <v>18</v>
       </c>
       <c r="E126" t="s">
         <v>15</v>
@@ -6597,8 +6596,8 @@
       <c r="C127" t="s">
         <v>14</v>
       </c>
-      <c r="D127" t="s">
-        <v>186</v>
+      <c r="D127" s="1">
+        <v>55</v>
       </c>
       <c r="E127" t="s">
         <v>15</v>
@@ -6641,8 +6640,8 @@
       <c r="C128" t="s">
         <v>14</v>
       </c>
-      <c r="D128" t="s">
-        <v>43</v>
+      <c r="D128" s="1">
+        <v>10</v>
       </c>
       <c r="E128" t="s">
         <v>15</v>
@@ -6685,8 +6684,8 @@
       <c r="C129" t="s">
         <v>14</v>
       </c>
-      <c r="D129" t="s">
-        <v>36</v>
+      <c r="D129" s="1">
+        <v>4</v>
       </c>
       <c r="E129" t="s">
         <v>15</v>
@@ -6719,7 +6718,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="130" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
         <v>190</v>
       </c>
@@ -6729,8 +6728,8 @@
       <c r="C130" t="s">
         <v>14</v>
       </c>
-      <c r="D130" t="s">
-        <v>14</v>
+      <c r="D130" s="1">
+        <v>0</v>
       </c>
       <c r="E130" t="s">
         <v>15</v>
@@ -6773,8 +6772,8 @@
       <c r="C131" t="s">
         <v>14</v>
       </c>
-      <c r="D131" t="s">
-        <v>25</v>
+      <c r="D131" s="1">
+        <v>3</v>
       </c>
       <c r="E131" t="s">
         <v>15</v>
@@ -6817,8 +6816,8 @@
       <c r="C132" t="s">
         <v>14</v>
       </c>
-      <c r="D132" t="s">
-        <v>20</v>
+      <c r="D132" s="1">
+        <v>1</v>
       </c>
       <c r="E132" t="s">
         <v>15</v>
@@ -6861,8 +6860,8 @@
       <c r="C133" t="s">
         <v>14</v>
       </c>
-      <c r="D133" t="s">
-        <v>36</v>
+      <c r="D133" s="1">
+        <v>4</v>
       </c>
       <c r="E133" t="s">
         <v>15</v>
@@ -6895,7 +6894,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="134" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
         <v>194</v>
       </c>
@@ -6905,8 +6904,8 @@
       <c r="C134" t="s">
         <v>14</v>
       </c>
-      <c r="D134" t="s">
-        <v>14</v>
+      <c r="D134" s="1">
+        <v>0</v>
       </c>
       <c r="E134" t="s">
         <v>15</v>
@@ -6939,7 +6938,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="135" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
         <v>195</v>
       </c>
@@ -6949,8 +6948,8 @@
       <c r="C135" t="s">
         <v>14</v>
       </c>
-      <c r="D135" t="s">
-        <v>14</v>
+      <c r="D135" s="1">
+        <v>0</v>
       </c>
       <c r="E135" t="s">
         <v>15</v>
@@ -6993,8 +6992,8 @@
       <c r="C136" t="s">
         <v>14</v>
       </c>
-      <c r="D136" t="s">
-        <v>19</v>
+      <c r="D136" s="1">
+        <v>2</v>
       </c>
       <c r="E136" t="s">
         <v>15</v>
@@ -7037,8 +7036,8 @@
       <c r="C137" t="s">
         <v>14</v>
       </c>
-      <c r="D137" t="s">
-        <v>58</v>
+      <c r="D137" s="1">
+        <v>17</v>
       </c>
       <c r="E137" t="s">
         <v>15</v>
@@ -7071,7 +7070,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="138" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
         <v>198</v>
       </c>
@@ -7081,8 +7080,8 @@
       <c r="C138" t="s">
         <v>14</v>
       </c>
-      <c r="D138" t="s">
-        <v>14</v>
+      <c r="D138" s="1">
+        <v>0</v>
       </c>
       <c r="E138" t="s">
         <v>15</v>
@@ -7115,7 +7114,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="139" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
         <v>199</v>
       </c>
@@ -7125,8 +7124,8 @@
       <c r="C139" t="s">
         <v>14</v>
       </c>
-      <c r="D139" t="s">
-        <v>14</v>
+      <c r="D139" s="1">
+        <v>0</v>
       </c>
       <c r="E139" t="s">
         <v>15</v>
@@ -7169,17 +7168,17 @@
       <c r="C140" t="s">
         <v>202</v>
       </c>
-      <c r="D140" t="s">
+      <c r="D140" s="1">
+        <v>221</v>
+      </c>
+      <c r="E140" t="s">
+        <v>15</v>
+      </c>
+      <c r="F140" t="s">
+        <v>15</v>
+      </c>
+      <c r="G140" t="s">
         <v>203</v>
-      </c>
-      <c r="E140" t="s">
-        <v>15</v>
-      </c>
-      <c r="F140" t="s">
-        <v>15</v>
-      </c>
-      <c r="G140" t="s">
-        <v>204</v>
       </c>
       <c r="H140" t="s">
         <v>134</v>
@@ -7191,7 +7190,7 @@
         <v>201</v>
       </c>
       <c r="K140" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="L140" t="s">
         <v>26</v>
@@ -7205,7 +7204,7 @@
     </row>
     <row r="141" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B141" t="s">
         <v>58</v>
@@ -7213,8 +7212,8 @@
       <c r="C141" t="s">
         <v>14</v>
       </c>
-      <c r="D141" t="s">
-        <v>58</v>
+      <c r="D141" s="1">
+        <v>17</v>
       </c>
       <c r="E141" t="s">
         <v>15</v>
@@ -7247,62 +7246,62 @@
         <v>14</v>
       </c>
     </row>
-    <row r="142" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
+        <v>206</v>
+      </c>
+      <c r="B142" t="s">
+        <v>14</v>
+      </c>
+      <c r="C142" t="s">
+        <v>14</v>
+      </c>
+      <c r="D142" s="1">
+        <v>0</v>
+      </c>
+      <c r="E142" t="s">
+        <v>15</v>
+      </c>
+      <c r="F142" t="s">
+        <v>15</v>
+      </c>
+      <c r="G142" t="s">
+        <v>14</v>
+      </c>
+      <c r="H142" t="s">
+        <v>14</v>
+      </c>
+      <c r="I142" t="s">
+        <v>14</v>
+      </c>
+      <c r="J142" t="s">
+        <v>14</v>
+      </c>
+      <c r="K142" t="s">
+        <v>14</v>
+      </c>
+      <c r="L142" t="s">
+        <v>14</v>
+      </c>
+      <c r="M142" t="s">
+        <v>14</v>
+      </c>
+      <c r="N142" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="143" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A143" t="s">
         <v>207</v>
       </c>
-      <c r="B142" t="s">
-        <v>14</v>
-      </c>
-      <c r="C142" t="s">
-        <v>14</v>
-      </c>
-      <c r="D142" t="s">
-        <v>14</v>
-      </c>
-      <c r="E142" t="s">
-        <v>15</v>
-      </c>
-      <c r="F142" t="s">
-        <v>15</v>
-      </c>
-      <c r="G142" t="s">
-        <v>14</v>
-      </c>
-      <c r="H142" t="s">
-        <v>14</v>
-      </c>
-      <c r="I142" t="s">
-        <v>14</v>
-      </c>
-      <c r="J142" t="s">
-        <v>14</v>
-      </c>
-      <c r="K142" t="s">
-        <v>14</v>
-      </c>
-      <c r="L142" t="s">
-        <v>14</v>
-      </c>
-      <c r="M142" t="s">
-        <v>14</v>
-      </c>
-      <c r="N142" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="143" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A143" t="s">
-        <v>208</v>
-      </c>
       <c r="B143" t="s">
         <v>14</v>
       </c>
       <c r="C143" t="s">
         <v>14</v>
       </c>
-      <c r="D143" t="s">
-        <v>14</v>
+      <c r="D143" s="1">
+        <v>0</v>
       </c>
       <c r="E143" t="s">
         <v>15</v>
@@ -7337,7 +7336,7 @@
     </row>
     <row r="144" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B144" t="s">
         <v>101</v>
@@ -7345,8 +7344,8 @@
       <c r="C144" t="s">
         <v>36</v>
       </c>
-      <c r="D144" t="s">
-        <v>43</v>
+      <c r="D144" s="1">
+        <v>10</v>
       </c>
       <c r="E144" t="s">
         <v>15</v>
@@ -7379,54 +7378,54 @@
         <v>36</v>
       </c>
     </row>
-    <row r="145" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
+        <v>209</v>
+      </c>
+      <c r="B145" t="s">
+        <v>14</v>
+      </c>
+      <c r="C145" t="s">
+        <v>14</v>
+      </c>
+      <c r="D145" t="s">
+        <v>14</v>
+      </c>
+      <c r="E145" t="s">
+        <v>15</v>
+      </c>
+      <c r="F145" t="s">
+        <v>15</v>
+      </c>
+      <c r="G145" t="s">
+        <v>14</v>
+      </c>
+      <c r="H145" t="s">
+        <v>14</v>
+      </c>
+      <c r="I145" t="s">
+        <v>14</v>
+      </c>
+      <c r="J145" t="s">
+        <v>14</v>
+      </c>
+      <c r="K145" t="s">
+        <v>14</v>
+      </c>
+      <c r="L145" t="s">
+        <v>14</v>
+      </c>
+      <c r="M145" t="s">
+        <v>14</v>
+      </c>
+      <c r="N145" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="146" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A146" t="s">
         <v>210</v>
       </c>
-      <c r="B145" t="s">
-        <v>14</v>
-      </c>
-      <c r="C145" t="s">
-        <v>14</v>
-      </c>
-      <c r="D145" t="s">
-        <v>14</v>
-      </c>
-      <c r="E145" t="s">
-        <v>15</v>
-      </c>
-      <c r="F145" t="s">
-        <v>15</v>
-      </c>
-      <c r="G145" t="s">
-        <v>14</v>
-      </c>
-      <c r="H145" t="s">
-        <v>14</v>
-      </c>
-      <c r="I145" t="s">
-        <v>14</v>
-      </c>
-      <c r="J145" t="s">
-        <v>14</v>
-      </c>
-      <c r="K145" t="s">
-        <v>14</v>
-      </c>
-      <c r="L145" t="s">
-        <v>14</v>
-      </c>
-      <c r="M145" t="s">
-        <v>14</v>
-      </c>
-      <c r="N145" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="146" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A146" t="s">
-        <v>211</v>
-      </c>
       <c r="B146" t="s">
         <v>14</v>
       </c>
@@ -7467,8 +7466,49 @@
         <v>14</v>
       </c>
     </row>
+    <row r="147" spans="1:14" hidden="1" x14ac:dyDescent="0.3"/>
   </sheetData>
-  <autoFilter ref="D1:D147" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="D1:D147" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="1"/>
+        <filter val="10"/>
+        <filter val="11"/>
+        <filter val="12"/>
+        <filter val="13"/>
+        <filter val="14"/>
+        <filter val="162"/>
+        <filter val="17"/>
+        <filter val="18"/>
+        <filter val="2"/>
+        <filter val="20"/>
+        <filter val="22"/>
+        <filter val="221"/>
+        <filter val="23"/>
+        <filter val="24"/>
+        <filter val="25"/>
+        <filter val="29"/>
+        <filter val="3"/>
+        <filter val="31"/>
+        <filter val="32"/>
+        <filter val="33"/>
+        <filter val="34"/>
+        <filter val="37"/>
+        <filter val="4"/>
+        <filter val="43"/>
+        <filter val="48"/>
+        <filter val="5"/>
+        <filter val="51"/>
+        <filter val="55"/>
+        <filter val="56"/>
+        <filter val="6"/>
+        <filter val="7"/>
+        <filter val="74"/>
+        <filter val="8"/>
+        <filter val="9"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/src/main/java/de/upb/sse/cutNRun/results/SourcesOfUnsoundnessCount.xlsx
+++ b/src/main/java/de/upb/sse/cutNRun/results/SourcesOfUnsoundnessCount.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\shazib\DEV\cutNRun\src\main\java\de\upb\sse\cutNRun\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{620F4601-CD3F-4F3E-8814-6D60ECC423BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F5AAB62-61E4-4843-873C-3D348446E043}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1905" uniqueCount="211">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1488" uniqueCount="210">
   <si>
     <t>ProjectName</t>
   </si>
@@ -635,9 +635,6 @@
   </si>
   <si>
     <t>54</t>
-  </si>
-  <si>
-    <t>80</t>
   </si>
   <si>
     <t>jaxb-runtime-4.0.5.jar</t>
@@ -1031,8 +1028,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:N147"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D144"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L1" sqref="L1:L1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1040,6 +1037,8 @@
     <col min="1" max="1" width="38.33203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="24.21875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="30" customWidth="1"/>
+    <col min="11" max="11" width="23.5546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="29.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.3">
@@ -1096,7 +1095,7 @@
       <c r="C2" t="s">
         <v>14</v>
       </c>
-      <c r="D2" s="1">
+      <c r="D2">
         <v>29</v>
       </c>
       <c r="E2" t="s">
@@ -1117,14 +1116,14 @@
       <c r="J2" t="s">
         <v>13</v>
       </c>
-      <c r="K2" t="s">
-        <v>14</v>
-      </c>
-      <c r="L2" t="s">
-        <v>14</v>
-      </c>
-      <c r="M2" t="s">
-        <v>14</v>
+      <c r="K2" s="1">
+        <v>0</v>
+      </c>
+      <c r="L2" s="1">
+        <v>0</v>
+      </c>
+      <c r="M2" s="1">
+        <v>0</v>
       </c>
       <c r="N2" t="s">
         <v>14</v>
@@ -1140,7 +1139,7 @@
       <c r="C3" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="1">
+      <c r="D3">
         <v>2</v>
       </c>
       <c r="E3" t="s">
@@ -1161,14 +1160,14 @@
       <c r="J3" t="s">
         <v>19</v>
       </c>
-      <c r="K3" t="s">
-        <v>14</v>
-      </c>
-      <c r="L3" t="s">
-        <v>14</v>
-      </c>
-      <c r="M3" t="s">
-        <v>14</v>
+      <c r="K3" s="1">
+        <v>0</v>
+      </c>
+      <c r="L3" s="1">
+        <v>0</v>
+      </c>
+      <c r="M3" s="1">
+        <v>0</v>
       </c>
       <c r="N3" t="s">
         <v>14</v>
@@ -1184,7 +1183,7 @@
       <c r="C4" t="s">
         <v>19</v>
       </c>
-      <c r="D4" s="1">
+      <c r="D4">
         <v>32</v>
       </c>
       <c r="E4" t="s">
@@ -1205,14 +1204,14 @@
       <c r="J4" t="s">
         <v>22</v>
       </c>
-      <c r="K4" t="s">
-        <v>20</v>
-      </c>
-      <c r="L4" t="s">
-        <v>20</v>
-      </c>
-      <c r="M4" t="s">
-        <v>14</v>
+      <c r="K4" s="1">
+        <v>1</v>
+      </c>
+      <c r="L4" s="1">
+        <v>1</v>
+      </c>
+      <c r="M4" s="1">
+        <v>0</v>
       </c>
       <c r="N4" t="s">
         <v>19</v>
@@ -1228,7 +1227,7 @@
       <c r="C5" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="1">
+      <c r="D5">
         <v>0</v>
       </c>
       <c r="E5" t="s">
@@ -1249,14 +1248,14 @@
       <c r="J5" t="s">
         <v>14</v>
       </c>
-      <c r="K5" t="s">
-        <v>14</v>
-      </c>
-      <c r="L5" t="s">
-        <v>14</v>
-      </c>
-      <c r="M5" t="s">
-        <v>14</v>
+      <c r="K5" s="1">
+        <v>0</v>
+      </c>
+      <c r="L5" s="1">
+        <v>0</v>
+      </c>
+      <c r="M5" s="1">
+        <v>0</v>
       </c>
       <c r="N5" t="s">
         <v>14</v>
@@ -1272,7 +1271,7 @@
       <c r="C6" t="s">
         <v>30</v>
       </c>
-      <c r="D6" s="1">
+      <c r="D6">
         <v>48</v>
       </c>
       <c r="E6" t="s">
@@ -1293,14 +1292,14 @@
       <c r="J6" t="s">
         <v>29</v>
       </c>
-      <c r="K6" t="s">
-        <v>30</v>
-      </c>
-      <c r="L6" t="s">
-        <v>14</v>
-      </c>
-      <c r="M6" t="s">
-        <v>14</v>
+      <c r="K6" s="1">
+        <v>5</v>
+      </c>
+      <c r="L6" s="1">
+        <v>0</v>
+      </c>
+      <c r="M6" s="1">
+        <v>0</v>
       </c>
       <c r="N6" t="s">
         <v>30</v>
@@ -1316,7 +1315,7 @@
       <c r="C7" t="s">
         <v>14</v>
       </c>
-      <c r="D7" s="1">
+      <c r="D7">
         <v>14</v>
       </c>
       <c r="E7" t="s">
@@ -1337,14 +1336,14 @@
       <c r="J7" t="s">
         <v>16</v>
       </c>
-      <c r="K7" t="s">
-        <v>14</v>
-      </c>
-      <c r="L7" t="s">
-        <v>14</v>
-      </c>
-      <c r="M7" t="s">
-        <v>14</v>
+      <c r="K7" s="1">
+        <v>0</v>
+      </c>
+      <c r="L7" s="1">
+        <v>0</v>
+      </c>
+      <c r="M7" s="1">
+        <v>0</v>
       </c>
       <c r="N7" t="s">
         <v>14</v>
@@ -1360,7 +1359,7 @@
       <c r="C8" t="s">
         <v>14</v>
       </c>
-      <c r="D8" s="1">
+      <c r="D8">
         <v>11</v>
       </c>
       <c r="E8" t="s">
@@ -1381,14 +1380,14 @@
       <c r="J8" t="s">
         <v>24</v>
       </c>
-      <c r="K8" t="s">
-        <v>14</v>
-      </c>
-      <c r="L8" t="s">
-        <v>14</v>
-      </c>
-      <c r="M8" t="s">
-        <v>14</v>
+      <c r="K8" s="1">
+        <v>0</v>
+      </c>
+      <c r="L8" s="1">
+        <v>0</v>
+      </c>
+      <c r="M8" s="1">
+        <v>0</v>
       </c>
       <c r="N8" t="s">
         <v>14</v>
@@ -1404,7 +1403,7 @@
       <c r="C9" t="s">
         <v>14</v>
       </c>
-      <c r="D9" s="1">
+      <c r="D9">
         <v>4</v>
       </c>
       <c r="E9" t="s">
@@ -1425,14 +1424,14 @@
       <c r="J9" t="s">
         <v>36</v>
       </c>
-      <c r="K9" t="s">
-        <v>14</v>
-      </c>
-      <c r="L9" t="s">
-        <v>14</v>
-      </c>
-      <c r="M9" t="s">
-        <v>14</v>
+      <c r="K9" s="1">
+        <v>0</v>
+      </c>
+      <c r="L9" s="1">
+        <v>0</v>
+      </c>
+      <c r="M9" s="1">
+        <v>0</v>
       </c>
       <c r="N9" t="s">
         <v>14</v>
@@ -1448,7 +1447,7 @@
       <c r="C10" t="s">
         <v>14</v>
       </c>
-      <c r="D10" s="1">
+      <c r="D10">
         <v>4</v>
       </c>
       <c r="E10" t="s">
@@ -1469,14 +1468,14 @@
       <c r="J10" t="s">
         <v>36</v>
       </c>
-      <c r="K10" t="s">
-        <v>14</v>
-      </c>
-      <c r="L10" t="s">
-        <v>14</v>
-      </c>
-      <c r="M10" t="s">
-        <v>14</v>
+      <c r="K10" s="1">
+        <v>0</v>
+      </c>
+      <c r="L10" s="1">
+        <v>0</v>
+      </c>
+      <c r="M10" s="1">
+        <v>0</v>
       </c>
       <c r="N10" t="s">
         <v>14</v>
@@ -1492,7 +1491,7 @@
       <c r="C11" t="s">
         <v>14</v>
       </c>
-      <c r="D11" s="1">
+      <c r="D11">
         <v>23</v>
       </c>
       <c r="E11" t="s">
@@ -1513,14 +1512,14 @@
       <c r="J11" t="s">
         <v>40</v>
       </c>
-      <c r="K11" t="s">
-        <v>14</v>
-      </c>
-      <c r="L11" t="s">
-        <v>14</v>
-      </c>
-      <c r="M11" t="s">
-        <v>14</v>
+      <c r="K11" s="1">
+        <v>0</v>
+      </c>
+      <c r="L11" s="1">
+        <v>0</v>
+      </c>
+      <c r="M11" s="1">
+        <v>0</v>
       </c>
       <c r="N11" t="s">
         <v>14</v>
@@ -1536,7 +1535,7 @@
       <c r="C12" t="s">
         <v>14</v>
       </c>
-      <c r="D12" s="1">
+      <c r="D12">
         <v>13</v>
       </c>
       <c r="E12" t="s">
@@ -1557,14 +1556,14 @@
       <c r="J12" t="s">
         <v>42</v>
       </c>
-      <c r="K12" t="s">
-        <v>14</v>
-      </c>
-      <c r="L12" t="s">
-        <v>14</v>
-      </c>
-      <c r="M12" t="s">
-        <v>14</v>
+      <c r="K12" s="1">
+        <v>0</v>
+      </c>
+      <c r="L12" s="1">
+        <v>0</v>
+      </c>
+      <c r="M12" s="1">
+        <v>0</v>
       </c>
       <c r="N12" t="s">
         <v>14</v>
@@ -1580,7 +1579,7 @@
       <c r="C13" t="s">
         <v>14</v>
       </c>
-      <c r="D13" s="1">
+      <c r="D13">
         <v>0</v>
       </c>
       <c r="E13" t="s">
@@ -1601,14 +1600,14 @@
       <c r="J13" t="s">
         <v>14</v>
       </c>
-      <c r="K13" t="s">
-        <v>14</v>
-      </c>
-      <c r="L13" t="s">
-        <v>14</v>
-      </c>
-      <c r="M13" t="s">
-        <v>14</v>
+      <c r="K13" s="1">
+        <v>0</v>
+      </c>
+      <c r="L13" s="1">
+        <v>0</v>
+      </c>
+      <c r="M13" s="1">
+        <v>0</v>
       </c>
       <c r="N13" t="s">
         <v>14</v>
@@ -1624,7 +1623,7 @@
       <c r="C14" t="s">
         <v>14</v>
       </c>
-      <c r="D14" s="1">
+      <c r="D14">
         <v>31</v>
       </c>
       <c r="E14" t="s">
@@ -1645,14 +1644,14 @@
       <c r="J14" t="s">
         <v>46</v>
       </c>
-      <c r="K14" t="s">
-        <v>14</v>
-      </c>
-      <c r="L14" t="s">
-        <v>14</v>
-      </c>
-      <c r="M14" t="s">
-        <v>14</v>
+      <c r="K14" s="1">
+        <v>0</v>
+      </c>
+      <c r="L14" s="1">
+        <v>0</v>
+      </c>
+      <c r="M14" s="1">
+        <v>0</v>
       </c>
       <c r="N14" t="s">
         <v>14</v>
@@ -1668,7 +1667,7 @@
       <c r="C15" t="s">
         <v>14</v>
       </c>
-      <c r="D15" s="1">
+      <c r="D15">
         <v>34</v>
       </c>
       <c r="E15" t="s">
@@ -1689,14 +1688,14 @@
       <c r="J15" t="s">
         <v>49</v>
       </c>
-      <c r="K15" t="s">
-        <v>14</v>
-      </c>
-      <c r="L15" t="s">
-        <v>14</v>
-      </c>
-      <c r="M15" t="s">
-        <v>14</v>
+      <c r="K15" s="1">
+        <v>0</v>
+      </c>
+      <c r="L15" s="1">
+        <v>0</v>
+      </c>
+      <c r="M15" s="1">
+        <v>0</v>
       </c>
       <c r="N15" t="s">
         <v>14</v>
@@ -1712,7 +1711,7 @@
       <c r="C16" t="s">
         <v>14</v>
       </c>
-      <c r="D16" s="1">
+      <c r="D16">
         <v>0</v>
       </c>
       <c r="E16" t="s">
@@ -1733,14 +1732,14 @@
       <c r="J16" t="s">
         <v>14</v>
       </c>
-      <c r="K16" t="s">
-        <v>14</v>
-      </c>
-      <c r="L16" t="s">
-        <v>14</v>
-      </c>
-      <c r="M16" t="s">
-        <v>14</v>
+      <c r="K16" s="1">
+        <v>0</v>
+      </c>
+      <c r="L16" s="1">
+        <v>0</v>
+      </c>
+      <c r="M16" s="1">
+        <v>0</v>
       </c>
       <c r="N16" t="s">
         <v>14</v>
@@ -1756,7 +1755,7 @@
       <c r="C17" t="s">
         <v>14</v>
       </c>
-      <c r="D17" s="1">
+      <c r="D17">
         <v>2</v>
       </c>
       <c r="E17" t="s">
@@ -1777,14 +1776,14 @@
       <c r="J17" t="s">
         <v>19</v>
       </c>
-      <c r="K17" t="s">
-        <v>14</v>
-      </c>
-      <c r="L17" t="s">
-        <v>14</v>
-      </c>
-      <c r="M17" t="s">
-        <v>14</v>
+      <c r="K17" s="1">
+        <v>0</v>
+      </c>
+      <c r="L17" s="1">
+        <v>0</v>
+      </c>
+      <c r="M17" s="1">
+        <v>0</v>
       </c>
       <c r="N17" t="s">
         <v>14</v>
@@ -1800,7 +1799,7 @@
       <c r="C18" t="s">
         <v>14</v>
       </c>
-      <c r="D18" s="1">
+      <c r="D18">
         <v>0</v>
       </c>
       <c r="E18" t="s">
@@ -1821,14 +1820,14 @@
       <c r="J18" t="s">
         <v>14</v>
       </c>
-      <c r="K18" t="s">
-        <v>14</v>
-      </c>
-      <c r="L18" t="s">
-        <v>14</v>
-      </c>
-      <c r="M18" t="s">
-        <v>14</v>
+      <c r="K18" s="1">
+        <v>0</v>
+      </c>
+      <c r="L18" s="1">
+        <v>0</v>
+      </c>
+      <c r="M18" s="1">
+        <v>0</v>
       </c>
       <c r="N18" t="s">
         <v>14</v>
@@ -1844,7 +1843,7 @@
       <c r="C19" t="s">
         <v>14</v>
       </c>
-      <c r="D19" s="1">
+      <c r="D19">
         <v>0</v>
       </c>
       <c r="E19" t="s">
@@ -1865,14 +1864,14 @@
       <c r="J19" t="s">
         <v>14</v>
       </c>
-      <c r="K19" t="s">
-        <v>14</v>
-      </c>
-      <c r="L19" t="s">
-        <v>14</v>
-      </c>
-      <c r="M19" t="s">
-        <v>14</v>
+      <c r="K19" s="1">
+        <v>0</v>
+      </c>
+      <c r="L19" s="1">
+        <v>0</v>
+      </c>
+      <c r="M19" s="1">
+        <v>0</v>
       </c>
       <c r="N19" t="s">
         <v>14</v>
@@ -1888,7 +1887,7 @@
       <c r="C20" t="s">
         <v>14</v>
       </c>
-      <c r="D20" s="1">
+      <c r="D20">
         <v>1</v>
       </c>
       <c r="E20" t="s">
@@ -1909,14 +1908,14 @@
       <c r="J20" t="s">
         <v>20</v>
       </c>
-      <c r="K20" t="s">
-        <v>14</v>
-      </c>
-      <c r="L20" t="s">
-        <v>14</v>
-      </c>
-      <c r="M20" t="s">
-        <v>14</v>
+      <c r="K20" s="1">
+        <v>0</v>
+      </c>
+      <c r="L20" s="1">
+        <v>0</v>
+      </c>
+      <c r="M20" s="1">
+        <v>0</v>
       </c>
       <c r="N20" t="s">
         <v>14</v>
@@ -1932,7 +1931,7 @@
       <c r="C21" t="s">
         <v>14</v>
       </c>
-      <c r="D21" s="1">
+      <c r="D21">
         <v>51</v>
       </c>
       <c r="E21" t="s">
@@ -1953,14 +1952,14 @@
       <c r="J21" t="s">
         <v>56</v>
       </c>
-      <c r="K21" t="s">
-        <v>14</v>
-      </c>
-      <c r="L21" t="s">
-        <v>14</v>
-      </c>
-      <c r="M21" t="s">
-        <v>14</v>
+      <c r="K21" s="1">
+        <v>0</v>
+      </c>
+      <c r="L21" s="1">
+        <v>0</v>
+      </c>
+      <c r="M21" s="1">
+        <v>0</v>
       </c>
       <c r="N21" t="s">
         <v>14</v>
@@ -1976,7 +1975,7 @@
       <c r="C22" t="s">
         <v>14</v>
       </c>
-      <c r="D22" s="1">
+      <c r="D22">
         <v>4</v>
       </c>
       <c r="E22" t="s">
@@ -1997,14 +1996,14 @@
       <c r="J22" t="s">
         <v>36</v>
       </c>
-      <c r="K22" t="s">
-        <v>14</v>
-      </c>
-      <c r="L22" t="s">
-        <v>14</v>
-      </c>
-      <c r="M22" t="s">
-        <v>14</v>
+      <c r="K22" s="1">
+        <v>0</v>
+      </c>
+      <c r="L22" s="1">
+        <v>0</v>
+      </c>
+      <c r="M22" s="1">
+        <v>0</v>
       </c>
       <c r="N22" t="s">
         <v>14</v>
@@ -2020,7 +2019,7 @@
       <c r="C23" t="s">
         <v>14</v>
       </c>
-      <c r="D23" s="1">
+      <c r="D23">
         <v>0</v>
       </c>
       <c r="E23" t="s">
@@ -2041,14 +2040,14 @@
       <c r="J23" t="s">
         <v>14</v>
       </c>
-      <c r="K23" t="s">
-        <v>14</v>
-      </c>
-      <c r="L23" t="s">
-        <v>14</v>
-      </c>
-      <c r="M23" t="s">
-        <v>14</v>
+      <c r="K23" s="1">
+        <v>0</v>
+      </c>
+      <c r="L23" s="1">
+        <v>0</v>
+      </c>
+      <c r="M23" s="1">
+        <v>0</v>
       </c>
       <c r="N23" t="s">
         <v>14</v>
@@ -2064,7 +2063,7 @@
       <c r="C24" t="s">
         <v>14</v>
       </c>
-      <c r="D24" s="1">
+      <c r="D24">
         <v>20</v>
       </c>
       <c r="E24" t="s">
@@ -2085,14 +2084,14 @@
       <c r="J24" t="s">
         <v>62</v>
       </c>
-      <c r="K24" t="s">
-        <v>14</v>
-      </c>
-      <c r="L24" t="s">
-        <v>14</v>
-      </c>
-      <c r="M24" t="s">
-        <v>14</v>
+      <c r="K24" s="1">
+        <v>0</v>
+      </c>
+      <c r="L24" s="1">
+        <v>0</v>
+      </c>
+      <c r="M24" s="1">
+        <v>0</v>
       </c>
       <c r="N24" t="s">
         <v>14</v>
@@ -2108,7 +2107,7 @@
       <c r="C25" t="s">
         <v>14</v>
       </c>
-      <c r="D25" s="1">
+      <c r="D25">
         <v>0</v>
       </c>
       <c r="E25" t="s">
@@ -2129,14 +2128,14 @@
       <c r="J25" t="s">
         <v>14</v>
       </c>
-      <c r="K25" t="s">
-        <v>14</v>
-      </c>
-      <c r="L25" t="s">
-        <v>14</v>
-      </c>
-      <c r="M25" t="s">
-        <v>14</v>
+      <c r="K25" s="1">
+        <v>0</v>
+      </c>
+      <c r="L25" s="1">
+        <v>0</v>
+      </c>
+      <c r="M25" s="1">
+        <v>0</v>
       </c>
       <c r="N25" t="s">
         <v>14</v>
@@ -2152,7 +2151,7 @@
       <c r="C26" t="s">
         <v>14</v>
       </c>
-      <c r="D26" s="1">
+      <c r="D26">
         <v>0</v>
       </c>
       <c r="E26" t="s">
@@ -2173,14 +2172,14 @@
       <c r="J26" t="s">
         <v>14</v>
       </c>
-      <c r="K26" t="s">
-        <v>14</v>
-      </c>
-      <c r="L26" t="s">
-        <v>14</v>
-      </c>
-      <c r="M26" t="s">
-        <v>14</v>
+      <c r="K26" s="1">
+        <v>0</v>
+      </c>
+      <c r="L26" s="1">
+        <v>0</v>
+      </c>
+      <c r="M26" s="1">
+        <v>0</v>
       </c>
       <c r="N26" t="s">
         <v>14</v>
@@ -2196,7 +2195,7 @@
       <c r="C27" t="s">
         <v>14</v>
       </c>
-      <c r="D27" s="1">
+      <c r="D27">
         <v>0</v>
       </c>
       <c r="E27" t="s">
@@ -2217,14 +2216,14 @@
       <c r="J27" t="s">
         <v>14</v>
       </c>
-      <c r="K27" t="s">
-        <v>14</v>
-      </c>
-      <c r="L27" t="s">
-        <v>14</v>
-      </c>
-      <c r="M27" t="s">
-        <v>14</v>
+      <c r="K27" s="1">
+        <v>0</v>
+      </c>
+      <c r="L27" s="1">
+        <v>0</v>
+      </c>
+      <c r="M27" s="1">
+        <v>0</v>
       </c>
       <c r="N27" t="s">
         <v>14</v>
@@ -2240,7 +2239,7 @@
       <c r="C28" t="s">
         <v>14</v>
       </c>
-      <c r="D28" s="1">
+      <c r="D28">
         <v>1</v>
       </c>
       <c r="E28" t="s">
@@ -2261,14 +2260,14 @@
       <c r="J28" t="s">
         <v>20</v>
       </c>
-      <c r="K28" t="s">
-        <v>14</v>
-      </c>
-      <c r="L28" t="s">
-        <v>14</v>
-      </c>
-      <c r="M28" t="s">
-        <v>14</v>
+      <c r="K28" s="1">
+        <v>0</v>
+      </c>
+      <c r="L28" s="1">
+        <v>0</v>
+      </c>
+      <c r="M28" s="1">
+        <v>0</v>
       </c>
       <c r="N28" t="s">
         <v>14</v>
@@ -2284,7 +2283,7 @@
       <c r="C29" t="s">
         <v>14</v>
       </c>
-      <c r="D29" s="1">
+      <c r="D29">
         <v>0</v>
       </c>
       <c r="E29" t="s">
@@ -2305,14 +2304,14 @@
       <c r="J29" t="s">
         <v>14</v>
       </c>
-      <c r="K29" t="s">
-        <v>14</v>
-      </c>
-      <c r="L29" t="s">
-        <v>14</v>
-      </c>
-      <c r="M29" t="s">
-        <v>14</v>
+      <c r="K29" s="1">
+        <v>0</v>
+      </c>
+      <c r="L29" s="1">
+        <v>0</v>
+      </c>
+      <c r="M29" s="1">
+        <v>0</v>
       </c>
       <c r="N29" t="s">
         <v>14</v>
@@ -2328,7 +2327,7 @@
       <c r="C30" t="s">
         <v>14</v>
       </c>
-      <c r="D30" s="1">
+      <c r="D30">
         <v>0</v>
       </c>
       <c r="E30" t="s">
@@ -2349,14 +2348,14 @@
       <c r="J30" t="s">
         <v>14</v>
       </c>
-      <c r="K30" t="s">
-        <v>14</v>
-      </c>
-      <c r="L30" t="s">
-        <v>14</v>
-      </c>
-      <c r="M30" t="s">
-        <v>14</v>
+      <c r="K30" s="1">
+        <v>0</v>
+      </c>
+      <c r="L30" s="1">
+        <v>0</v>
+      </c>
+      <c r="M30" s="1">
+        <v>0</v>
       </c>
       <c r="N30" t="s">
         <v>14</v>
@@ -2372,7 +2371,7 @@
       <c r="C31" t="s">
         <v>14</v>
       </c>
-      <c r="D31" s="1">
+      <c r="D31">
         <v>22</v>
       </c>
       <c r="E31" t="s">
@@ -2393,14 +2392,14 @@
       <c r="J31" t="s">
         <v>71</v>
       </c>
-      <c r="K31" t="s">
-        <v>14</v>
-      </c>
-      <c r="L31" t="s">
-        <v>14</v>
-      </c>
-      <c r="M31" t="s">
-        <v>14</v>
+      <c r="K31" s="1">
+        <v>0</v>
+      </c>
+      <c r="L31" s="1">
+        <v>0</v>
+      </c>
+      <c r="M31" s="1">
+        <v>0</v>
       </c>
       <c r="N31" t="s">
         <v>14</v>
@@ -2416,7 +2415,7 @@
       <c r="C32" t="s">
         <v>14</v>
       </c>
-      <c r="D32" s="1">
+      <c r="D32">
         <v>0</v>
       </c>
       <c r="E32" t="s">
@@ -2437,14 +2436,14 @@
       <c r="J32" t="s">
         <v>14</v>
       </c>
-      <c r="K32" t="s">
-        <v>14</v>
-      </c>
-      <c r="L32" t="s">
-        <v>14</v>
-      </c>
-      <c r="M32" t="s">
-        <v>14</v>
+      <c r="K32" s="1">
+        <v>0</v>
+      </c>
+      <c r="L32" s="1">
+        <v>0</v>
+      </c>
+      <c r="M32" s="1">
+        <v>0</v>
       </c>
       <c r="N32" t="s">
         <v>14</v>
@@ -2460,7 +2459,7 @@
       <c r="C33" t="s">
         <v>14</v>
       </c>
-      <c r="D33" s="1">
+      <c r="D33">
         <v>0</v>
       </c>
       <c r="E33" t="s">
@@ -2481,14 +2480,14 @@
       <c r="J33" t="s">
         <v>14</v>
       </c>
-      <c r="K33" t="s">
-        <v>14</v>
-      </c>
-      <c r="L33" t="s">
-        <v>14</v>
-      </c>
-      <c r="M33" t="s">
-        <v>14</v>
+      <c r="K33" s="1">
+        <v>0</v>
+      </c>
+      <c r="L33" s="1">
+        <v>0</v>
+      </c>
+      <c r="M33" s="1">
+        <v>0</v>
       </c>
       <c r="N33" t="s">
         <v>14</v>
@@ -2504,7 +2503,7 @@
       <c r="C34" t="s">
         <v>14</v>
       </c>
-      <c r="D34" s="1">
+      <c r="D34">
         <v>0</v>
       </c>
       <c r="E34" t="s">
@@ -2525,14 +2524,14 @@
       <c r="J34" t="s">
         <v>14</v>
       </c>
-      <c r="K34" t="s">
-        <v>14</v>
-      </c>
-      <c r="L34" t="s">
-        <v>14</v>
-      </c>
-      <c r="M34" t="s">
-        <v>14</v>
+      <c r="K34" s="1">
+        <v>0</v>
+      </c>
+      <c r="L34" s="1">
+        <v>0</v>
+      </c>
+      <c r="M34" s="1">
+        <v>0</v>
       </c>
       <c r="N34" t="s">
         <v>14</v>
@@ -2548,7 +2547,7 @@
       <c r="C35" t="s">
         <v>14</v>
       </c>
-      <c r="D35" s="1">
+      <c r="D35">
         <v>14</v>
       </c>
       <c r="E35" t="s">
@@ -2569,14 +2568,14 @@
       <c r="J35" t="s">
         <v>16</v>
       </c>
-      <c r="K35" t="s">
-        <v>14</v>
-      </c>
-      <c r="L35" t="s">
-        <v>14</v>
-      </c>
-      <c r="M35" t="s">
-        <v>14</v>
+      <c r="K35" s="1">
+        <v>0</v>
+      </c>
+      <c r="L35" s="1">
+        <v>0</v>
+      </c>
+      <c r="M35" s="1">
+        <v>0</v>
       </c>
       <c r="N35" t="s">
         <v>14</v>
@@ -2592,7 +2591,7 @@
       <c r="C36" t="s">
         <v>14</v>
       </c>
-      <c r="D36" s="1">
+      <c r="D36">
         <v>10</v>
       </c>
       <c r="E36" t="s">
@@ -2613,14 +2612,14 @@
       <c r="J36" t="s">
         <v>43</v>
       </c>
-      <c r="K36" t="s">
-        <v>14</v>
-      </c>
-      <c r="L36" t="s">
-        <v>14</v>
-      </c>
-      <c r="M36" t="s">
-        <v>14</v>
+      <c r="K36" s="1">
+        <v>0</v>
+      </c>
+      <c r="L36" s="1">
+        <v>0</v>
+      </c>
+      <c r="M36" s="1">
+        <v>0</v>
       </c>
       <c r="N36" t="s">
         <v>14</v>
@@ -2636,7 +2635,7 @@
       <c r="C37" t="s">
         <v>20</v>
       </c>
-      <c r="D37" s="1">
+      <c r="D37">
         <v>31</v>
       </c>
       <c r="E37" t="s">
@@ -2657,14 +2656,14 @@
       <c r="J37" t="s">
         <v>22</v>
       </c>
-      <c r="K37" t="s">
-        <v>14</v>
-      </c>
-      <c r="L37" t="s">
-        <v>20</v>
-      </c>
-      <c r="M37" t="s">
-        <v>14</v>
+      <c r="K37" s="1">
+        <v>0</v>
+      </c>
+      <c r="L37" s="1">
+        <v>1</v>
+      </c>
+      <c r="M37" s="1">
+        <v>0</v>
       </c>
       <c r="N37" t="s">
         <v>20</v>
@@ -2680,7 +2679,7 @@
       <c r="C38" t="s">
         <v>14</v>
       </c>
-      <c r="D38" s="1">
+      <c r="D38">
         <v>2</v>
       </c>
       <c r="E38" t="s">
@@ -2701,14 +2700,14 @@
       <c r="J38" t="s">
         <v>19</v>
       </c>
-      <c r="K38" t="s">
-        <v>14</v>
-      </c>
-      <c r="L38" t="s">
-        <v>14</v>
-      </c>
-      <c r="M38" t="s">
-        <v>14</v>
+      <c r="K38" s="1">
+        <v>0</v>
+      </c>
+      <c r="L38" s="1">
+        <v>0</v>
+      </c>
+      <c r="M38" s="1">
+        <v>0</v>
       </c>
       <c r="N38" t="s">
         <v>14</v>
@@ -2768,7 +2767,7 @@
       <c r="C40" t="s">
         <v>14</v>
       </c>
-      <c r="D40" s="1">
+      <c r="D40">
         <v>3</v>
       </c>
       <c r="E40" t="s">
@@ -2789,14 +2788,14 @@
       <c r="J40" t="s">
         <v>25</v>
       </c>
-      <c r="K40" t="s">
-        <v>14</v>
-      </c>
-      <c r="L40" t="s">
-        <v>14</v>
-      </c>
-      <c r="M40" t="s">
-        <v>14</v>
+      <c r="K40" s="1">
+        <v>0</v>
+      </c>
+      <c r="L40" s="1">
+        <v>0</v>
+      </c>
+      <c r="M40" s="1">
+        <v>0</v>
       </c>
       <c r="N40" t="s">
         <v>14</v>
@@ -2812,7 +2811,7 @@
       <c r="C41" t="s">
         <v>14</v>
       </c>
-      <c r="D41" s="1">
+      <c r="D41">
         <v>0</v>
       </c>
       <c r="E41" t="s">
@@ -2833,14 +2832,14 @@
       <c r="J41" t="s">
         <v>14</v>
       </c>
-      <c r="K41" t="s">
-        <v>14</v>
-      </c>
-      <c r="L41" t="s">
-        <v>14</v>
-      </c>
-      <c r="M41" t="s">
-        <v>14</v>
+      <c r="K41" s="1">
+        <v>0</v>
+      </c>
+      <c r="L41" s="1">
+        <v>0</v>
+      </c>
+      <c r="M41" s="1">
+        <v>0</v>
       </c>
       <c r="N41" t="s">
         <v>14</v>
@@ -2856,7 +2855,7 @@
       <c r="C42" t="s">
         <v>19</v>
       </c>
-      <c r="D42" s="1">
+      <c r="D42">
         <v>10</v>
       </c>
       <c r="E42" t="s">
@@ -2877,14 +2876,14 @@
       <c r="J42" t="s">
         <v>47</v>
       </c>
-      <c r="K42" t="s">
-        <v>19</v>
-      </c>
-      <c r="L42" t="s">
-        <v>14</v>
-      </c>
-      <c r="M42" t="s">
-        <v>14</v>
+      <c r="K42" s="1">
+        <v>2</v>
+      </c>
+      <c r="L42" s="1">
+        <v>0</v>
+      </c>
+      <c r="M42" s="1">
+        <v>0</v>
       </c>
       <c r="N42" t="s">
         <v>19</v>
@@ -2900,7 +2899,7 @@
       <c r="C43" t="s">
         <v>14</v>
       </c>
-      <c r="D43" s="1">
+      <c r="D43">
         <v>1</v>
       </c>
       <c r="E43" t="s">
@@ -2921,14 +2920,14 @@
       <c r="J43" t="s">
         <v>20</v>
       </c>
-      <c r="K43" t="s">
-        <v>14</v>
-      </c>
-      <c r="L43" t="s">
-        <v>14</v>
-      </c>
-      <c r="M43" t="s">
-        <v>14</v>
+      <c r="K43" s="1">
+        <v>0</v>
+      </c>
+      <c r="L43" s="1">
+        <v>0</v>
+      </c>
+      <c r="M43" s="1">
+        <v>0</v>
       </c>
       <c r="N43" t="s">
         <v>14</v>
@@ -2944,7 +2943,7 @@
       <c r="C44" t="s">
         <v>14</v>
       </c>
-      <c r="D44" s="1">
+      <c r="D44">
         <v>9</v>
       </c>
       <c r="E44" t="s">
@@ -2965,14 +2964,14 @@
       <c r="J44" t="s">
         <v>32</v>
       </c>
-      <c r="K44" t="s">
-        <v>14</v>
-      </c>
-      <c r="L44" t="s">
-        <v>14</v>
-      </c>
-      <c r="M44" t="s">
-        <v>14</v>
+      <c r="K44" s="1">
+        <v>0</v>
+      </c>
+      <c r="L44" s="1">
+        <v>0</v>
+      </c>
+      <c r="M44" s="1">
+        <v>0</v>
       </c>
       <c r="N44" t="s">
         <v>14</v>
@@ -2988,7 +2987,7 @@
       <c r="C45" t="s">
         <v>14</v>
       </c>
-      <c r="D45" s="1">
+      <c r="D45">
         <v>4</v>
       </c>
       <c r="E45" t="s">
@@ -3009,14 +3008,14 @@
       <c r="J45" t="s">
         <v>36</v>
       </c>
-      <c r="K45" t="s">
-        <v>14</v>
-      </c>
-      <c r="L45" t="s">
-        <v>14</v>
-      </c>
-      <c r="M45" t="s">
-        <v>14</v>
+      <c r="K45" s="1">
+        <v>0</v>
+      </c>
+      <c r="L45" s="1">
+        <v>0</v>
+      </c>
+      <c r="M45" s="1">
+        <v>0</v>
       </c>
       <c r="N45" t="s">
         <v>14</v>
@@ -3032,7 +3031,7 @@
       <c r="C46" t="s">
         <v>14</v>
       </c>
-      <c r="D46" s="1">
+      <c r="D46">
         <v>0</v>
       </c>
       <c r="E46" t="s">
@@ -3053,14 +3052,14 @@
       <c r="J46" t="s">
         <v>14</v>
       </c>
-      <c r="K46" t="s">
-        <v>14</v>
-      </c>
-      <c r="L46" t="s">
-        <v>14</v>
-      </c>
-      <c r="M46" t="s">
-        <v>14</v>
+      <c r="K46" s="1">
+        <v>0</v>
+      </c>
+      <c r="L46" s="1">
+        <v>0</v>
+      </c>
+      <c r="M46" s="1">
+        <v>0</v>
       </c>
       <c r="N46" t="s">
         <v>14</v>
@@ -3076,7 +3075,7 @@
       <c r="C47" t="s">
         <v>14</v>
       </c>
-      <c r="D47" s="1">
+      <c r="D47">
         <v>74</v>
       </c>
       <c r="E47" t="s">
@@ -3097,14 +3096,14 @@
       <c r="J47" t="s">
         <v>91</v>
       </c>
-      <c r="K47" t="s">
-        <v>14</v>
-      </c>
-      <c r="L47" t="s">
-        <v>14</v>
-      </c>
-      <c r="M47" t="s">
-        <v>14</v>
+      <c r="K47" s="1">
+        <v>0</v>
+      </c>
+      <c r="L47" s="1">
+        <v>0</v>
+      </c>
+      <c r="M47" s="1">
+        <v>0</v>
       </c>
       <c r="N47" t="s">
         <v>14</v>
@@ -3120,7 +3119,7 @@
       <c r="C48" t="s">
         <v>14</v>
       </c>
-      <c r="D48" s="1">
+      <c r="D48">
         <v>37</v>
       </c>
       <c r="E48" t="s">
@@ -3141,14 +3140,14 @@
       <c r="J48" t="s">
         <v>93</v>
       </c>
-      <c r="K48" t="s">
-        <v>14</v>
-      </c>
-      <c r="L48" t="s">
-        <v>14</v>
-      </c>
-      <c r="M48" t="s">
-        <v>14</v>
+      <c r="K48" s="1">
+        <v>0</v>
+      </c>
+      <c r="L48" s="1">
+        <v>0</v>
+      </c>
+      <c r="M48" s="1">
+        <v>0</v>
       </c>
       <c r="N48" t="s">
         <v>14</v>
@@ -3164,7 +3163,7 @@
       <c r="C49" t="s">
         <v>14</v>
       </c>
-      <c r="D49" s="1">
+      <c r="D49">
         <v>0</v>
       </c>
       <c r="E49" t="s">
@@ -3185,14 +3184,14 @@
       <c r="J49" t="s">
         <v>14</v>
       </c>
-      <c r="K49" t="s">
-        <v>14</v>
-      </c>
-      <c r="L49" t="s">
-        <v>14</v>
-      </c>
-      <c r="M49" t="s">
-        <v>14</v>
+      <c r="K49" s="1">
+        <v>0</v>
+      </c>
+      <c r="L49" s="1">
+        <v>0</v>
+      </c>
+      <c r="M49" s="1">
+        <v>0</v>
       </c>
       <c r="N49" t="s">
         <v>14</v>
@@ -3208,7 +3207,7 @@
       <c r="C50" t="s">
         <v>14</v>
       </c>
-      <c r="D50" s="1">
+      <c r="D50">
         <v>0</v>
       </c>
       <c r="E50" t="s">
@@ -3229,14 +3228,14 @@
       <c r="J50" t="s">
         <v>14</v>
       </c>
-      <c r="K50" t="s">
-        <v>14</v>
-      </c>
-      <c r="L50" t="s">
-        <v>14</v>
-      </c>
-      <c r="M50" t="s">
-        <v>14</v>
+      <c r="K50" s="1">
+        <v>0</v>
+      </c>
+      <c r="L50" s="1">
+        <v>0</v>
+      </c>
+      <c r="M50" s="1">
+        <v>0</v>
       </c>
       <c r="N50" t="s">
         <v>14</v>
@@ -3252,7 +3251,7 @@
       <c r="C51" t="s">
         <v>14</v>
       </c>
-      <c r="D51" s="1">
+      <c r="D51">
         <v>0</v>
       </c>
       <c r="E51" t="s">
@@ -3273,14 +3272,14 @@
       <c r="J51" t="s">
         <v>14</v>
       </c>
-      <c r="K51" t="s">
-        <v>14</v>
-      </c>
-      <c r="L51" t="s">
-        <v>14</v>
-      </c>
-      <c r="M51" t="s">
-        <v>14</v>
+      <c r="K51" s="1">
+        <v>0</v>
+      </c>
+      <c r="L51" s="1">
+        <v>0</v>
+      </c>
+      <c r="M51" s="1">
+        <v>0</v>
       </c>
       <c r="N51" t="s">
         <v>14</v>
@@ -3296,7 +3295,7 @@
       <c r="C52" t="s">
         <v>14</v>
       </c>
-      <c r="D52" s="1">
+      <c r="D52">
         <v>0</v>
       </c>
       <c r="E52" t="s">
@@ -3317,14 +3316,14 @@
       <c r="J52" t="s">
         <v>14</v>
       </c>
-      <c r="K52" t="s">
-        <v>14</v>
-      </c>
-      <c r="L52" t="s">
-        <v>14</v>
-      </c>
-      <c r="M52" t="s">
-        <v>14</v>
+      <c r="K52" s="1">
+        <v>0</v>
+      </c>
+      <c r="L52" s="1">
+        <v>0</v>
+      </c>
+      <c r="M52" s="1">
+        <v>0</v>
       </c>
       <c r="N52" t="s">
         <v>14</v>
@@ -3340,7 +3339,7 @@
       <c r="C53" t="s">
         <v>14</v>
       </c>
-      <c r="D53" s="1">
+      <c r="D53">
         <v>5</v>
       </c>
       <c r="E53" t="s">
@@ -3361,14 +3360,14 @@
       <c r="J53" t="s">
         <v>30</v>
       </c>
-      <c r="K53" t="s">
-        <v>14</v>
-      </c>
-      <c r="L53" t="s">
-        <v>14</v>
-      </c>
-      <c r="M53" t="s">
-        <v>14</v>
+      <c r="K53" s="1">
+        <v>0</v>
+      </c>
+      <c r="L53" s="1">
+        <v>0</v>
+      </c>
+      <c r="M53" s="1">
+        <v>0</v>
       </c>
       <c r="N53" t="s">
         <v>14</v>
@@ -3384,7 +3383,7 @@
       <c r="C54" t="s">
         <v>14</v>
       </c>
-      <c r="D54" s="1">
+      <c r="D54">
         <v>20</v>
       </c>
       <c r="E54" t="s">
@@ -3405,14 +3404,14 @@
       <c r="J54" t="s">
         <v>62</v>
       </c>
-      <c r="K54" t="s">
-        <v>14</v>
-      </c>
-      <c r="L54" t="s">
-        <v>14</v>
-      </c>
-      <c r="M54" t="s">
-        <v>14</v>
+      <c r="K54" s="1">
+        <v>0</v>
+      </c>
+      <c r="L54" s="1">
+        <v>0</v>
+      </c>
+      <c r="M54" s="1">
+        <v>0</v>
       </c>
       <c r="N54" t="s">
         <v>14</v>
@@ -3428,7 +3427,7 @@
       <c r="C55" t="s">
         <v>14</v>
       </c>
-      <c r="D55" s="1">
+      <c r="D55">
         <v>0</v>
       </c>
       <c r="E55" t="s">
@@ -3449,14 +3448,14 @@
       <c r="J55" t="s">
         <v>14</v>
       </c>
-      <c r="K55" t="s">
-        <v>14</v>
-      </c>
-      <c r="L55" t="s">
-        <v>14</v>
-      </c>
-      <c r="M55" t="s">
-        <v>14</v>
+      <c r="K55" s="1">
+        <v>0</v>
+      </c>
+      <c r="L55" s="1">
+        <v>0</v>
+      </c>
+      <c r="M55" s="1">
+        <v>0</v>
       </c>
       <c r="N55" t="s">
         <v>14</v>
@@ -3472,7 +3471,7 @@
       <c r="C56" t="s">
         <v>14</v>
       </c>
-      <c r="D56" s="1">
+      <c r="D56">
         <v>0</v>
       </c>
       <c r="E56" t="s">
@@ -3493,14 +3492,14 @@
       <c r="J56" t="s">
         <v>14</v>
       </c>
-      <c r="K56" t="s">
-        <v>14</v>
-      </c>
-      <c r="L56" t="s">
-        <v>14</v>
-      </c>
-      <c r="M56" t="s">
-        <v>14</v>
+      <c r="K56" s="1">
+        <v>0</v>
+      </c>
+      <c r="L56" s="1">
+        <v>0</v>
+      </c>
+      <c r="M56" s="1">
+        <v>0</v>
       </c>
       <c r="N56" t="s">
         <v>14</v>
@@ -3516,7 +3515,7 @@
       <c r="C57" t="s">
         <v>14</v>
       </c>
-      <c r="D57" s="1">
+      <c r="D57">
         <v>12</v>
       </c>
       <c r="E57" t="s">
@@ -3537,14 +3536,14 @@
       <c r="J57" t="s">
         <v>63</v>
       </c>
-      <c r="K57" t="s">
-        <v>14</v>
-      </c>
-      <c r="L57" t="s">
-        <v>14</v>
-      </c>
-      <c r="M57" t="s">
-        <v>14</v>
+      <c r="K57" s="1">
+        <v>0</v>
+      </c>
+      <c r="L57" s="1">
+        <v>0</v>
+      </c>
+      <c r="M57" s="1">
+        <v>0</v>
       </c>
       <c r="N57" t="s">
         <v>14</v>
@@ -3560,7 +3559,7 @@
       <c r="C58" t="s">
         <v>14</v>
       </c>
-      <c r="D58" s="1">
+      <c r="D58">
         <v>6</v>
       </c>
       <c r="E58" t="s">
@@ -3581,14 +3580,14 @@
       <c r="J58" t="s">
         <v>101</v>
       </c>
-      <c r="K58" t="s">
-        <v>14</v>
-      </c>
-      <c r="L58" t="s">
-        <v>14</v>
-      </c>
-      <c r="M58" t="s">
-        <v>14</v>
+      <c r="K58" s="1">
+        <v>0</v>
+      </c>
+      <c r="L58" s="1">
+        <v>0</v>
+      </c>
+      <c r="M58" s="1">
+        <v>0</v>
       </c>
       <c r="N58" t="s">
         <v>14</v>
@@ -3604,7 +3603,7 @@
       <c r="C59" t="s">
         <v>14</v>
       </c>
-      <c r="D59" s="1">
+      <c r="D59">
         <v>0</v>
       </c>
       <c r="E59" t="s">
@@ -3625,14 +3624,14 @@
       <c r="J59" t="s">
         <v>14</v>
       </c>
-      <c r="K59" t="s">
-        <v>14</v>
-      </c>
-      <c r="L59" t="s">
-        <v>14</v>
-      </c>
-      <c r="M59" t="s">
-        <v>14</v>
+      <c r="K59" s="1">
+        <v>0</v>
+      </c>
+      <c r="L59" s="1">
+        <v>0</v>
+      </c>
+      <c r="M59" s="1">
+        <v>0</v>
       </c>
       <c r="N59" t="s">
         <v>14</v>
@@ -3648,7 +3647,7 @@
       <c r="C60" t="s">
         <v>14</v>
       </c>
-      <c r="D60" s="1">
+      <c r="D60">
         <v>1</v>
       </c>
       <c r="E60" t="s">
@@ -3669,14 +3668,14 @@
       <c r="J60" t="s">
         <v>20</v>
       </c>
-      <c r="K60" t="s">
-        <v>14</v>
-      </c>
-      <c r="L60" t="s">
-        <v>14</v>
-      </c>
-      <c r="M60" t="s">
-        <v>14</v>
+      <c r="K60" s="1">
+        <v>0</v>
+      </c>
+      <c r="L60" s="1">
+        <v>0</v>
+      </c>
+      <c r="M60" s="1">
+        <v>0</v>
       </c>
       <c r="N60" t="s">
         <v>14</v>
@@ -3692,7 +3691,7 @@
       <c r="C61" t="s">
         <v>14</v>
       </c>
-      <c r="D61" s="1">
+      <c r="D61">
         <v>9</v>
       </c>
       <c r="E61" t="s">
@@ -3713,14 +3712,14 @@
       <c r="J61" t="s">
         <v>32</v>
       </c>
-      <c r="K61" t="s">
-        <v>14</v>
-      </c>
-      <c r="L61" t="s">
-        <v>14</v>
-      </c>
-      <c r="M61" t="s">
-        <v>14</v>
+      <c r="K61" s="1">
+        <v>0</v>
+      </c>
+      <c r="L61" s="1">
+        <v>0</v>
+      </c>
+      <c r="M61" s="1">
+        <v>0</v>
       </c>
       <c r="N61" t="s">
         <v>14</v>
@@ -3736,7 +3735,7 @@
       <c r="C62" t="s">
         <v>14</v>
       </c>
-      <c r="D62" s="1">
+      <c r="D62">
         <v>0</v>
       </c>
       <c r="E62" t="s">
@@ -3757,14 +3756,14 @@
       <c r="J62" t="s">
         <v>14</v>
       </c>
-      <c r="K62" t="s">
-        <v>14</v>
-      </c>
-      <c r="L62" t="s">
-        <v>14</v>
-      </c>
-      <c r="M62" t="s">
-        <v>14</v>
+      <c r="K62" s="1">
+        <v>0</v>
+      </c>
+      <c r="L62" s="1">
+        <v>0</v>
+      </c>
+      <c r="M62" s="1">
+        <v>0</v>
       </c>
       <c r="N62" t="s">
         <v>14</v>
@@ -3780,7 +3779,7 @@
       <c r="C63" t="s">
         <v>14</v>
       </c>
-      <c r="D63" s="1">
+      <c r="D63">
         <v>6</v>
       </c>
       <c r="E63" t="s">
@@ -3801,14 +3800,14 @@
       <c r="J63" t="s">
         <v>101</v>
       </c>
-      <c r="K63" t="s">
-        <v>14</v>
-      </c>
-      <c r="L63" t="s">
-        <v>14</v>
-      </c>
-      <c r="M63" t="s">
-        <v>14</v>
+      <c r="K63" s="1">
+        <v>0</v>
+      </c>
+      <c r="L63" s="1">
+        <v>0</v>
+      </c>
+      <c r="M63" s="1">
+        <v>0</v>
       </c>
       <c r="N63" t="s">
         <v>14</v>
@@ -3824,7 +3823,7 @@
       <c r="C64" t="s">
         <v>14</v>
       </c>
-      <c r="D64" s="1">
+      <c r="D64">
         <v>11</v>
       </c>
       <c r="E64" t="s">
@@ -3845,14 +3844,14 @@
       <c r="J64" t="s">
         <v>24</v>
       </c>
-      <c r="K64" t="s">
-        <v>14</v>
-      </c>
-      <c r="L64" t="s">
-        <v>14</v>
-      </c>
-      <c r="M64" t="s">
-        <v>14</v>
+      <c r="K64" s="1">
+        <v>0</v>
+      </c>
+      <c r="L64" s="1">
+        <v>0</v>
+      </c>
+      <c r="M64" s="1">
+        <v>0</v>
       </c>
       <c r="N64" t="s">
         <v>14</v>
@@ -3868,7 +3867,7 @@
       <c r="C65" t="s">
         <v>14</v>
       </c>
-      <c r="D65" s="1">
+      <c r="D65">
         <v>5</v>
       </c>
       <c r="E65" t="s">
@@ -3889,14 +3888,14 @@
       <c r="J65" t="s">
         <v>30</v>
       </c>
-      <c r="K65" t="s">
-        <v>14</v>
-      </c>
-      <c r="L65" t="s">
-        <v>14</v>
-      </c>
-      <c r="M65" t="s">
-        <v>14</v>
+      <c r="K65" s="1">
+        <v>0</v>
+      </c>
+      <c r="L65" s="1">
+        <v>0</v>
+      </c>
+      <c r="M65" s="1">
+        <v>0</v>
       </c>
       <c r="N65" t="s">
         <v>14</v>
@@ -3912,7 +3911,7 @@
       <c r="C66" t="s">
         <v>14</v>
       </c>
-      <c r="D66" s="1">
+      <c r="D66">
         <v>4</v>
       </c>
       <c r="E66" t="s">
@@ -3933,14 +3932,14 @@
       <c r="J66" t="s">
         <v>36</v>
       </c>
-      <c r="K66" t="s">
-        <v>14</v>
-      </c>
-      <c r="L66" t="s">
-        <v>14</v>
-      </c>
-      <c r="M66" t="s">
-        <v>14</v>
+      <c r="K66" s="1">
+        <v>0</v>
+      </c>
+      <c r="L66" s="1">
+        <v>0</v>
+      </c>
+      <c r="M66" s="1">
+        <v>0</v>
       </c>
       <c r="N66" t="s">
         <v>14</v>
@@ -3956,7 +3955,7 @@
       <c r="C67" t="s">
         <v>14</v>
       </c>
-      <c r="D67" s="1">
+      <c r="D67">
         <v>20</v>
       </c>
       <c r="E67" t="s">
@@ -3977,14 +3976,14 @@
       <c r="J67" t="s">
         <v>62</v>
       </c>
-      <c r="K67" t="s">
-        <v>14</v>
-      </c>
-      <c r="L67" t="s">
-        <v>14</v>
-      </c>
-      <c r="M67" t="s">
-        <v>14</v>
+      <c r="K67" s="1">
+        <v>0</v>
+      </c>
+      <c r="L67" s="1">
+        <v>0</v>
+      </c>
+      <c r="M67" s="1">
+        <v>0</v>
       </c>
       <c r="N67" t="s">
         <v>14</v>
@@ -4000,7 +3999,7 @@
       <c r="C68" t="s">
         <v>14</v>
       </c>
-      <c r="D68" s="1">
+      <c r="D68">
         <v>56</v>
       </c>
       <c r="E68" t="s">
@@ -4021,14 +4020,14 @@
       <c r="J68" t="s">
         <v>116</v>
       </c>
-      <c r="K68" t="s">
-        <v>14</v>
-      </c>
-      <c r="L68" t="s">
-        <v>14</v>
-      </c>
-      <c r="M68" t="s">
-        <v>14</v>
+      <c r="K68" s="1">
+        <v>0</v>
+      </c>
+      <c r="L68" s="1">
+        <v>0</v>
+      </c>
+      <c r="M68" s="1">
+        <v>0</v>
       </c>
       <c r="N68" t="s">
         <v>14</v>
@@ -4044,7 +4043,7 @@
       <c r="C69" t="s">
         <v>14</v>
       </c>
-      <c r="D69" s="1">
+      <c r="D69">
         <v>1</v>
       </c>
       <c r="E69" t="s">
@@ -4065,14 +4064,14 @@
       <c r="J69" t="s">
         <v>20</v>
       </c>
-      <c r="K69" t="s">
-        <v>14</v>
-      </c>
-      <c r="L69" t="s">
-        <v>14</v>
-      </c>
-      <c r="M69" t="s">
-        <v>14</v>
+      <c r="K69" s="1">
+        <v>0</v>
+      </c>
+      <c r="L69" s="1">
+        <v>0</v>
+      </c>
+      <c r="M69" s="1">
+        <v>0</v>
       </c>
       <c r="N69" t="s">
         <v>14</v>
@@ -4088,7 +4087,7 @@
       <c r="C70" t="s">
         <v>14</v>
       </c>
-      <c r="D70" s="1">
+      <c r="D70">
         <v>0</v>
       </c>
       <c r="E70" t="s">
@@ -4109,14 +4108,14 @@
       <c r="J70" t="s">
         <v>14</v>
       </c>
-      <c r="K70" t="s">
-        <v>14</v>
-      </c>
-      <c r="L70" t="s">
-        <v>14</v>
-      </c>
-      <c r="M70" t="s">
-        <v>14</v>
+      <c r="K70" s="1">
+        <v>0</v>
+      </c>
+      <c r="L70" s="1">
+        <v>0</v>
+      </c>
+      <c r="M70" s="1">
+        <v>0</v>
       </c>
       <c r="N70" t="s">
         <v>14</v>
@@ -4132,7 +4131,7 @@
       <c r="C71" t="s">
         <v>14</v>
       </c>
-      <c r="D71" s="1">
+      <c r="D71">
         <v>13</v>
       </c>
       <c r="E71" t="s">
@@ -4153,14 +4152,14 @@
       <c r="J71" t="s">
         <v>42</v>
       </c>
-      <c r="K71" t="s">
-        <v>14</v>
-      </c>
-      <c r="L71" t="s">
-        <v>14</v>
-      </c>
-      <c r="M71" t="s">
-        <v>14</v>
+      <c r="K71" s="1">
+        <v>0</v>
+      </c>
+      <c r="L71" s="1">
+        <v>0</v>
+      </c>
+      <c r="M71" s="1">
+        <v>0</v>
       </c>
       <c r="N71" t="s">
         <v>14</v>
@@ -4220,7 +4219,7 @@
       <c r="C73" t="s">
         <v>14</v>
       </c>
-      <c r="D73" s="1">
+      <c r="D73">
         <v>5</v>
       </c>
       <c r="E73" t="s">
@@ -4241,14 +4240,14 @@
       <c r="J73" t="s">
         <v>30</v>
       </c>
-      <c r="K73" t="s">
-        <v>14</v>
-      </c>
-      <c r="L73" t="s">
-        <v>14</v>
-      </c>
-      <c r="M73" t="s">
-        <v>14</v>
+      <c r="K73" s="1">
+        <v>0</v>
+      </c>
+      <c r="L73" s="1">
+        <v>0</v>
+      </c>
+      <c r="M73" s="1">
+        <v>0</v>
       </c>
       <c r="N73" t="s">
         <v>14</v>
@@ -4264,7 +4263,7 @@
       <c r="C74" t="s">
         <v>20</v>
       </c>
-      <c r="D74" s="1">
+      <c r="D74">
         <v>12</v>
       </c>
       <c r="E74" t="s">
@@ -4285,14 +4284,14 @@
       <c r="J74" t="s">
         <v>24</v>
       </c>
-      <c r="K74" t="s">
-        <v>14</v>
-      </c>
-      <c r="L74" t="s">
-        <v>14</v>
-      </c>
-      <c r="M74" t="s">
-        <v>20</v>
+      <c r="K74" s="1">
+        <v>0</v>
+      </c>
+      <c r="L74" s="1">
+        <v>0</v>
+      </c>
+      <c r="M74" s="1">
+        <v>1</v>
       </c>
       <c r="N74" t="s">
         <v>20</v>
@@ -4308,7 +4307,7 @@
       <c r="C75" t="s">
         <v>34</v>
       </c>
-      <c r="D75" s="1">
+      <c r="D75">
         <v>14</v>
       </c>
       <c r="E75" t="s">
@@ -4329,14 +4328,14 @@
       <c r="J75" t="s">
         <v>34</v>
       </c>
-      <c r="K75" t="s">
-        <v>34</v>
-      </c>
-      <c r="L75" t="s">
-        <v>14</v>
-      </c>
-      <c r="M75" t="s">
-        <v>14</v>
+      <c r="K75" s="1">
+        <v>7</v>
+      </c>
+      <c r="L75" s="1">
+        <v>0</v>
+      </c>
+      <c r="M75" s="1">
+        <v>0</v>
       </c>
       <c r="N75" t="s">
         <v>34</v>
@@ -4352,7 +4351,7 @@
       <c r="C76" t="s">
         <v>14</v>
       </c>
-      <c r="D76" s="1">
+      <c r="D76">
         <v>7</v>
       </c>
       <c r="E76" t="s">
@@ -4373,14 +4372,14 @@
       <c r="J76" t="s">
         <v>34</v>
       </c>
-      <c r="K76" t="s">
-        <v>14</v>
-      </c>
-      <c r="L76" t="s">
-        <v>14</v>
-      </c>
-      <c r="M76" t="s">
-        <v>14</v>
+      <c r="K76" s="1">
+        <v>0</v>
+      </c>
+      <c r="L76" s="1">
+        <v>0</v>
+      </c>
+      <c r="M76" s="1">
+        <v>0</v>
       </c>
       <c r="N76" t="s">
         <v>14</v>
@@ -4396,7 +4395,7 @@
       <c r="C77" t="s">
         <v>14</v>
       </c>
-      <c r="D77" s="1">
+      <c r="D77">
         <v>8</v>
       </c>
       <c r="E77" t="s">
@@ -4417,14 +4416,14 @@
       <c r="J77" t="s">
         <v>47</v>
       </c>
-      <c r="K77" t="s">
-        <v>14</v>
-      </c>
-      <c r="L77" t="s">
-        <v>14</v>
-      </c>
-      <c r="M77" t="s">
-        <v>14</v>
+      <c r="K77" s="1">
+        <v>0</v>
+      </c>
+      <c r="L77" s="1">
+        <v>0</v>
+      </c>
+      <c r="M77" s="1">
+        <v>0</v>
       </c>
       <c r="N77" t="s">
         <v>14</v>
@@ -4440,7 +4439,7 @@
       <c r="C78" t="s">
         <v>14</v>
       </c>
-      <c r="D78" s="1">
+      <c r="D78">
         <v>1</v>
       </c>
       <c r="E78" t="s">
@@ -4461,14 +4460,14 @@
       <c r="J78" t="s">
         <v>20</v>
       </c>
-      <c r="K78" t="s">
-        <v>14</v>
-      </c>
-      <c r="L78" t="s">
-        <v>14</v>
-      </c>
-      <c r="M78" t="s">
-        <v>14</v>
+      <c r="K78" s="1">
+        <v>0</v>
+      </c>
+      <c r="L78" s="1">
+        <v>0</v>
+      </c>
+      <c r="M78" s="1">
+        <v>0</v>
       </c>
       <c r="N78" t="s">
         <v>14</v>
@@ -4484,7 +4483,7 @@
       <c r="C79" t="s">
         <v>14</v>
       </c>
-      <c r="D79" s="1">
+      <c r="D79">
         <v>0</v>
       </c>
       <c r="E79" t="s">
@@ -4505,14 +4504,14 @@
       <c r="J79" t="s">
         <v>14</v>
       </c>
-      <c r="K79" t="s">
-        <v>14</v>
-      </c>
-      <c r="L79" t="s">
-        <v>14</v>
-      </c>
-      <c r="M79" t="s">
-        <v>14</v>
+      <c r="K79" s="1">
+        <v>0</v>
+      </c>
+      <c r="L79" s="1">
+        <v>0</v>
+      </c>
+      <c r="M79" s="1">
+        <v>0</v>
       </c>
       <c r="N79" t="s">
         <v>14</v>
@@ -4528,7 +4527,7 @@
       <c r="C80" t="s">
         <v>14</v>
       </c>
-      <c r="D80" s="1">
+      <c r="D80">
         <v>0</v>
       </c>
       <c r="E80" t="s">
@@ -4549,14 +4548,14 @@
       <c r="J80" t="s">
         <v>14</v>
       </c>
-      <c r="K80" t="s">
-        <v>14</v>
-      </c>
-      <c r="L80" t="s">
-        <v>14</v>
-      </c>
-      <c r="M80" t="s">
-        <v>14</v>
+      <c r="K80" s="1">
+        <v>0</v>
+      </c>
+      <c r="L80" s="1">
+        <v>0</v>
+      </c>
+      <c r="M80" s="1">
+        <v>0</v>
       </c>
       <c r="N80" t="s">
         <v>14</v>
@@ -4572,7 +4571,7 @@
       <c r="C81" t="s">
         <v>14</v>
       </c>
-      <c r="D81" s="1">
+      <c r="D81">
         <v>5</v>
       </c>
       <c r="E81" t="s">
@@ -4593,14 +4592,14 @@
       <c r="J81" t="s">
         <v>30</v>
       </c>
-      <c r="K81" t="s">
-        <v>14</v>
-      </c>
-      <c r="L81" t="s">
-        <v>14</v>
-      </c>
-      <c r="M81" t="s">
-        <v>14</v>
+      <c r="K81" s="1">
+        <v>0</v>
+      </c>
+      <c r="L81" s="1">
+        <v>0</v>
+      </c>
+      <c r="M81" s="1">
+        <v>0</v>
       </c>
       <c r="N81" t="s">
         <v>14</v>
@@ -4616,7 +4615,7 @@
       <c r="C82" t="s">
         <v>14</v>
       </c>
-      <c r="D82" s="1">
+      <c r="D82">
         <v>0</v>
       </c>
       <c r="E82" t="s">
@@ -4637,14 +4636,14 @@
       <c r="J82" t="s">
         <v>14</v>
       </c>
-      <c r="K82" t="s">
-        <v>14</v>
-      </c>
-      <c r="L82" t="s">
-        <v>14</v>
-      </c>
-      <c r="M82" t="s">
-        <v>14</v>
+      <c r="K82" s="1">
+        <v>0</v>
+      </c>
+      <c r="L82" s="1">
+        <v>0</v>
+      </c>
+      <c r="M82" s="1">
+        <v>0</v>
       </c>
       <c r="N82" t="s">
         <v>14</v>
@@ -4660,7 +4659,7 @@
       <c r="C83" t="s">
         <v>14</v>
       </c>
-      <c r="D83" s="1">
+      <c r="D83">
         <v>9</v>
       </c>
       <c r="E83" t="s">
@@ -4681,14 +4680,14 @@
       <c r="J83" t="s">
         <v>32</v>
       </c>
-      <c r="K83" t="s">
-        <v>14</v>
-      </c>
-      <c r="L83" t="s">
-        <v>14</v>
-      </c>
-      <c r="M83" t="s">
-        <v>14</v>
+      <c r="K83" s="1">
+        <v>0</v>
+      </c>
+      <c r="L83" s="1">
+        <v>0</v>
+      </c>
+      <c r="M83" s="1">
+        <v>0</v>
       </c>
       <c r="N83" t="s">
         <v>14</v>
@@ -4704,7 +4703,7 @@
       <c r="C84" t="s">
         <v>14</v>
       </c>
-      <c r="D84" s="1">
+      <c r="D84">
         <v>162</v>
       </c>
       <c r="E84" t="s">
@@ -4725,14 +4724,14 @@
       <c r="J84" t="s">
         <v>133</v>
       </c>
-      <c r="K84" t="s">
-        <v>14</v>
-      </c>
-      <c r="L84" t="s">
-        <v>14</v>
-      </c>
-      <c r="M84" t="s">
-        <v>14</v>
+      <c r="K84" s="1">
+        <v>0</v>
+      </c>
+      <c r="L84" s="1">
+        <v>0</v>
+      </c>
+      <c r="M84" s="1">
+        <v>0</v>
       </c>
       <c r="N84" t="s">
         <v>14</v>
@@ -4748,7 +4747,7 @@
       <c r="C85" t="s">
         <v>14</v>
       </c>
-      <c r="D85" s="1">
+      <c r="D85">
         <v>0</v>
       </c>
       <c r="E85" t="s">
@@ -4769,14 +4768,14 @@
       <c r="J85" t="s">
         <v>14</v>
       </c>
-      <c r="K85" t="s">
-        <v>14</v>
-      </c>
-      <c r="L85" t="s">
-        <v>14</v>
-      </c>
-      <c r="M85" t="s">
-        <v>14</v>
+      <c r="K85" s="1">
+        <v>0</v>
+      </c>
+      <c r="L85" s="1">
+        <v>0</v>
+      </c>
+      <c r="M85" s="1">
+        <v>0</v>
       </c>
       <c r="N85" t="s">
         <v>14</v>
@@ -4792,7 +4791,7 @@
       <c r="C86" t="s">
         <v>14</v>
       </c>
-      <c r="D86" s="1">
+      <c r="D86">
         <v>0</v>
       </c>
       <c r="E86" t="s">
@@ -4813,14 +4812,14 @@
       <c r="J86" t="s">
         <v>14</v>
       </c>
-      <c r="K86" t="s">
-        <v>14</v>
-      </c>
-      <c r="L86" t="s">
-        <v>14</v>
-      </c>
-      <c r="M86" t="s">
-        <v>14</v>
+      <c r="K86" s="1">
+        <v>0</v>
+      </c>
+      <c r="L86" s="1">
+        <v>0</v>
+      </c>
+      <c r="M86" s="1">
+        <v>0</v>
       </c>
       <c r="N86" t="s">
         <v>14</v>
@@ -4836,7 +4835,7 @@
       <c r="C87" t="s">
         <v>14</v>
       </c>
-      <c r="D87" s="1">
+      <c r="D87">
         <v>17</v>
       </c>
       <c r="E87" t="s">
@@ -4857,14 +4856,14 @@
       <c r="J87" t="s">
         <v>58</v>
       </c>
-      <c r="K87" t="s">
-        <v>14</v>
-      </c>
-      <c r="L87" t="s">
-        <v>14</v>
-      </c>
-      <c r="M87" t="s">
-        <v>14</v>
+      <c r="K87" s="1">
+        <v>0</v>
+      </c>
+      <c r="L87" s="1">
+        <v>0</v>
+      </c>
+      <c r="M87" s="1">
+        <v>0</v>
       </c>
       <c r="N87" t="s">
         <v>14</v>
@@ -4880,7 +4879,7 @@
       <c r="C88" t="s">
         <v>14</v>
       </c>
-      <c r="D88" s="1">
+      <c r="D88">
         <v>6</v>
       </c>
       <c r="E88" t="s">
@@ -4901,14 +4900,14 @@
       <c r="J88" t="s">
         <v>101</v>
       </c>
-      <c r="K88" t="s">
-        <v>14</v>
-      </c>
-      <c r="L88" t="s">
-        <v>14</v>
-      </c>
-      <c r="M88" t="s">
-        <v>14</v>
+      <c r="K88" s="1">
+        <v>0</v>
+      </c>
+      <c r="L88" s="1">
+        <v>0</v>
+      </c>
+      <c r="M88" s="1">
+        <v>0</v>
       </c>
       <c r="N88" t="s">
         <v>14</v>
@@ -4924,7 +4923,7 @@
       <c r="C89" t="s">
         <v>14</v>
       </c>
-      <c r="D89" s="1">
+      <c r="D89">
         <v>0</v>
       </c>
       <c r="E89" t="s">
@@ -4945,14 +4944,14 @@
       <c r="J89" t="s">
         <v>14</v>
       </c>
-      <c r="K89" t="s">
-        <v>14</v>
-      </c>
-      <c r="L89" t="s">
-        <v>14</v>
-      </c>
-      <c r="M89" t="s">
-        <v>14</v>
+      <c r="K89" s="1">
+        <v>0</v>
+      </c>
+      <c r="L89" s="1">
+        <v>0</v>
+      </c>
+      <c r="M89" s="1">
+        <v>0</v>
       </c>
       <c r="N89" t="s">
         <v>14</v>
@@ -4968,7 +4967,7 @@
       <c r="C90" t="s">
         <v>14</v>
       </c>
-      <c r="D90" s="1">
+      <c r="D90">
         <v>9</v>
       </c>
       <c r="E90" t="s">
@@ -4989,14 +4988,14 @@
       <c r="J90" t="s">
         <v>32</v>
       </c>
-      <c r="K90" t="s">
-        <v>14</v>
-      </c>
-      <c r="L90" t="s">
-        <v>14</v>
-      </c>
-      <c r="M90" t="s">
-        <v>14</v>
+      <c r="K90" s="1">
+        <v>0</v>
+      </c>
+      <c r="L90" s="1">
+        <v>0</v>
+      </c>
+      <c r="M90" s="1">
+        <v>0</v>
       </c>
       <c r="N90" t="s">
         <v>14</v>
@@ -5012,7 +5011,7 @@
       <c r="C91" t="s">
         <v>14</v>
       </c>
-      <c r="D91" s="1">
+      <c r="D91">
         <v>3</v>
       </c>
       <c r="E91" t="s">
@@ -5033,14 +5032,14 @@
       <c r="J91" t="s">
         <v>25</v>
       </c>
-      <c r="K91" t="s">
-        <v>14</v>
-      </c>
-      <c r="L91" t="s">
-        <v>14</v>
-      </c>
-      <c r="M91" t="s">
-        <v>14</v>
+      <c r="K91" s="1">
+        <v>0</v>
+      </c>
+      <c r="L91" s="1">
+        <v>0</v>
+      </c>
+      <c r="M91" s="1">
+        <v>0</v>
       </c>
       <c r="N91" t="s">
         <v>14</v>
@@ -5056,7 +5055,7 @@
       <c r="C92" t="s">
         <v>14</v>
       </c>
-      <c r="D92" s="1">
+      <c r="D92">
         <v>0</v>
       </c>
       <c r="E92" t="s">
@@ -5077,14 +5076,14 @@
       <c r="J92" t="s">
         <v>14</v>
       </c>
-      <c r="K92" t="s">
-        <v>14</v>
-      </c>
-      <c r="L92" t="s">
-        <v>14</v>
-      </c>
-      <c r="M92" t="s">
-        <v>14</v>
+      <c r="K92" s="1">
+        <v>0</v>
+      </c>
+      <c r="L92" s="1">
+        <v>0</v>
+      </c>
+      <c r="M92" s="1">
+        <v>0</v>
       </c>
       <c r="N92" t="s">
         <v>14</v>
@@ -5100,7 +5099,7 @@
       <c r="C93" t="s">
         <v>14</v>
       </c>
-      <c r="D93" s="1">
+      <c r="D93">
         <v>0</v>
       </c>
       <c r="E93" t="s">
@@ -5121,14 +5120,14 @@
       <c r="J93" t="s">
         <v>14</v>
       </c>
-      <c r="K93" t="s">
-        <v>14</v>
-      </c>
-      <c r="L93" t="s">
-        <v>14</v>
-      </c>
-      <c r="M93" t="s">
-        <v>14</v>
+      <c r="K93" s="1">
+        <v>0</v>
+      </c>
+      <c r="L93" s="1">
+        <v>0</v>
+      </c>
+      <c r="M93" s="1">
+        <v>0</v>
       </c>
       <c r="N93" t="s">
         <v>14</v>
@@ -5144,7 +5143,7 @@
       <c r="C94" t="s">
         <v>14</v>
       </c>
-      <c r="D94" s="1">
+      <c r="D94">
         <v>0</v>
       </c>
       <c r="E94" t="s">
@@ -5165,14 +5164,14 @@
       <c r="J94" t="s">
         <v>14</v>
       </c>
-      <c r="K94" t="s">
-        <v>14</v>
-      </c>
-      <c r="L94" t="s">
-        <v>14</v>
-      </c>
-      <c r="M94" t="s">
-        <v>14</v>
+      <c r="K94" s="1">
+        <v>0</v>
+      </c>
+      <c r="L94" s="1">
+        <v>0</v>
+      </c>
+      <c r="M94" s="1">
+        <v>0</v>
       </c>
       <c r="N94" t="s">
         <v>14</v>
@@ -5188,7 +5187,7 @@
       <c r="C95" t="s">
         <v>23</v>
       </c>
-      <c r="D95" s="1">
+      <c r="D95">
         <v>32</v>
       </c>
       <c r="E95" t="s">
@@ -5209,14 +5208,14 @@
       <c r="J95" t="s">
         <v>14</v>
       </c>
-      <c r="K95" t="s">
-        <v>23</v>
-      </c>
-      <c r="L95" t="s">
-        <v>14</v>
-      </c>
-      <c r="M95" t="s">
-        <v>14</v>
+      <c r="K95" s="1">
+        <v>32</v>
+      </c>
+      <c r="L95" s="1">
+        <v>0</v>
+      </c>
+      <c r="M95" s="1">
+        <v>0</v>
       </c>
       <c r="N95" t="s">
         <v>23</v>
@@ -5232,7 +5231,7 @@
       <c r="C96" t="s">
         <v>14</v>
       </c>
-      <c r="D96" s="1">
+      <c r="D96">
         <v>1</v>
       </c>
       <c r="E96" t="s">
@@ -5253,14 +5252,14 @@
       <c r="J96" t="s">
         <v>20</v>
       </c>
-      <c r="K96" t="s">
-        <v>14</v>
-      </c>
-      <c r="L96" t="s">
-        <v>14</v>
-      </c>
-      <c r="M96" t="s">
-        <v>14</v>
+      <c r="K96" s="1">
+        <v>0</v>
+      </c>
+      <c r="L96" s="1">
+        <v>0</v>
+      </c>
+      <c r="M96" s="1">
+        <v>0</v>
       </c>
       <c r="N96" t="s">
         <v>14</v>
@@ -5276,7 +5275,7 @@
       <c r="C97" t="s">
         <v>14</v>
       </c>
-      <c r="D97" s="1">
+      <c r="D97">
         <v>14</v>
       </c>
       <c r="E97" t="s">
@@ -5297,14 +5296,14 @@
       <c r="J97" t="s">
         <v>16</v>
       </c>
-      <c r="K97" t="s">
-        <v>14</v>
-      </c>
-      <c r="L97" t="s">
-        <v>14</v>
-      </c>
-      <c r="M97" t="s">
-        <v>14</v>
+      <c r="K97" s="1">
+        <v>0</v>
+      </c>
+      <c r="L97" s="1">
+        <v>0</v>
+      </c>
+      <c r="M97" s="1">
+        <v>0</v>
       </c>
       <c r="N97" t="s">
         <v>14</v>
@@ -5320,7 +5319,7 @@
       <c r="C98" t="s">
         <v>14</v>
       </c>
-      <c r="D98" s="1">
+      <c r="D98">
         <v>0</v>
       </c>
       <c r="E98" t="s">
@@ -5341,14 +5340,14 @@
       <c r="J98" t="s">
         <v>14</v>
       </c>
-      <c r="K98" t="s">
-        <v>14</v>
-      </c>
-      <c r="L98" t="s">
-        <v>14</v>
-      </c>
-      <c r="M98" t="s">
-        <v>14</v>
+      <c r="K98" s="1">
+        <v>0</v>
+      </c>
+      <c r="L98" s="1">
+        <v>0</v>
+      </c>
+      <c r="M98" s="1">
+        <v>0</v>
       </c>
       <c r="N98" t="s">
         <v>14</v>
@@ -5364,7 +5363,7 @@
       <c r="C99" t="s">
         <v>14</v>
       </c>
-      <c r="D99" s="1">
+      <c r="D99">
         <v>14</v>
       </c>
       <c r="E99" t="s">
@@ -5385,14 +5384,14 @@
       <c r="J99" t="s">
         <v>16</v>
       </c>
-      <c r="K99" t="s">
-        <v>14</v>
-      </c>
-      <c r="L99" t="s">
-        <v>14</v>
-      </c>
-      <c r="M99" t="s">
-        <v>14</v>
+      <c r="K99" s="1">
+        <v>0</v>
+      </c>
+      <c r="L99" s="1">
+        <v>0</v>
+      </c>
+      <c r="M99" s="1">
+        <v>0</v>
       </c>
       <c r="N99" t="s">
         <v>14</v>
@@ -5408,7 +5407,7 @@
       <c r="C100" t="s">
         <v>14</v>
       </c>
-      <c r="D100" s="1">
+      <c r="D100">
         <v>1</v>
       </c>
       <c r="E100" t="s">
@@ -5429,14 +5428,14 @@
       <c r="J100" t="s">
         <v>20</v>
       </c>
-      <c r="K100" t="s">
-        <v>14</v>
-      </c>
-      <c r="L100" t="s">
-        <v>14</v>
-      </c>
-      <c r="M100" t="s">
-        <v>14</v>
+      <c r="K100" s="1">
+        <v>0</v>
+      </c>
+      <c r="L100" s="1">
+        <v>0</v>
+      </c>
+      <c r="M100" s="1">
+        <v>0</v>
       </c>
       <c r="N100" t="s">
         <v>14</v>
@@ -5452,7 +5451,7 @@
       <c r="C101" t="s">
         <v>14</v>
       </c>
-      <c r="D101" s="1">
+      <c r="D101">
         <v>33</v>
       </c>
       <c r="E101" t="s">
@@ -5473,14 +5472,14 @@
       <c r="J101" t="s">
         <v>153</v>
       </c>
-      <c r="K101" t="s">
-        <v>14</v>
-      </c>
-      <c r="L101" t="s">
-        <v>14</v>
-      </c>
-      <c r="M101" t="s">
-        <v>14</v>
+      <c r="K101" s="1">
+        <v>0</v>
+      </c>
+      <c r="L101" s="1">
+        <v>0</v>
+      </c>
+      <c r="M101" s="1">
+        <v>0</v>
       </c>
       <c r="N101" t="s">
         <v>14</v>
@@ -5496,7 +5495,7 @@
       <c r="C102" t="s">
         <v>14</v>
       </c>
-      <c r="D102" s="1">
+      <c r="D102">
         <v>24</v>
       </c>
       <c r="E102" t="s">
@@ -5517,14 +5516,14 @@
       <c r="J102" t="s">
         <v>155</v>
       </c>
-      <c r="K102" t="s">
-        <v>14</v>
-      </c>
-      <c r="L102" t="s">
-        <v>14</v>
-      </c>
-      <c r="M102" t="s">
-        <v>14</v>
+      <c r="K102" s="1">
+        <v>0</v>
+      </c>
+      <c r="L102" s="1">
+        <v>0</v>
+      </c>
+      <c r="M102" s="1">
+        <v>0</v>
       </c>
       <c r="N102" t="s">
         <v>14</v>
@@ -5540,7 +5539,7 @@
       <c r="C103" t="s">
         <v>14</v>
       </c>
-      <c r="D103" s="1">
+      <c r="D103">
         <v>14</v>
       </c>
       <c r="E103" t="s">
@@ -5561,14 +5560,14 @@
       <c r="J103" t="s">
         <v>16</v>
       </c>
-      <c r="K103" t="s">
-        <v>14</v>
-      </c>
-      <c r="L103" t="s">
-        <v>14</v>
-      </c>
-      <c r="M103" t="s">
-        <v>14</v>
+      <c r="K103" s="1">
+        <v>0</v>
+      </c>
+      <c r="L103" s="1">
+        <v>0</v>
+      </c>
+      <c r="M103" s="1">
+        <v>0</v>
       </c>
       <c r="N103" t="s">
         <v>14</v>
@@ -5584,7 +5583,7 @@
       <c r="C104" t="s">
         <v>14</v>
       </c>
-      <c r="D104" s="1">
+      <c r="D104">
         <v>1</v>
       </c>
       <c r="E104" t="s">
@@ -5605,14 +5604,14 @@
       <c r="J104" t="s">
         <v>20</v>
       </c>
-      <c r="K104" t="s">
-        <v>14</v>
-      </c>
-      <c r="L104" t="s">
-        <v>14</v>
-      </c>
-      <c r="M104" t="s">
-        <v>14</v>
+      <c r="K104" s="1">
+        <v>0</v>
+      </c>
+      <c r="L104" s="1">
+        <v>0</v>
+      </c>
+      <c r="M104" s="1">
+        <v>0</v>
       </c>
       <c r="N104" t="s">
         <v>14</v>
@@ -5628,7 +5627,7 @@
       <c r="C105" t="s">
         <v>14</v>
       </c>
-      <c r="D105" s="1">
+      <c r="D105">
         <v>0</v>
       </c>
       <c r="E105" t="s">
@@ -5649,14 +5648,14 @@
       <c r="J105" t="s">
         <v>14</v>
       </c>
-      <c r="K105" t="s">
-        <v>14</v>
-      </c>
-      <c r="L105" t="s">
-        <v>14</v>
-      </c>
-      <c r="M105" t="s">
-        <v>14</v>
+      <c r="K105" s="1">
+        <v>0</v>
+      </c>
+      <c r="L105" s="1">
+        <v>0</v>
+      </c>
+      <c r="M105" s="1">
+        <v>0</v>
       </c>
       <c r="N105" t="s">
         <v>14</v>
@@ -5672,7 +5671,7 @@
       <c r="C106" t="s">
         <v>14</v>
       </c>
-      <c r="D106" s="1">
+      <c r="D106">
         <v>3</v>
       </c>
       <c r="E106" t="s">
@@ -5693,14 +5692,14 @@
       <c r="J106" t="s">
         <v>25</v>
       </c>
-      <c r="K106" t="s">
-        <v>14</v>
-      </c>
-      <c r="L106" t="s">
-        <v>14</v>
-      </c>
-      <c r="M106" t="s">
-        <v>14</v>
+      <c r="K106" s="1">
+        <v>0</v>
+      </c>
+      <c r="L106" s="1">
+        <v>0</v>
+      </c>
+      <c r="M106" s="1">
+        <v>0</v>
       </c>
       <c r="N106" t="s">
         <v>14</v>
@@ -5716,7 +5715,7 @@
       <c r="C107" t="s">
         <v>14</v>
       </c>
-      <c r="D107" s="1">
+      <c r="D107">
         <v>0</v>
       </c>
       <c r="E107" t="s">
@@ -5737,14 +5736,14 @@
       <c r="J107" t="s">
         <v>14</v>
       </c>
-      <c r="K107" t="s">
-        <v>14</v>
-      </c>
-      <c r="L107" t="s">
-        <v>14</v>
-      </c>
-      <c r="M107" t="s">
-        <v>14</v>
+      <c r="K107" s="1">
+        <v>0</v>
+      </c>
+      <c r="L107" s="1">
+        <v>0</v>
+      </c>
+      <c r="M107" s="1">
+        <v>0</v>
       </c>
       <c r="N107" t="s">
         <v>14</v>
@@ -5760,7 +5759,7 @@
       <c r="C108" t="s">
         <v>14</v>
       </c>
-      <c r="D108" s="1">
+      <c r="D108">
         <v>10</v>
       </c>
       <c r="E108" t="s">
@@ -5781,14 +5780,14 @@
       <c r="J108" t="s">
         <v>43</v>
       </c>
-      <c r="K108" t="s">
-        <v>14</v>
-      </c>
-      <c r="L108" t="s">
-        <v>14</v>
-      </c>
-      <c r="M108" t="s">
-        <v>14</v>
+      <c r="K108" s="1">
+        <v>0</v>
+      </c>
+      <c r="L108" s="1">
+        <v>0</v>
+      </c>
+      <c r="M108" s="1">
+        <v>0</v>
       </c>
       <c r="N108" t="s">
         <v>14</v>
@@ -5804,7 +5803,7 @@
       <c r="C109" t="s">
         <v>14</v>
       </c>
-      <c r="D109" s="1">
+      <c r="D109">
         <v>43</v>
       </c>
       <c r="E109" t="s">
@@ -5825,14 +5824,14 @@
       <c r="J109" t="s">
         <v>29</v>
       </c>
-      <c r="K109" t="s">
-        <v>14</v>
-      </c>
-      <c r="L109" t="s">
-        <v>14</v>
-      </c>
-      <c r="M109" t="s">
-        <v>14</v>
+      <c r="K109" s="1">
+        <v>0</v>
+      </c>
+      <c r="L109" s="1">
+        <v>0</v>
+      </c>
+      <c r="M109" s="1">
+        <v>0</v>
       </c>
       <c r="N109" t="s">
         <v>14</v>
@@ -5848,7 +5847,7 @@
       <c r="C110" t="s">
         <v>14</v>
       </c>
-      <c r="D110" s="1">
+      <c r="D110">
         <v>1</v>
       </c>
       <c r="E110" t="s">
@@ -5869,14 +5868,14 @@
       <c r="J110" t="s">
         <v>20</v>
       </c>
-      <c r="K110" t="s">
-        <v>14</v>
-      </c>
-      <c r="L110" t="s">
-        <v>14</v>
-      </c>
-      <c r="M110" t="s">
-        <v>14</v>
+      <c r="K110" s="1">
+        <v>0</v>
+      </c>
+      <c r="L110" s="1">
+        <v>0</v>
+      </c>
+      <c r="M110" s="1">
+        <v>0</v>
       </c>
       <c r="N110" t="s">
         <v>14</v>
@@ -5936,7 +5935,7 @@
       <c r="C112" t="s">
         <v>14</v>
       </c>
-      <c r="D112" s="1">
+      <c r="D112">
         <v>9</v>
       </c>
       <c r="E112" t="s">
@@ -5957,14 +5956,14 @@
       <c r="J112" t="s">
         <v>32</v>
       </c>
-      <c r="K112" t="s">
-        <v>14</v>
-      </c>
-      <c r="L112" t="s">
-        <v>14</v>
-      </c>
-      <c r="M112" t="s">
-        <v>14</v>
+      <c r="K112" s="1">
+        <v>0</v>
+      </c>
+      <c r="L112" s="1">
+        <v>0</v>
+      </c>
+      <c r="M112" s="1">
+        <v>0</v>
       </c>
       <c r="N112" t="s">
         <v>14</v>
@@ -5980,7 +5979,7 @@
       <c r="C113" t="s">
         <v>14</v>
       </c>
-      <c r="D113" s="1">
+      <c r="D113">
         <v>7</v>
       </c>
       <c r="E113" t="s">
@@ -6001,14 +6000,14 @@
       <c r="J113" t="s">
         <v>34</v>
       </c>
-      <c r="K113" t="s">
-        <v>14</v>
-      </c>
-      <c r="L113" t="s">
-        <v>14</v>
-      </c>
-      <c r="M113" t="s">
-        <v>14</v>
+      <c r="K113" s="1">
+        <v>0</v>
+      </c>
+      <c r="L113" s="1">
+        <v>0</v>
+      </c>
+      <c r="M113" s="1">
+        <v>0</v>
       </c>
       <c r="N113" t="s">
         <v>14</v>
@@ -6024,7 +6023,7 @@
       <c r="C114" t="s">
         <v>14</v>
       </c>
-      <c r="D114" s="1">
+      <c r="D114">
         <v>0</v>
       </c>
       <c r="E114" t="s">
@@ -6045,14 +6044,14 @@
       <c r="J114" t="s">
         <v>14</v>
       </c>
-      <c r="K114" t="s">
-        <v>14</v>
-      </c>
-      <c r="L114" t="s">
-        <v>14</v>
-      </c>
-      <c r="M114" t="s">
-        <v>14</v>
+      <c r="K114" s="1">
+        <v>0</v>
+      </c>
+      <c r="L114" s="1">
+        <v>0</v>
+      </c>
+      <c r="M114" s="1">
+        <v>0</v>
       </c>
       <c r="N114" t="s">
         <v>14</v>
@@ -6068,7 +6067,7 @@
       <c r="C115" t="s">
         <v>14</v>
       </c>
-      <c r="D115" s="1">
+      <c r="D115">
         <v>2</v>
       </c>
       <c r="E115" t="s">
@@ -6089,14 +6088,14 @@
       <c r="J115" t="s">
         <v>19</v>
       </c>
-      <c r="K115" t="s">
-        <v>14</v>
-      </c>
-      <c r="L115" t="s">
-        <v>14</v>
-      </c>
-      <c r="M115" t="s">
-        <v>14</v>
+      <c r="K115" s="1">
+        <v>0</v>
+      </c>
+      <c r="L115" s="1">
+        <v>0</v>
+      </c>
+      <c r="M115" s="1">
+        <v>0</v>
       </c>
       <c r="N115" t="s">
         <v>14</v>
@@ -6112,7 +6111,7 @@
       <c r="C116" t="s">
         <v>14</v>
       </c>
-      <c r="D116" s="1">
+      <c r="D116">
         <v>0</v>
       </c>
       <c r="E116" t="s">
@@ -6133,14 +6132,14 @@
       <c r="J116" t="s">
         <v>14</v>
       </c>
-      <c r="K116" t="s">
-        <v>14</v>
-      </c>
-      <c r="L116" t="s">
-        <v>14</v>
-      </c>
-      <c r="M116" t="s">
-        <v>14</v>
+      <c r="K116" s="1">
+        <v>0</v>
+      </c>
+      <c r="L116" s="1">
+        <v>0</v>
+      </c>
+      <c r="M116" s="1">
+        <v>0</v>
       </c>
       <c r="N116" t="s">
         <v>14</v>
@@ -6156,7 +6155,7 @@
       <c r="C117" t="s">
         <v>14</v>
       </c>
-      <c r="D117" s="1">
+      <c r="D117">
         <v>22</v>
       </c>
       <c r="E117" t="s">
@@ -6177,14 +6176,14 @@
       <c r="J117" t="s">
         <v>71</v>
       </c>
-      <c r="K117" t="s">
-        <v>14</v>
-      </c>
-      <c r="L117" t="s">
-        <v>14</v>
-      </c>
-      <c r="M117" t="s">
-        <v>14</v>
+      <c r="K117" s="1">
+        <v>0</v>
+      </c>
+      <c r="L117" s="1">
+        <v>0</v>
+      </c>
+      <c r="M117" s="1">
+        <v>0</v>
       </c>
       <c r="N117" t="s">
         <v>14</v>
@@ -6244,7 +6243,7 @@
       <c r="C119" t="s">
         <v>14</v>
       </c>
-      <c r="D119" s="1">
+      <c r="D119">
         <v>25</v>
       </c>
       <c r="E119" t="s">
@@ -6265,14 +6264,14 @@
       <c r="J119" t="s">
         <v>177</v>
       </c>
-      <c r="K119" t="s">
-        <v>14</v>
-      </c>
-      <c r="L119" t="s">
-        <v>14</v>
-      </c>
-      <c r="M119" t="s">
-        <v>14</v>
+      <c r="K119" s="1">
+        <v>0</v>
+      </c>
+      <c r="L119" s="1">
+        <v>0</v>
+      </c>
+      <c r="M119" s="1">
+        <v>0</v>
       </c>
       <c r="N119" t="s">
         <v>14</v>
@@ -6288,7 +6287,7 @@
       <c r="C120" t="s">
         <v>14</v>
       </c>
-      <c r="D120" s="1">
+      <c r="D120">
         <v>0</v>
       </c>
       <c r="E120" t="s">
@@ -6309,14 +6308,14 @@
       <c r="J120" t="s">
         <v>14</v>
       </c>
-      <c r="K120" t="s">
-        <v>14</v>
-      </c>
-      <c r="L120" t="s">
-        <v>14</v>
-      </c>
-      <c r="M120" t="s">
-        <v>14</v>
+      <c r="K120" s="1">
+        <v>0</v>
+      </c>
+      <c r="L120" s="1">
+        <v>0</v>
+      </c>
+      <c r="M120" s="1">
+        <v>0</v>
       </c>
       <c r="N120" t="s">
         <v>14</v>
@@ -6332,7 +6331,7 @@
       <c r="C121" t="s">
         <v>14</v>
       </c>
-      <c r="D121" s="1">
+      <c r="D121">
         <v>1</v>
       </c>
       <c r="E121" t="s">
@@ -6353,14 +6352,14 @@
       <c r="J121" t="s">
         <v>20</v>
       </c>
-      <c r="K121" t="s">
-        <v>14</v>
-      </c>
-      <c r="L121" t="s">
-        <v>14</v>
-      </c>
-      <c r="M121" t="s">
-        <v>14</v>
+      <c r="K121" s="1">
+        <v>0</v>
+      </c>
+      <c r="L121" s="1">
+        <v>0</v>
+      </c>
+      <c r="M121" s="1">
+        <v>0</v>
       </c>
       <c r="N121" t="s">
         <v>14</v>
@@ -6376,7 +6375,7 @@
       <c r="C122" t="s">
         <v>14</v>
       </c>
-      <c r="D122" s="1">
+      <c r="D122">
         <v>0</v>
       </c>
       <c r="E122" t="s">
@@ -6397,14 +6396,14 @@
       <c r="J122" t="s">
         <v>14</v>
       </c>
-      <c r="K122" t="s">
-        <v>14</v>
-      </c>
-      <c r="L122" t="s">
-        <v>14</v>
-      </c>
-      <c r="M122" t="s">
-        <v>14</v>
+      <c r="K122" s="1">
+        <v>0</v>
+      </c>
+      <c r="L122" s="1">
+        <v>0</v>
+      </c>
+      <c r="M122" s="1">
+        <v>0</v>
       </c>
       <c r="N122" t="s">
         <v>14</v>
@@ -6420,7 +6419,7 @@
       <c r="C123" t="s">
         <v>14</v>
       </c>
-      <c r="D123" s="1">
+      <c r="D123">
         <v>2</v>
       </c>
       <c r="E123" t="s">
@@ -6441,14 +6440,14 @@
       <c r="J123" t="s">
         <v>19</v>
       </c>
-      <c r="K123" t="s">
-        <v>14</v>
-      </c>
-      <c r="L123" t="s">
-        <v>14</v>
-      </c>
-      <c r="M123" t="s">
-        <v>14</v>
+      <c r="K123" s="1">
+        <v>0</v>
+      </c>
+      <c r="L123" s="1">
+        <v>0</v>
+      </c>
+      <c r="M123" s="1">
+        <v>0</v>
       </c>
       <c r="N123" t="s">
         <v>14</v>
@@ -6464,7 +6463,7 @@
       <c r="C124" t="s">
         <v>14</v>
       </c>
-      <c r="D124" s="1">
+      <c r="D124">
         <v>1</v>
       </c>
       <c r="E124" t="s">
@@ -6485,14 +6484,14 @@
       <c r="J124" t="s">
         <v>20</v>
       </c>
-      <c r="K124" t="s">
-        <v>14</v>
-      </c>
-      <c r="L124" t="s">
-        <v>14</v>
-      </c>
-      <c r="M124" t="s">
-        <v>14</v>
+      <c r="K124" s="1">
+        <v>0</v>
+      </c>
+      <c r="L124" s="1">
+        <v>0</v>
+      </c>
+      <c r="M124" s="1">
+        <v>0</v>
       </c>
       <c r="N124" t="s">
         <v>14</v>
@@ -6508,7 +6507,7 @@
       <c r="C125" t="s">
         <v>19</v>
       </c>
-      <c r="D125" s="1">
+      <c r="D125">
         <v>8</v>
       </c>
       <c r="E125" t="s">
@@ -6529,14 +6528,14 @@
       <c r="J125" t="s">
         <v>101</v>
       </c>
-      <c r="K125" t="s">
-        <v>14</v>
-      </c>
-      <c r="L125" t="s">
-        <v>19</v>
-      </c>
-      <c r="M125" t="s">
-        <v>14</v>
+      <c r="K125" s="1">
+        <v>0</v>
+      </c>
+      <c r="L125" s="1">
+        <v>2</v>
+      </c>
+      <c r="M125" s="1">
+        <v>0</v>
       </c>
       <c r="N125" t="s">
         <v>19</v>
@@ -6552,7 +6551,7 @@
       <c r="C126" t="s">
         <v>14</v>
       </c>
-      <c r="D126" s="1">
+      <c r="D126">
         <v>18</v>
       </c>
       <c r="E126" t="s">
@@ -6573,14 +6572,14 @@
       <c r="J126" t="s">
         <v>94</v>
       </c>
-      <c r="K126" t="s">
-        <v>14</v>
-      </c>
-      <c r="L126" t="s">
-        <v>14</v>
-      </c>
-      <c r="M126" t="s">
-        <v>14</v>
+      <c r="K126" s="1">
+        <v>0</v>
+      </c>
+      <c r="L126" s="1">
+        <v>0</v>
+      </c>
+      <c r="M126" s="1">
+        <v>0</v>
       </c>
       <c r="N126" t="s">
         <v>14</v>
@@ -6596,7 +6595,7 @@
       <c r="C127" t="s">
         <v>14</v>
       </c>
-      <c r="D127" s="1">
+      <c r="D127">
         <v>55</v>
       </c>
       <c r="E127" t="s">
@@ -6617,14 +6616,14 @@
       <c r="J127" t="s">
         <v>186</v>
       </c>
-      <c r="K127" t="s">
-        <v>14</v>
-      </c>
-      <c r="L127" t="s">
-        <v>14</v>
-      </c>
-      <c r="M127" t="s">
-        <v>14</v>
+      <c r="K127" s="1">
+        <v>0</v>
+      </c>
+      <c r="L127" s="1">
+        <v>0</v>
+      </c>
+      <c r="M127" s="1">
+        <v>0</v>
       </c>
       <c r="N127" t="s">
         <v>14</v>
@@ -6640,7 +6639,7 @@
       <c r="C128" t="s">
         <v>14</v>
       </c>
-      <c r="D128" s="1">
+      <c r="D128">
         <v>10</v>
       </c>
       <c r="E128" t="s">
@@ -6661,14 +6660,14 @@
       <c r="J128" t="s">
         <v>43</v>
       </c>
-      <c r="K128" t="s">
-        <v>14</v>
-      </c>
-      <c r="L128" t="s">
-        <v>14</v>
-      </c>
-      <c r="M128" t="s">
-        <v>14</v>
+      <c r="K128" s="1">
+        <v>0</v>
+      </c>
+      <c r="L128" s="1">
+        <v>0</v>
+      </c>
+      <c r="M128" s="1">
+        <v>0</v>
       </c>
       <c r="N128" t="s">
         <v>14</v>
@@ -6684,7 +6683,7 @@
       <c r="C129" t="s">
         <v>14</v>
       </c>
-      <c r="D129" s="1">
+      <c r="D129">
         <v>4</v>
       </c>
       <c r="E129" t="s">
@@ -6705,14 +6704,14 @@
       <c r="J129" t="s">
         <v>36</v>
       </c>
-      <c r="K129" t="s">
-        <v>14</v>
-      </c>
-      <c r="L129" t="s">
-        <v>14</v>
-      </c>
-      <c r="M129" t="s">
-        <v>14</v>
+      <c r="K129" s="1">
+        <v>0</v>
+      </c>
+      <c r="L129" s="1">
+        <v>0</v>
+      </c>
+      <c r="M129" s="1">
+        <v>0</v>
       </c>
       <c r="N129" t="s">
         <v>14</v>
@@ -6728,7 +6727,7 @@
       <c r="C130" t="s">
         <v>14</v>
       </c>
-      <c r="D130" s="1">
+      <c r="D130">
         <v>0</v>
       </c>
       <c r="E130" t="s">
@@ -6749,14 +6748,14 @@
       <c r="J130" t="s">
         <v>14</v>
       </c>
-      <c r="K130" t="s">
-        <v>14</v>
-      </c>
-      <c r="L130" t="s">
-        <v>14</v>
-      </c>
-      <c r="M130" t="s">
-        <v>14</v>
+      <c r="K130" s="1">
+        <v>0</v>
+      </c>
+      <c r="L130" s="1">
+        <v>0</v>
+      </c>
+      <c r="M130" s="1">
+        <v>0</v>
       </c>
       <c r="N130" t="s">
         <v>14</v>
@@ -6772,7 +6771,7 @@
       <c r="C131" t="s">
         <v>14</v>
       </c>
-      <c r="D131" s="1">
+      <c r="D131">
         <v>3</v>
       </c>
       <c r="E131" t="s">
@@ -6793,14 +6792,14 @@
       <c r="J131" t="s">
         <v>25</v>
       </c>
-      <c r="K131" t="s">
-        <v>14</v>
-      </c>
-      <c r="L131" t="s">
-        <v>14</v>
-      </c>
-      <c r="M131" t="s">
-        <v>14</v>
+      <c r="K131" s="1">
+        <v>0</v>
+      </c>
+      <c r="L131" s="1">
+        <v>0</v>
+      </c>
+      <c r="M131" s="1">
+        <v>0</v>
       </c>
       <c r="N131" t="s">
         <v>14</v>
@@ -6816,7 +6815,7 @@
       <c r="C132" t="s">
         <v>14</v>
       </c>
-      <c r="D132" s="1">
+      <c r="D132">
         <v>1</v>
       </c>
       <c r="E132" t="s">
@@ -6837,14 +6836,14 @@
       <c r="J132" t="s">
         <v>20</v>
       </c>
-      <c r="K132" t="s">
-        <v>14</v>
-      </c>
-      <c r="L132" t="s">
-        <v>14</v>
-      </c>
-      <c r="M132" t="s">
-        <v>14</v>
+      <c r="K132" s="1">
+        <v>0</v>
+      </c>
+      <c r="L132" s="1">
+        <v>0</v>
+      </c>
+      <c r="M132" s="1">
+        <v>0</v>
       </c>
       <c r="N132" t="s">
         <v>14</v>
@@ -6860,7 +6859,7 @@
       <c r="C133" t="s">
         <v>14</v>
       </c>
-      <c r="D133" s="1">
+      <c r="D133">
         <v>4</v>
       </c>
       <c r="E133" t="s">
@@ -6881,14 +6880,14 @@
       <c r="J133" t="s">
         <v>36</v>
       </c>
-      <c r="K133" t="s">
-        <v>14</v>
-      </c>
-      <c r="L133" t="s">
-        <v>14</v>
-      </c>
-      <c r="M133" t="s">
-        <v>14</v>
+      <c r="K133" s="1">
+        <v>0</v>
+      </c>
+      <c r="L133" s="1">
+        <v>0</v>
+      </c>
+      <c r="M133" s="1">
+        <v>0</v>
       </c>
       <c r="N133" t="s">
         <v>14</v>
@@ -6904,7 +6903,7 @@
       <c r="C134" t="s">
         <v>14</v>
       </c>
-      <c r="D134" s="1">
+      <c r="D134">
         <v>0</v>
       </c>
       <c r="E134" t="s">
@@ -6925,14 +6924,14 @@
       <c r="J134" t="s">
         <v>14</v>
       </c>
-      <c r="K134" t="s">
-        <v>14</v>
-      </c>
-      <c r="L134" t="s">
-        <v>14</v>
-      </c>
-      <c r="M134" t="s">
-        <v>14</v>
+      <c r="K134" s="1">
+        <v>0</v>
+      </c>
+      <c r="L134" s="1">
+        <v>0</v>
+      </c>
+      <c r="M134" s="1">
+        <v>0</v>
       </c>
       <c r="N134" t="s">
         <v>14</v>
@@ -6948,7 +6947,7 @@
       <c r="C135" t="s">
         <v>14</v>
       </c>
-      <c r="D135" s="1">
+      <c r="D135">
         <v>0</v>
       </c>
       <c r="E135" t="s">
@@ -6969,14 +6968,14 @@
       <c r="J135" t="s">
         <v>14</v>
       </c>
-      <c r="K135" t="s">
-        <v>14</v>
-      </c>
-      <c r="L135" t="s">
-        <v>14</v>
-      </c>
-      <c r="M135" t="s">
-        <v>14</v>
+      <c r="K135" s="1">
+        <v>0</v>
+      </c>
+      <c r="L135" s="1">
+        <v>0</v>
+      </c>
+      <c r="M135" s="1">
+        <v>0</v>
       </c>
       <c r="N135" t="s">
         <v>14</v>
@@ -6992,7 +6991,7 @@
       <c r="C136" t="s">
         <v>14</v>
       </c>
-      <c r="D136" s="1">
+      <c r="D136">
         <v>2</v>
       </c>
       <c r="E136" t="s">
@@ -7013,14 +7012,14 @@
       <c r="J136" t="s">
         <v>19</v>
       </c>
-      <c r="K136" t="s">
-        <v>14</v>
-      </c>
-      <c r="L136" t="s">
-        <v>14</v>
-      </c>
-      <c r="M136" t="s">
-        <v>14</v>
+      <c r="K136" s="1">
+        <v>0</v>
+      </c>
+      <c r="L136" s="1">
+        <v>0</v>
+      </c>
+      <c r="M136" s="1">
+        <v>0</v>
       </c>
       <c r="N136" t="s">
         <v>14</v>
@@ -7036,7 +7035,7 @@
       <c r="C137" t="s">
         <v>14</v>
       </c>
-      <c r="D137" s="1">
+      <c r="D137">
         <v>17</v>
       </c>
       <c r="E137" t="s">
@@ -7057,14 +7056,14 @@
       <c r="J137" t="s">
         <v>58</v>
       </c>
-      <c r="K137" t="s">
-        <v>14</v>
-      </c>
-      <c r="L137" t="s">
-        <v>14</v>
-      </c>
-      <c r="M137" t="s">
-        <v>14</v>
+      <c r="K137" s="1">
+        <v>0</v>
+      </c>
+      <c r="L137" s="1">
+        <v>0</v>
+      </c>
+      <c r="M137" s="1">
+        <v>0</v>
       </c>
       <c r="N137" t="s">
         <v>14</v>
@@ -7080,7 +7079,7 @@
       <c r="C138" t="s">
         <v>14</v>
       </c>
-      <c r="D138" s="1">
+      <c r="D138">
         <v>0</v>
       </c>
       <c r="E138" t="s">
@@ -7101,14 +7100,14 @@
       <c r="J138" t="s">
         <v>14</v>
       </c>
-      <c r="K138" t="s">
-        <v>14</v>
-      </c>
-      <c r="L138" t="s">
-        <v>14</v>
-      </c>
-      <c r="M138" t="s">
-        <v>14</v>
+      <c r="K138" s="1">
+        <v>0</v>
+      </c>
+      <c r="L138" s="1">
+        <v>0</v>
+      </c>
+      <c r="M138" s="1">
+        <v>0</v>
       </c>
       <c r="N138" t="s">
         <v>14</v>
@@ -7124,7 +7123,7 @@
       <c r="C139" t="s">
         <v>14</v>
       </c>
-      <c r="D139" s="1">
+      <c r="D139">
         <v>0</v>
       </c>
       <c r="E139" t="s">
@@ -7145,14 +7144,14 @@
       <c r="J139" t="s">
         <v>14</v>
       </c>
-      <c r="K139" t="s">
-        <v>14</v>
-      </c>
-      <c r="L139" t="s">
-        <v>14</v>
-      </c>
-      <c r="M139" t="s">
-        <v>14</v>
+      <c r="K139" s="1">
+        <v>0</v>
+      </c>
+      <c r="L139" s="1">
+        <v>0</v>
+      </c>
+      <c r="M139" s="1">
+        <v>0</v>
       </c>
       <c r="N139" t="s">
         <v>14</v>
@@ -7168,7 +7167,7 @@
       <c r="C140" t="s">
         <v>202</v>
       </c>
-      <c r="D140" s="1">
+      <c r="D140">
         <v>221</v>
       </c>
       <c r="E140" t="s">
@@ -7189,14 +7188,14 @@
       <c r="J140" t="s">
         <v>201</v>
       </c>
-      <c r="K140" t="s">
-        <v>204</v>
-      </c>
-      <c r="L140" t="s">
-        <v>26</v>
-      </c>
-      <c r="M140" t="s">
-        <v>14</v>
+      <c r="K140" s="1">
+        <v>80</v>
+      </c>
+      <c r="L140" s="1">
+        <v>16</v>
+      </c>
+      <c r="M140" s="1">
+        <v>0</v>
       </c>
       <c r="N140" t="s">
         <v>202</v>
@@ -7204,7 +7203,7 @@
     </row>
     <row r="141" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B141" t="s">
         <v>58</v>
@@ -7212,7 +7211,7 @@
       <c r="C141" t="s">
         <v>14</v>
       </c>
-      <c r="D141" s="1">
+      <c r="D141">
         <v>17</v>
       </c>
       <c r="E141" t="s">
@@ -7233,14 +7232,14 @@
       <c r="J141" t="s">
         <v>58</v>
       </c>
-      <c r="K141" t="s">
-        <v>14</v>
-      </c>
-      <c r="L141" t="s">
-        <v>14</v>
-      </c>
-      <c r="M141" t="s">
-        <v>14</v>
+      <c r="K141" s="1">
+        <v>0</v>
+      </c>
+      <c r="L141" s="1">
+        <v>0</v>
+      </c>
+      <c r="M141" s="1">
+        <v>0</v>
       </c>
       <c r="N141" t="s">
         <v>14</v>
@@ -7248,7 +7247,7 @@
     </row>
     <row r="142" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B142" t="s">
         <v>14</v>
@@ -7256,7 +7255,7 @@
       <c r="C142" t="s">
         <v>14</v>
       </c>
-      <c r="D142" s="1">
+      <c r="D142">
         <v>0</v>
       </c>
       <c r="E142" t="s">
@@ -7277,14 +7276,14 @@
       <c r="J142" t="s">
         <v>14</v>
       </c>
-      <c r="K142" t="s">
-        <v>14</v>
-      </c>
-      <c r="L142" t="s">
-        <v>14</v>
-      </c>
-      <c r="M142" t="s">
-        <v>14</v>
+      <c r="K142" s="1">
+        <v>0</v>
+      </c>
+      <c r="L142" s="1">
+        <v>0</v>
+      </c>
+      <c r="M142" s="1">
+        <v>0</v>
       </c>
       <c r="N142" t="s">
         <v>14</v>
@@ -7292,7 +7291,7 @@
     </row>
     <row r="143" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B143" t="s">
         <v>14</v>
@@ -7300,7 +7299,7 @@
       <c r="C143" t="s">
         <v>14</v>
       </c>
-      <c r="D143" s="1">
+      <c r="D143">
         <v>0</v>
       </c>
       <c r="E143" t="s">
@@ -7321,14 +7320,14 @@
       <c r="J143" t="s">
         <v>14</v>
       </c>
-      <c r="K143" t="s">
-        <v>14</v>
-      </c>
-      <c r="L143" t="s">
-        <v>14</v>
-      </c>
-      <c r="M143" t="s">
-        <v>14</v>
+      <c r="K143" s="1">
+        <v>0</v>
+      </c>
+      <c r="L143" s="1">
+        <v>0</v>
+      </c>
+      <c r="M143" s="1">
+        <v>0</v>
       </c>
       <c r="N143" t="s">
         <v>14</v>
@@ -7336,7 +7335,7 @@
     </row>
     <row r="144" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B144" t="s">
         <v>101</v>
@@ -7344,7 +7343,7 @@
       <c r="C144" t="s">
         <v>36</v>
       </c>
-      <c r="D144" s="1">
+      <c r="D144">
         <v>10</v>
       </c>
       <c r="E144" t="s">
@@ -7365,14 +7364,14 @@
       <c r="J144" t="s">
         <v>101</v>
       </c>
-      <c r="K144" t="s">
-        <v>36</v>
-      </c>
-      <c r="L144" t="s">
-        <v>14</v>
-      </c>
-      <c r="M144" t="s">
-        <v>14</v>
+      <c r="K144" s="1">
+        <v>4</v>
+      </c>
+      <c r="L144" s="1">
+        <v>0</v>
+      </c>
+      <c r="M144" s="1">
+        <v>0</v>
       </c>
       <c r="N144" t="s">
         <v>36</v>
@@ -7380,7 +7379,7 @@
     </row>
     <row r="145" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B145" t="s">
         <v>14</v>
@@ -7424,7 +7423,7 @@
     </row>
     <row r="146" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B146" t="s">
         <v>14</v>
